--- a/JupyterNotebooks/AvgHW/SA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,24 +82,30 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +113,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,13 +653,13 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.004996820712794</v>
+      </c>
+      <c r="D3">
+        <v>0.9949486301700963</v>
+      </c>
+      <c r="E3">
         <v>1.06158343524296</v>
-      </c>
-      <c r="D3">
-        <v>0.9560852844970736</v>
-      </c>
-      <c r="E3">
-        <v>0.9536718278061078</v>
       </c>
       <c r="F3">
         <v>1.06158343524296</v>
@@ -659,49 +671,49 @@
         <v>1.007907696554501</v>
       </c>
       <c r="I3">
-        <v>1.06158343524296</v>
+        <v>0.9536718278061079</v>
       </c>
       <c r="J3">
         <v>0.9560852844970736</v>
       </c>
       <c r="K3">
+        <v>1.06158343524296</v>
+      </c>
+      <c r="L3">
+        <v>0.9560852844970736</v>
+      </c>
+      <c r="M3">
         <v>1.016593108169967</v>
-      </c>
-      <c r="L3">
-        <v>1.004996820712794</v>
-      </c>
-      <c r="M3">
-        <v>0.9949486301700959</v>
       </c>
       <c r="N3">
         <v>1.06158343524296</v>
       </c>
       <c r="O3">
-        <v>0.9536718278061078</v>
+        <v>0.9536718278061079</v>
       </c>
       <c r="P3">
-        <v>0.9548785561515907</v>
+        <v>0.9548785561515908</v>
       </c>
       <c r="Q3">
-        <v>0.9573717611663171</v>
+        <v>0.9573717611663172</v>
       </c>
       <c r="R3">
-        <v>0.9904468491820472</v>
+        <v>0.9904468491820473</v>
       </c>
       <c r="S3">
         <v>0.9569429356099026</v>
       </c>
       <c r="T3">
-        <v>0.9904468491820472</v>
+        <v>0.9904468491820473</v>
       </c>
       <c r="U3">
-        <v>0.983103060518167</v>
+        <v>0.9831030605181671</v>
       </c>
       <c r="V3">
         <v>0.9987991354631257</v>
       </c>
       <c r="W3">
-        <v>0.9946073122100031</v>
+        <v>0.9946073122100033</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,13 +724,13 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.002840550218579</v>
+      </c>
+      <c r="D4">
+        <v>0.9907584283849312</v>
+      </c>
+      <c r="E4">
         <v>1.163912123727912</v>
-      </c>
-      <c r="D4">
-        <v>0.9247712258388324</v>
-      </c>
-      <c r="E4">
-        <v>0.9388351797027392</v>
       </c>
       <c r="F4">
         <v>1.163912123727912</v>
@@ -730,31 +742,31 @@
         <v>1.005703809510849</v>
       </c>
       <c r="I4">
+        <v>0.9388351797027396</v>
+      </c>
+      <c r="J4">
+        <v>0.9247712258388323</v>
+      </c>
+      <c r="K4">
         <v>1.163912123727912</v>
       </c>
-      <c r="J4">
-        <v>0.9247712258388324</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0.9247712258388323</v>
+      </c>
+      <c r="M4">
         <v>1.047355316221156</v>
-      </c>
-      <c r="L4">
-        <v>1.002840550218579</v>
-      </c>
-      <c r="M4">
-        <v>0.9907584283849309</v>
       </c>
       <c r="N4">
         <v>1.163912123727912</v>
       </c>
       <c r="O4">
-        <v>0.9388351797027392</v>
+        <v>0.9388351797027396</v>
       </c>
       <c r="P4">
         <v>0.9318032027707859</v>
       </c>
       <c r="Q4">
-        <v>0.9440240877178712</v>
+        <v>0.9440240877178714</v>
       </c>
       <c r="R4">
         <v>1.009172843089828</v>
@@ -766,7 +778,7 @@
         <v>1.009172843089828</v>
       </c>
       <c r="U4">
-        <v>0.9941828812506215</v>
+        <v>0.9941828812506217</v>
       </c>
       <c r="V4">
         <v>1.02812872974608</v>
@@ -783,16 +795,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.426364778558493</v>
+        <v>1.157647644055814</v>
       </c>
       <c r="D5">
-        <v>0.9817220576027323</v>
+        <v>1.01195178795936</v>
       </c>
       <c r="E5">
-        <v>0.7576655276188383</v>
+        <v>1.426364778558492</v>
       </c>
       <c r="F5">
-        <v>1.426364778558493</v>
+        <v>1.426364778558492</v>
       </c>
       <c r="G5">
         <v>0.7714929954765783</v>
@@ -801,22 +813,22 @@
         <v>1.128659233626176</v>
       </c>
       <c r="I5">
-        <v>1.426364778558493</v>
+        <v>0.7576655276188383</v>
       </c>
       <c r="J5">
         <v>0.9817220576027323</v>
       </c>
       <c r="K5">
+        <v>1.426364778558492</v>
+      </c>
+      <c r="L5">
+        <v>0.9817220576027323</v>
+      </c>
+      <c r="M5">
         <v>1.06254588018692</v>
       </c>
-      <c r="L5">
-        <v>1.157647644055814</v>
-      </c>
-      <c r="M5">
-        <v>1.01195178795936</v>
-      </c>
       <c r="N5">
-        <v>1.426364778558493</v>
+        <v>1.426364778558492</v>
       </c>
       <c r="O5">
         <v>0.7576655276188383</v>
@@ -828,19 +840,19 @@
         <v>0.7645792615477083</v>
       </c>
       <c r="R5">
-        <v>1.055250787926688</v>
+        <v>1.055250787926687</v>
       </c>
       <c r="S5">
         <v>0.8369601935660497</v>
       </c>
       <c r="T5">
-        <v>1.055250787926688</v>
+        <v>1.055250787926687</v>
       </c>
       <c r="U5">
-        <v>0.9843113398141603</v>
+        <v>0.9843113398141601</v>
       </c>
       <c r="V5">
-        <v>1.072722027563027</v>
+        <v>1.072722027563026</v>
       </c>
       <c r="W5">
         <v>1.037256238135614</v>
@@ -854,13 +866,13 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.171895451028345</v>
+      </c>
+      <c r="D6">
+        <v>0.8365378436106552</v>
+      </c>
+      <c r="E6">
         <v>1.935676985299377</v>
-      </c>
-      <c r="D6">
-        <v>0.9130200743921834</v>
-      </c>
-      <c r="E6">
-        <v>0.4982469482183665</v>
       </c>
       <c r="F6">
         <v>1.935676985299377</v>
@@ -869,22 +881,22 @@
         <v>0.7079817533086157</v>
       </c>
       <c r="H6">
-        <v>0.7998759219692105</v>
+        <v>0.7998759219692106</v>
       </c>
       <c r="I6">
+        <v>0.4982469482183665</v>
+      </c>
+      <c r="J6">
+        <v>0.9130200743921836</v>
+      </c>
+      <c r="K6">
         <v>1.935676985299377</v>
       </c>
-      <c r="J6">
-        <v>0.9130200743921834</v>
-      </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0.9130200743921836</v>
+      </c>
+      <c r="M6">
         <v>1.045859727334433</v>
-      </c>
-      <c r="L6">
-        <v>1.171895451028345</v>
-      </c>
-      <c r="M6">
-        <v>0.8365378436106552</v>
       </c>
       <c r="N6">
         <v>1.935676985299377</v>
@@ -925,67 +937,67 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>1.000217658992381</v>
+      </c>
+      <c r="D7">
+        <v>0.9984829026034733</v>
+      </c>
+      <c r="E7">
         <v>0.9990934705707594</v>
-      </c>
-      <c r="D7">
-        <v>0.9984694471243839</v>
-      </c>
-      <c r="E7">
-        <v>0.9984847962009652</v>
       </c>
       <c r="F7">
         <v>0.9990934705707594</v>
       </c>
       <c r="G7">
-        <v>0.9990349955112662</v>
+        <v>0.9990349955112671</v>
       </c>
       <c r="H7">
-        <v>0.9994006323708623</v>
+        <v>0.9994006323708627</v>
       </c>
       <c r="I7">
+        <v>0.9984847962009645</v>
+      </c>
+      <c r="J7">
+        <v>0.9984694471243825</v>
+      </c>
+      <c r="K7">
         <v>0.9990934705707594</v>
       </c>
-      <c r="J7">
-        <v>0.9984694471243839</v>
-      </c>
-      <c r="K7">
-        <v>0.9988037275745945</v>
-      </c>
       <c r="L7">
-        <v>1.000217658992382</v>
+        <v>0.9984694471243825</v>
       </c>
       <c r="M7">
-        <v>0.9984829026034731</v>
+        <v>0.9988037275745933</v>
       </c>
       <c r="N7">
         <v>0.9990934705707594</v>
       </c>
       <c r="O7">
-        <v>0.9984847962009652</v>
+        <v>0.9984847962009645</v>
       </c>
       <c r="P7">
-        <v>0.9984771216626745</v>
+        <v>0.9984771216626736</v>
       </c>
       <c r="Q7">
-        <v>0.9987598958561157</v>
+        <v>0.9987598958561158</v>
       </c>
       <c r="R7">
-        <v>0.9986825712987027</v>
+        <v>0.9986825712987022</v>
       </c>
       <c r="S7">
-        <v>0.998663079612205</v>
+        <v>0.9986630796122048</v>
       </c>
       <c r="T7">
-        <v>0.9986825712987027</v>
+        <v>0.9986825712987022</v>
       </c>
       <c r="U7">
-        <v>0.9987706773518437</v>
+        <v>0.9987706773518434</v>
       </c>
       <c r="V7">
-        <v>0.9988352359956268</v>
+        <v>0.9988352359956266</v>
       </c>
       <c r="W7">
-        <v>0.9989984538685859</v>
+        <v>0.9989984538685855</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1008,67 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.002244029695417</v>
+      </c>
+      <c r="D8">
+        <v>0.9955818490981312</v>
+      </c>
+      <c r="E8">
         <v>0.9977290602208045</v>
-      </c>
-      <c r="D8">
-        <v>0.9947057129537843</v>
-      </c>
-      <c r="E8">
-        <v>0.9996664245167916</v>
       </c>
       <c r="F8">
         <v>0.9977290602208045</v>
       </c>
       <c r="G8">
-        <v>0.9979443911656756</v>
+        <v>0.9979443911656752</v>
       </c>
       <c r="H8">
-        <v>0.9984544609219962</v>
+        <v>0.998454460921998</v>
       </c>
       <c r="I8">
+        <v>0.9996664245167922</v>
+      </c>
+      <c r="J8">
+        <v>0.9947057129537848</v>
+      </c>
+      <c r="K8">
         <v>0.9977290602208045</v>
       </c>
-      <c r="J8">
-        <v>0.9947057129537843</v>
-      </c>
-      <c r="K8">
+      <c r="L8">
+        <v>0.9947057129537848</v>
+      </c>
+      <c r="M8">
         <v>0.9967709381746945</v>
-      </c>
-      <c r="L8">
-        <v>1.002244029695415</v>
-      </c>
-      <c r="M8">
-        <v>0.9955818490981306</v>
       </c>
       <c r="N8">
         <v>0.9977290602208045</v>
       </c>
       <c r="O8">
-        <v>0.9996664245167916</v>
+        <v>0.9996664245167922</v>
       </c>
       <c r="P8">
-        <v>0.9971860687352879</v>
+        <v>0.9971860687352885</v>
       </c>
       <c r="Q8">
-        <v>0.9988054078412336</v>
+        <v>0.9988054078412337</v>
       </c>
       <c r="R8">
-        <v>0.9973670658971269</v>
+        <v>0.9973670658971271</v>
       </c>
       <c r="S8">
-        <v>0.9974388428787505</v>
+        <v>0.9974388428787507</v>
       </c>
       <c r="T8">
-        <v>0.9973670658971269</v>
+        <v>0.9973670658971273</v>
       </c>
       <c r="U8">
-        <v>0.997511397214264</v>
+        <v>0.9975113972142643</v>
       </c>
       <c r="V8">
-        <v>0.9975549298155721</v>
+        <v>0.9975549298155724</v>
       </c>
       <c r="W8">
-        <v>0.9978871083434115</v>
+        <v>0.9978871083434122</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,13 +1079,13 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.007246381106835</v>
+      </c>
+      <c r="D9">
+        <v>0.9903783482415098</v>
+      </c>
+      <c r="E9">
         <v>1.015816350608682</v>
-      </c>
-      <c r="D9">
-        <v>0.9930956503774566</v>
-      </c>
-      <c r="E9">
-        <v>0.9956538326137917</v>
       </c>
       <c r="F9">
         <v>1.015816350608682</v>
@@ -1085,19 +1097,19 @@
         <v>0.9907323318324628</v>
       </c>
       <c r="I9">
-        <v>1.015816350608682</v>
+        <v>0.9956538326137917</v>
       </c>
       <c r="J9">
         <v>0.9930956503774566</v>
       </c>
       <c r="K9">
+        <v>1.015816350608682</v>
+      </c>
+      <c r="L9">
+        <v>0.9930956503774566</v>
+      </c>
+      <c r="M9">
         <v>0.9944132147243058</v>
-      </c>
-      <c r="L9">
-        <v>1.007246381106835</v>
-      </c>
-      <c r="M9">
-        <v>0.9903783482415098</v>
       </c>
       <c r="N9">
         <v>1.015816350608682</v>
@@ -1138,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.003539527043636</v>
+      </c>
+      <c r="D10">
+        <v>0.994171506541371</v>
+      </c>
+      <c r="E10">
         <v>0.9760331517024553</v>
-      </c>
-      <c r="D10">
-        <v>0.9909757832050829</v>
-      </c>
-      <c r="E10">
-        <v>0.9912054982065164</v>
       </c>
       <c r="F10">
         <v>0.9760331517024553</v>
@@ -1156,19 +1168,19 @@
         <v>1.002128221816792</v>
       </c>
       <c r="I10">
+        <v>0.9912054982065164</v>
+      </c>
+      <c r="J10">
+        <v>0.9909757832050827</v>
+      </c>
+      <c r="K10">
         <v>0.9760331517024553</v>
       </c>
-      <c r="J10">
-        <v>0.9909757832050829</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
+        <v>0.9909757832050827</v>
+      </c>
+      <c r="M10">
         <v>0.9960052931943204</v>
-      </c>
-      <c r="L10">
-        <v>1.003539527043636</v>
-      </c>
-      <c r="M10">
-        <v>0.994171506541371</v>
       </c>
       <c r="N10">
         <v>0.9760331517024553</v>
@@ -1177,19 +1189,19 @@
         <v>0.9912054982065164</v>
       </c>
       <c r="P10">
-        <v>0.9910906407057997</v>
+        <v>0.9910906407057996</v>
       </c>
       <c r="Q10">
         <v>0.9909334662647876</v>
       </c>
       <c r="R10">
-        <v>0.986071477704685</v>
+        <v>0.9860714777046847</v>
       </c>
       <c r="S10">
         <v>0.9909475719115527</v>
       </c>
       <c r="T10">
-        <v>0.986071477704685</v>
+        <v>0.9860714777046847</v>
       </c>
       <c r="U10">
         <v>0.9872189668592783</v>
@@ -1209,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.035226989075718</v>
+      </c>
+      <c r="D11">
+        <v>0.9611013951452855</v>
+      </c>
+      <c r="E11">
         <v>1.029459894125828</v>
-      </c>
-      <c r="D11">
-        <v>0.8904573808547618</v>
-      </c>
-      <c r="E11">
-        <v>0.9676748875473582</v>
       </c>
       <c r="F11">
         <v>1.029459894125828</v>
       </c>
       <c r="G11">
-        <v>1.000318831649773</v>
+        <v>1.000318831649774</v>
       </c>
       <c r="H11">
         <v>0.9409866523976519</v>
       </c>
       <c r="I11">
-        <v>1.029459894125828</v>
+        <v>0.9676748875473582</v>
       </c>
       <c r="J11">
         <v>0.8904573808547618</v>
       </c>
       <c r="K11">
-        <v>0.9966032629166394</v>
+        <v>1.029459894125828</v>
       </c>
       <c r="L11">
-        <v>1.035226989075718</v>
+        <v>0.8904573808547618</v>
       </c>
       <c r="M11">
-        <v>0.9611013951452855</v>
+        <v>0.9966032629166391</v>
       </c>
       <c r="N11">
         <v>1.029459894125828</v>
@@ -1251,22 +1263,22 @@
         <v>0.92906613420106</v>
       </c>
       <c r="Q11">
-        <v>0.9839968595985658</v>
+        <v>0.9839968595985659</v>
       </c>
       <c r="R11">
-        <v>0.9625307208426492</v>
+        <v>0.9625307208426491</v>
       </c>
       <c r="S11">
         <v>0.9528170333506312</v>
       </c>
       <c r="T11">
-        <v>0.9625307208426492</v>
+        <v>0.9625307208426491</v>
       </c>
       <c r="U11">
-        <v>0.9719777485444303</v>
+        <v>0.9719777485444302</v>
       </c>
       <c r="V11">
-        <v>0.9834741776607098</v>
+        <v>0.9834741776607097</v>
       </c>
       <c r="W11">
         <v>0.977728661714127</v>
@@ -1280,64 +1292,64 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9840053548963867</v>
+        <v>1.531501474756946</v>
       </c>
       <c r="D12">
-        <v>1.767723737934358</v>
+        <v>1.539455930538949</v>
       </c>
       <c r="E12">
-        <v>0.4627936133186834</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="F12">
-        <v>0.9840053548963867</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="G12">
         <v>0.6271839420445542</v>
       </c>
       <c r="H12">
-        <v>0.9256219321168199</v>
+        <v>0.9256219321168204</v>
       </c>
       <c r="I12">
-        <v>0.9840053548963867</v>
+        <v>0.4627936133186827</v>
       </c>
       <c r="J12">
         <v>1.767723737934358</v>
       </c>
       <c r="K12">
-        <v>0.5238793359144964</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="L12">
-        <v>1.531501474756946</v>
+        <v>1.767723737934358</v>
       </c>
       <c r="M12">
-        <v>1.539455930538949</v>
+        <v>0.5238793359144963</v>
       </c>
       <c r="N12">
-        <v>0.9840053548963867</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="O12">
-        <v>0.4627936133186834</v>
+        <v>0.4627936133186827</v>
       </c>
       <c r="P12">
-        <v>1.115258675626521</v>
+        <v>1.11525867562652</v>
       </c>
       <c r="Q12">
-        <v>0.5449887776816188</v>
+        <v>0.5449887776816185</v>
       </c>
       <c r="R12">
         <v>1.071507568716476</v>
       </c>
       <c r="S12">
-        <v>0.9525670977658652</v>
+        <v>0.9525670977658649</v>
       </c>
       <c r="T12">
-        <v>1.071507568716476</v>
+        <v>1.071507568716475</v>
       </c>
       <c r="U12">
-        <v>0.9604266620484956</v>
+        <v>0.9604266620484951</v>
       </c>
       <c r="V12">
-        <v>0.9651424006180738</v>
+        <v>0.9651424006180733</v>
       </c>
       <c r="W12">
         <v>1.045270665190149</v>
@@ -1351,67 +1363,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.046112278459053</v>
+        <v>0.7952416120434692</v>
       </c>
       <c r="D13">
-        <v>0.9245614428718992</v>
+        <v>1.162045768650515</v>
       </c>
       <c r="E13">
-        <v>0.8720598664434069</v>
+        <v>1.046112278459054</v>
       </c>
       <c r="F13">
-        <v>1.046112278459053</v>
+        <v>1.046112278459054</v>
       </c>
       <c r="G13">
-        <v>0.8106030221734617</v>
+        <v>0.8106030221734616</v>
       </c>
       <c r="H13">
-        <v>0.9498327163668195</v>
+        <v>0.94983271636682</v>
       </c>
       <c r="I13">
-        <v>1.046112278459053</v>
+        <v>0.8720598664434072</v>
       </c>
       <c r="J13">
-        <v>0.9245614428718992</v>
+        <v>0.9245614428718981</v>
       </c>
       <c r="K13">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="L13">
+        <v>0.9245614428718981</v>
+      </c>
+      <c r="M13">
         <v>1.299384753518798</v>
       </c>
-      <c r="L13">
-        <v>0.7952416120434692</v>
-      </c>
-      <c r="M13">
-        <v>1.162045768650515</v>
-      </c>
       <c r="N13">
-        <v>1.046112278459053</v>
+        <v>1.046112278459054</v>
       </c>
       <c r="O13">
-        <v>0.8720598664434069</v>
+        <v>0.8720598664434072</v>
       </c>
       <c r="P13">
-        <v>0.8983106546576531</v>
+        <v>0.8983106546576527</v>
       </c>
       <c r="Q13">
         <v>0.8413314443084343</v>
       </c>
       <c r="R13">
-        <v>0.9475778625914533</v>
+        <v>0.9475778625914532</v>
       </c>
       <c r="S13">
-        <v>0.8690747771629227</v>
+        <v>0.8690747771629224</v>
       </c>
       <c r="T13">
-        <v>0.9475778625914532</v>
+        <v>0.9475778625914529</v>
       </c>
       <c r="U13">
-        <v>0.9133341524869553</v>
+        <v>0.9133341524869552</v>
       </c>
       <c r="V13">
         <v>0.9398897776813749</v>
       </c>
       <c r="W13">
-        <v>0.982480182565928</v>
+        <v>0.9824801825659278</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,40 +1434,40 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-4.311673120392456E-05</v>
+        <v>0.4536917121509401</v>
       </c>
       <c r="D14">
-        <v>0.0017020798034347</v>
+        <v>0.4096840475411664</v>
       </c>
       <c r="E14">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="F14">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="G14">
+        <v>0.8118449974278891</v>
+      </c>
+      <c r="H14">
+        <v>1.303737983122168</v>
+      </c>
+      <c r="I14">
         <v>2.974005281740447</v>
       </c>
-      <c r="F14">
-        <v>-4.311673120392456E-05</v>
-      </c>
-      <c r="G14">
-        <v>0.8118449974278895</v>
-      </c>
-      <c r="H14">
-        <v>1.303737983122169</v>
-      </c>
-      <c r="I14">
-        <v>-4.311673120392456E-05</v>
-      </c>
       <c r="J14">
-        <v>0.0017020798034347</v>
+        <v>0.001702079803434697</v>
       </c>
       <c r="K14">
-        <v>1.431143634562503</v>
+        <v>-4.311673120392414E-05</v>
       </c>
       <c r="L14">
-        <v>0.4536917121509401</v>
+        <v>0.001702079803434697</v>
       </c>
       <c r="M14">
-        <v>0.4096840475411666</v>
+        <v>1.431143634562504</v>
       </c>
       <c r="N14">
-        <v>-4.311673120392456E-05</v>
+        <v>-4.311673120392414E-05</v>
       </c>
       <c r="O14">
         <v>2.974005281740447</v>
@@ -1467,22 +1479,22 @@
         <v>1.892925139584168</v>
       </c>
       <c r="R14">
-        <v>0.9918880816042259</v>
+        <v>0.9918880816042258</v>
       </c>
       <c r="S14">
         <v>1.26251745299059</v>
       </c>
       <c r="T14">
-        <v>0.9918880816042259</v>
+        <v>0.9918880816042258</v>
       </c>
       <c r="U14">
-        <v>0.9468773105601418</v>
+        <v>0.9468773105601416</v>
       </c>
       <c r="V14">
-        <v>0.7574932251018727</v>
+        <v>0.7574932251018724</v>
       </c>
       <c r="W14">
-        <v>0.9232208274521683</v>
+        <v>0.9232208274521682</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,43 +1505,43 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6022316227780383</v>
+        <v>1.358438649396205</v>
       </c>
       <c r="D15">
-        <v>1.655727129746554</v>
+        <v>1.591921160835133</v>
       </c>
       <c r="E15">
-        <v>0.1993459802812507</v>
+        <v>0.6022316227780382</v>
       </c>
       <c r="F15">
-        <v>0.6022316227780383</v>
+        <v>0.6022316227780382</v>
       </c>
       <c r="G15">
         <v>1.358152967190434</v>
       </c>
       <c r="H15">
-        <v>0.8098822901324818</v>
+        <v>0.8098822901324816</v>
       </c>
       <c r="I15">
-        <v>0.6022316227780383</v>
+        <v>0.1993459802812506</v>
       </c>
       <c r="J15">
         <v>1.655727129746554</v>
       </c>
       <c r="K15">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="L15">
+        <v>1.655727129746554</v>
+      </c>
+      <c r="M15">
         <v>0.4300450824887913</v>
       </c>
-      <c r="L15">
-        <v>1.358438649396204</v>
-      </c>
-      <c r="M15">
-        <v>1.591921160835133</v>
-      </c>
       <c r="N15">
-        <v>0.6022316227780383</v>
+        <v>0.6022316227780382</v>
       </c>
       <c r="O15">
-        <v>0.1993459802812507</v>
+        <v>0.1993459802812506</v>
       </c>
       <c r="P15">
         <v>0.9275365550139025</v>
@@ -1544,13 +1556,13 @@
         <v>1.071075359072746</v>
       </c>
       <c r="T15">
-        <v>0.8191015776019478</v>
+        <v>0.8191015776019476</v>
       </c>
       <c r="U15">
-        <v>0.9538644249990694</v>
+        <v>0.9538644249990693</v>
       </c>
       <c r="V15">
-        <v>0.8835378645548632</v>
+        <v>0.8835378645548631</v>
       </c>
       <c r="W15">
         <v>1.000718110356111</v>
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9911174103361308</v>
+        <v>1.173294644172044</v>
       </c>
       <c r="D16">
-        <v>1.004416392137885</v>
+        <v>0.904968216309797</v>
       </c>
       <c r="E16">
-        <v>0.9993794933216372</v>
+        <v>2.264998554369355</v>
       </c>
       <c r="F16">
-        <v>0.9911174103361308</v>
+        <v>2.264998554369355</v>
       </c>
       <c r="G16">
-        <v>0.9993435390432948</v>
+        <v>0.4221791945609977</v>
       </c>
       <c r="H16">
-        <v>1.005326533576175</v>
+        <v>1.112075400045889</v>
       </c>
       <c r="I16">
-        <v>0.9911174103361308</v>
+        <v>0.3387230087034297</v>
       </c>
       <c r="J16">
-        <v>1.004416392137885</v>
+        <v>0.2104586797856233</v>
       </c>
       <c r="K16">
-        <v>0.994630079412665</v>
+        <v>2.264998554369355</v>
       </c>
       <c r="L16">
-        <v>0.9992953829773022</v>
+        <v>0.2104586797856233</v>
       </c>
       <c r="M16">
-        <v>1.000672093612879</v>
+        <v>1.269755208780715</v>
       </c>
       <c r="N16">
-        <v>0.9911174103361308</v>
+        <v>2.264998554369355</v>
       </c>
       <c r="O16">
-        <v>0.9993794933216372</v>
+        <v>0.3387230087034297</v>
       </c>
       <c r="P16">
-        <v>1.001897942729761</v>
+        <v>0.2745908442445265</v>
       </c>
       <c r="Q16">
-        <v>0.999361516182466</v>
+        <v>0.3804511016322137</v>
       </c>
       <c r="R16">
-        <v>0.9983044319318846</v>
+        <v>0.9380600809528028</v>
       </c>
       <c r="S16">
-        <v>1.001046474834273</v>
+        <v>0.3237869610166836</v>
       </c>
       <c r="T16">
-        <v>0.9983044319318845</v>
+        <v>0.9380600809528028</v>
       </c>
       <c r="U16">
-        <v>0.9985642087097371</v>
+        <v>0.8090898593548516</v>
       </c>
       <c r="V16">
-        <v>0.9970748490350158</v>
+        <v>1.100271598357752</v>
       </c>
       <c r="W16">
-        <v>0.9992726155522461</v>
+        <v>0.9620566133409812</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.01854838572003</v>
+        <v>1.134142038305093</v>
       </c>
       <c r="D17">
-        <v>1.013476421438184</v>
+        <v>0.8911440392926008</v>
       </c>
       <c r="E17">
-        <v>0.9961862231355253</v>
+        <v>1.830925107281788</v>
       </c>
       <c r="F17">
-        <v>1.01854838572003</v>
+        <v>1.830925107281788</v>
       </c>
       <c r="G17">
-        <v>0.999573960460833</v>
+        <v>0.594238828929473</v>
       </c>
       <c r="H17">
-        <v>0.9965215811690616</v>
+        <v>1.09115076930328</v>
       </c>
       <c r="I17">
-        <v>1.01854838572003</v>
+        <v>0.542891363344751</v>
       </c>
       <c r="J17">
-        <v>1.013476421438184</v>
+        <v>0.4151756118116359</v>
       </c>
       <c r="K17">
-        <v>1.008999415294258</v>
+        <v>1.830925107281788</v>
       </c>
       <c r="L17">
-        <v>1.014930165733475</v>
+        <v>0.4151756118116359</v>
       </c>
       <c r="M17">
-        <v>0.9952625695581353</v>
+        <v>1.1531492337953</v>
       </c>
       <c r="N17">
-        <v>1.01854838572003</v>
+        <v>1.830925107281788</v>
       </c>
       <c r="O17">
-        <v>0.9961862231355253</v>
+        <v>0.542891363344751</v>
       </c>
       <c r="P17">
-        <v>1.004831322286854</v>
+        <v>0.4790334875781934</v>
       </c>
       <c r="Q17">
-        <v>0.9978800917981792</v>
+        <v>0.568565096137112</v>
       </c>
       <c r="R17">
-        <v>1.00940367676458</v>
+        <v>0.9296640274793918</v>
       </c>
       <c r="S17">
-        <v>1.003078868344847</v>
+        <v>0.5174352680286199</v>
       </c>
       <c r="T17">
-        <v>1.00940367676458</v>
+        <v>0.9296640274793916</v>
       </c>
       <c r="U17">
-        <v>1.006946247688643</v>
+        <v>0.8458077278419119</v>
       </c>
       <c r="V17">
-        <v>1.00926667529492</v>
+        <v>1.042831203729887</v>
       </c>
       <c r="W17">
-        <v>1.005437340313688</v>
+        <v>0.9566021240079902</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9900754098191862</v>
+        <v>1.060662115561352</v>
       </c>
       <c r="D18">
-        <v>1.016548480068032</v>
+        <v>0.8694685891829061</v>
       </c>
       <c r="E18">
-        <v>0.9671355983571028</v>
+        <v>0.9537919164026216</v>
       </c>
       <c r="F18">
-        <v>0.9900754098191862</v>
+        <v>0.9537919164026216</v>
       </c>
       <c r="G18">
-        <v>0.9760377150965706</v>
+        <v>0.9382005628455743</v>
       </c>
       <c r="H18">
-        <v>1.088193230955134</v>
+        <v>1.049739102495359</v>
       </c>
       <c r="I18">
-        <v>0.9900754098191862</v>
+        <v>0.9534364377030456</v>
       </c>
       <c r="J18">
-        <v>1.016548480068032</v>
+        <v>0.82069062778437</v>
       </c>
       <c r="K18">
-        <v>1.040977269817865</v>
+        <v>0.9537919164026216</v>
       </c>
       <c r="L18">
-        <v>1.017848501283164</v>
+        <v>0.82069062778437</v>
       </c>
       <c r="M18">
-        <v>1.024851016807697</v>
+        <v>0.922407900836787</v>
       </c>
       <c r="N18">
-        <v>0.9900754098191862</v>
+        <v>0.9537919164026216</v>
       </c>
       <c r="O18">
-        <v>0.9671355983571028</v>
+        <v>0.9534364377030456</v>
       </c>
       <c r="P18">
-        <v>0.9918420392125675</v>
+        <v>0.8870635327437077</v>
       </c>
       <c r="Q18">
-        <v>0.9715866567268368</v>
+        <v>0.94581850027431</v>
       </c>
       <c r="R18">
-        <v>0.991253162748107</v>
+        <v>0.909306327296679</v>
       </c>
       <c r="S18">
-        <v>0.9865739311739019</v>
+        <v>0.9041092094443299</v>
       </c>
       <c r="T18">
-        <v>0.991253162748107</v>
+        <v>0.909306327296679</v>
       </c>
       <c r="U18">
-        <v>0.987449300835223</v>
+        <v>0.9165298861839029</v>
       </c>
       <c r="V18">
-        <v>0.9879745226320157</v>
+        <v>0.9239822922276467</v>
       </c>
       <c r="W18">
-        <v>1.015208402775594</v>
+        <v>0.9460496566015019</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.073127371786186</v>
+      </c>
+      <c r="D19">
+        <v>0.8069055009654151</v>
+      </c>
+      <c r="E19">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="F19">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="G19">
+        <v>0.9574331525703889</v>
+      </c>
+      <c r="H19">
+        <v>1.006162814983</v>
+      </c>
+      <c r="I19">
+        <v>0.8989916097711975</v>
+      </c>
+      <c r="J19">
+        <v>0.8279834321831741</v>
+      </c>
+      <c r="K19">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="L19">
+        <v>0.8279834321831741</v>
+      </c>
+      <c r="M19">
+        <v>0.9639730115047271</v>
+      </c>
+      <c r="N19">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="O19">
+        <v>0.8989916097711975</v>
+      </c>
+      <c r="P19">
+        <v>0.8634875209771857</v>
+      </c>
+      <c r="Q19">
+        <v>0.9282123811707932</v>
+      </c>
+      <c r="R19">
+        <v>0.8844379077577026</v>
+      </c>
+      <c r="S19">
+        <v>0.8948027315082534</v>
+      </c>
+      <c r="T19">
+        <v>0.8844379077577026</v>
+      </c>
+      <c r="U19">
+        <v>0.9026867189608742</v>
+      </c>
+      <c r="V19">
+        <v>0.9074171114324466</v>
+      </c>
+      <c r="W19">
+        <v>0.9326144468853532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9992953829773028</v>
+      </c>
+      <c r="D20">
+        <v>1.000672093612878</v>
+      </c>
+      <c r="E20">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="F20">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="G20">
+        <v>0.9993435390432956</v>
+      </c>
+      <c r="H20">
+        <v>1.005326533576175</v>
+      </c>
+      <c r="I20">
+        <v>0.9993794933216376</v>
+      </c>
+      <c r="J20">
+        <v>1.004416392137886</v>
+      </c>
+      <c r="K20">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="L20">
+        <v>1.004416392137886</v>
+      </c>
+      <c r="M20">
+        <v>0.9946300794126655</v>
+      </c>
+      <c r="N20">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="O20">
+        <v>0.9993794933216376</v>
+      </c>
+      <c r="P20">
+        <v>1.001897942729762</v>
+      </c>
+      <c r="Q20">
+        <v>0.9993615161824666</v>
+      </c>
+      <c r="R20">
+        <v>0.9983044319318853</v>
+      </c>
+      <c r="S20">
+        <v>1.001046474834273</v>
+      </c>
+      <c r="T20">
+        <v>0.9983044319318853</v>
+      </c>
+      <c r="U20">
+        <v>0.9985642087097379</v>
+      </c>
+      <c r="V20">
+        <v>0.9970748490350168</v>
+      </c>
+      <c r="W20">
+        <v>0.9992726155522464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.014930165733475</v>
+      </c>
+      <c r="D21">
+        <v>0.9952625695581356</v>
+      </c>
+      <c r="E21">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="F21">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="G21">
+        <v>0.9995739604608329</v>
+      </c>
+      <c r="H21">
+        <v>0.996521581169062</v>
+      </c>
+      <c r="I21">
+        <v>0.9961862231355252</v>
+      </c>
+      <c r="J21">
+        <v>1.013476421438183</v>
+      </c>
+      <c r="K21">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="L21">
+        <v>1.013476421438183</v>
+      </c>
+      <c r="M21">
+        <v>1.008999415294257</v>
+      </c>
+      <c r="N21">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="O21">
+        <v>0.9961862231355252</v>
+      </c>
+      <c r="P21">
+        <v>1.004831322286854</v>
+      </c>
+      <c r="Q21">
+        <v>0.997880091798179</v>
+      </c>
+      <c r="R21">
+        <v>1.009403676764579</v>
+      </c>
+      <c r="S21">
+        <v>1.003078868344847</v>
+      </c>
+      <c r="T21">
+        <v>1.009403676764579</v>
+      </c>
+      <c r="U21">
+        <v>1.006946247688643</v>
+      </c>
+      <c r="V21">
+        <v>1.00926667529492</v>
+      </c>
+      <c r="W21">
+        <v>1.005437340313688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.017848501283164</v>
+      </c>
+      <c r="D22">
+        <v>1.024851016807697</v>
+      </c>
+      <c r="E22">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="F22">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="G22">
+        <v>0.9760377150965702</v>
+      </c>
+      <c r="H22">
+        <v>1.088193230955135</v>
+      </c>
+      <c r="I22">
+        <v>0.9671355983571034</v>
+      </c>
+      <c r="J22">
+        <v>1.016548480068031</v>
+      </c>
+      <c r="K22">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="L22">
+        <v>1.016548480068031</v>
+      </c>
+      <c r="M22">
+        <v>1.040977269817865</v>
+      </c>
+      <c r="N22">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="O22">
+        <v>0.9671355983571034</v>
+      </c>
+      <c r="P22">
+        <v>0.9918420392125671</v>
+      </c>
+      <c r="Q22">
+        <v>0.9715866567268368</v>
+      </c>
+      <c r="R22">
+        <v>0.9912531627481074</v>
+      </c>
+      <c r="S22">
+        <v>0.9865739311739015</v>
+      </c>
+      <c r="T22">
+        <v>0.9912531627481073</v>
+      </c>
+      <c r="U22">
+        <v>0.987449300835223</v>
+      </c>
+      <c r="V22">
+        <v>0.987974522632016</v>
+      </c>
+      <c r="W22">
+        <v>1.015208402775594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.145404248686863</v>
+      </c>
+      <c r="D23">
+        <v>1.028424139829051</v>
+      </c>
+      <c r="E23">
         <v>1.18912803919332</v>
       </c>
-      <c r="D19">
-        <v>0.8858301933841753</v>
-      </c>
-      <c r="E19">
+      <c r="F23">
+        <v>1.18912803919332</v>
+      </c>
+      <c r="G23">
+        <v>0.9567896143151863</v>
+      </c>
+      <c r="H23">
+        <v>1.188121283008542</v>
+      </c>
+      <c r="I23">
         <v>0.9358179020119795</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.8858301933841755</v>
+      </c>
+      <c r="K23">
         <v>1.18912803919332</v>
       </c>
-      <c r="G19">
-        <v>0.9567896143151863</v>
-      </c>
-      <c r="H19">
-        <v>1.188121283008542</v>
-      </c>
-      <c r="I19">
+      <c r="L23">
+        <v>0.8858301933841755</v>
+      </c>
+      <c r="M23">
+        <v>0.9452805655159452</v>
+      </c>
+      <c r="N23">
         <v>1.18912803919332</v>
       </c>
-      <c r="J19">
-        <v>0.8858301933841753</v>
-      </c>
-      <c r="K19">
-        <v>0.9452805655159452</v>
-      </c>
-      <c r="L19">
-        <v>1.145404248686863</v>
-      </c>
-      <c r="M19">
-        <v>1.028424139829051</v>
-      </c>
-      <c r="N19">
-        <v>1.18912803919332</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9358179020119795</v>
       </c>
-      <c r="P19">
-        <v>0.9108240476980773</v>
-      </c>
-      <c r="Q19">
+      <c r="P23">
+        <v>0.9108240476980775</v>
+      </c>
+      <c r="Q23">
         <v>0.9463037581635829</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.003592044863158</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9261459032371137</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.003592044863158</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9918914372261654</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.031338757619596</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>1.034349498243133</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/SA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW05.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 2, 2]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.004996820712794</v>
+        <v>1.042590025288837</v>
       </c>
       <c r="D3">
-        <v>0.9949486301700963</v>
+        <v>0.8430010600877645</v>
       </c>
       <c r="E3">
-        <v>1.06158343524296</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="F3">
-        <v>1.06158343524296</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="G3">
-        <v>0.9610716945265264</v>
+        <v>0.8921865081017141</v>
       </c>
       <c r="H3">
-        <v>1.007907696554501</v>
+        <v>1.046439878004328</v>
       </c>
       <c r="I3">
-        <v>0.9536718278061079</v>
+        <v>0.9047482279649254</v>
       </c>
       <c r="J3">
-        <v>0.9560852844970736</v>
+        <v>0.7757134859262662</v>
       </c>
       <c r="K3">
-        <v>1.06158343524296</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="L3">
-        <v>0.9560852844970736</v>
+        <v>0.7757134859262662</v>
       </c>
       <c r="M3">
-        <v>1.016593108169967</v>
+        <v>0.9172155062128842</v>
       </c>
       <c r="N3">
-        <v>1.06158343524296</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="O3">
-        <v>0.9536718278061079</v>
+        <v>0.9047482279649254</v>
       </c>
       <c r="P3">
-        <v>0.9548785561515908</v>
+        <v>0.8402308569455958</v>
       </c>
       <c r="Q3">
-        <v>0.9573717611663172</v>
+        <v>0.8984673680333197</v>
       </c>
       <c r="R3">
-        <v>0.9904468491820473</v>
+        <v>0.8889771862814966</v>
       </c>
       <c r="S3">
-        <v>0.9569429356099026</v>
+        <v>0.8575494073309686</v>
       </c>
       <c r="T3">
-        <v>0.9904468491820473</v>
+        <v>0.8889771862814965</v>
       </c>
       <c r="U3">
-        <v>0.9831030605181671</v>
+        <v>0.8897795167365509</v>
       </c>
       <c r="V3">
-        <v>0.9987991354631257</v>
+        <v>0.9091175823799003</v>
       </c>
       <c r="W3">
-        <v>0.9946073122100033</v>
+        <v>0.9260455670675023</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002840550218579</v>
+        <v>1.047699206860044</v>
       </c>
       <c r="D4">
-        <v>0.9907584283849312</v>
+        <v>0.8547375275546008</v>
       </c>
       <c r="E4">
-        <v>1.163912123727912</v>
+        <v>0.9742704935575683</v>
       </c>
       <c r="F4">
-        <v>1.163912123727912</v>
+        <v>0.9742704935575683</v>
       </c>
       <c r="G4">
-        <v>0.9492129957330031</v>
+        <v>0.9177116522926524</v>
       </c>
       <c r="H4">
-        <v>1.005703809510849</v>
+        <v>1.049195213964951</v>
       </c>
       <c r="I4">
-        <v>0.9388351797027396</v>
+        <v>0.9307093839035985</v>
       </c>
       <c r="J4">
-        <v>0.9247712258388323</v>
+        <v>0.802593347698593</v>
       </c>
       <c r="K4">
-        <v>1.163912123727912</v>
+        <v>0.9742704935575683</v>
       </c>
       <c r="L4">
-        <v>0.9247712258388323</v>
+        <v>0.802593347698593</v>
       </c>
       <c r="M4">
-        <v>1.047355316221156</v>
+        <v>0.9197584644123776</v>
       </c>
       <c r="N4">
-        <v>1.163912123727912</v>
+        <v>0.9742704935575683</v>
       </c>
       <c r="O4">
-        <v>0.9388351797027396</v>
+        <v>0.9307093839035985</v>
       </c>
       <c r="P4">
-        <v>0.9318032027707859</v>
+        <v>0.8666513658010957</v>
       </c>
       <c r="Q4">
-        <v>0.9440240877178714</v>
+        <v>0.9242105180981255</v>
       </c>
       <c r="R4">
-        <v>1.009172843089828</v>
+        <v>0.9025244083865865</v>
       </c>
       <c r="S4">
-        <v>0.9376064670915248</v>
+        <v>0.8836714612982813</v>
       </c>
       <c r="T4">
-        <v>1.009172843089828</v>
+        <v>0.9025244083865865</v>
       </c>
       <c r="U4">
-        <v>0.9941828812506217</v>
+        <v>0.9063212193631031</v>
       </c>
       <c r="V4">
-        <v>1.02812872974608</v>
+        <v>0.9199110742019961</v>
       </c>
       <c r="W4">
-        <v>1.00292370366725</v>
+        <v>0.9370844112805483</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.157647644055814</v>
+        <v>1.069005093447492</v>
       </c>
       <c r="D5">
-        <v>1.01195178795936</v>
+        <v>0.8269385110149595</v>
       </c>
       <c r="E5">
-        <v>1.426364778558492</v>
+        <v>1.014070811459893</v>
       </c>
       <c r="F5">
-        <v>1.426364778558492</v>
+        <v>1.014070811459893</v>
       </c>
       <c r="G5">
-        <v>0.7714929954765783</v>
+        <v>0.8530057640150952</v>
       </c>
       <c r="H5">
-        <v>1.128659233626176</v>
+        <v>1.06437839026431</v>
       </c>
       <c r="I5">
-        <v>0.7576655276188383</v>
+        <v>0.8788549887341507</v>
       </c>
       <c r="J5">
-        <v>0.9817220576027323</v>
+        <v>0.7028226015074019</v>
       </c>
       <c r="K5">
-        <v>1.426364778558492</v>
+        <v>1.014070811459893</v>
       </c>
       <c r="L5">
-        <v>0.9817220576027323</v>
+        <v>0.7028226015074019</v>
       </c>
       <c r="M5">
-        <v>1.06254588018692</v>
+        <v>0.9073398374461743</v>
       </c>
       <c r="N5">
-        <v>1.426364778558492</v>
+        <v>1.014070811459893</v>
       </c>
       <c r="O5">
-        <v>0.7576655276188383</v>
+        <v>0.8788549887341507</v>
       </c>
       <c r="P5">
-        <v>0.8696937926107853</v>
+        <v>0.7908387951207763</v>
       </c>
       <c r="Q5">
-        <v>0.7645792615477083</v>
+        <v>0.8659303763746229</v>
       </c>
       <c r="R5">
-        <v>1.055250787926687</v>
+        <v>0.865249467233815</v>
       </c>
       <c r="S5">
-        <v>0.8369601935660497</v>
+        <v>0.8115611180855492</v>
       </c>
       <c r="T5">
-        <v>1.055250787926687</v>
+        <v>0.8652494672338151</v>
       </c>
       <c r="U5">
-        <v>0.9843113398141601</v>
+        <v>0.8621885414291351</v>
       </c>
       <c r="V5">
-        <v>1.072722027563026</v>
+        <v>0.8925649954352867</v>
       </c>
       <c r="W5">
-        <v>1.037256238135614</v>
+        <v>0.9145519997361844</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.171895451028345</v>
+        <v>1.064685080992613</v>
       </c>
       <c r="D6">
-        <v>0.8365378436106552</v>
+        <v>0.7052679458045853</v>
       </c>
       <c r="E6">
-        <v>1.935676985299377</v>
+        <v>0.9941225506723411</v>
       </c>
       <c r="F6">
-        <v>1.935676985299377</v>
+        <v>0.9941225506723411</v>
       </c>
       <c r="G6">
-        <v>0.7079817533086157</v>
+        <v>0.7661409997011365</v>
       </c>
       <c r="H6">
-        <v>0.7998759219692106</v>
+        <v>1.041672895759317</v>
       </c>
       <c r="I6">
-        <v>0.4982469482183665</v>
+        <v>0.7454354377053327</v>
       </c>
       <c r="J6">
-        <v>0.9130200743921836</v>
+        <v>0.6200793623100966</v>
       </c>
       <c r="K6">
-        <v>1.935676985299377</v>
+        <v>0.9941225506723411</v>
       </c>
       <c r="L6">
-        <v>0.9130200743921836</v>
+        <v>0.6200793623100966</v>
       </c>
       <c r="M6">
-        <v>1.045859727334433</v>
+        <v>0.9657440783823859</v>
       </c>
       <c r="N6">
-        <v>1.935676985299377</v>
+        <v>0.9941225506723411</v>
       </c>
       <c r="O6">
-        <v>0.4982469482183665</v>
+        <v>0.7454354377053327</v>
       </c>
       <c r="P6">
-        <v>0.705633511305275</v>
+        <v>0.6827574000077147</v>
       </c>
       <c r="Q6">
-        <v>0.6031143507634911</v>
+        <v>0.7557882187032345</v>
       </c>
       <c r="R6">
-        <v>1.115648002636642</v>
+        <v>0.7865457835625902</v>
       </c>
       <c r="S6">
-        <v>0.7064162586397219</v>
+        <v>0.7105519332388552</v>
       </c>
       <c r="T6">
-        <v>1.115648002636642</v>
+        <v>0.7865457835625902</v>
       </c>
       <c r="U6">
-        <v>1.013731440304636</v>
+        <v>0.7814445875972268</v>
       </c>
       <c r="V6">
-        <v>1.198120549303584</v>
+        <v>0.8239801802122496</v>
       </c>
       <c r="W6">
-        <v>0.9886368381451482</v>
+        <v>0.8628935439159759</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000217658992381</v>
+        <v>0.8414791073071808</v>
       </c>
       <c r="D7">
-        <v>0.9984829026034733</v>
+        <v>0.8220628013266139</v>
       </c>
       <c r="E7">
-        <v>0.9990934705707594</v>
+        <v>1.607581285925127</v>
       </c>
       <c r="F7">
-        <v>0.9990934705707594</v>
+        <v>1.607581285925127</v>
       </c>
       <c r="G7">
-        <v>0.9990349955112671</v>
+        <v>0.2567177288731211</v>
       </c>
       <c r="H7">
-        <v>0.9994006323708627</v>
+        <v>1.770616126071696</v>
       </c>
       <c r="I7">
-        <v>0.9984847962009645</v>
+        <v>0.5571473159476323</v>
       </c>
       <c r="J7">
-        <v>0.9984694471243825</v>
+        <v>0.000325059299045783</v>
       </c>
       <c r="K7">
-        <v>0.9990934705707594</v>
+        <v>1.607581285925127</v>
       </c>
       <c r="L7">
-        <v>0.9984694471243825</v>
+        <v>0.000325059299045783</v>
       </c>
       <c r="M7">
-        <v>0.9988037275745933</v>
+        <v>1.637803231190043</v>
       </c>
       <c r="N7">
-        <v>0.9990934705707594</v>
+        <v>1.607581285925127</v>
       </c>
       <c r="O7">
-        <v>0.9984847962009645</v>
+        <v>0.5571473159476323</v>
       </c>
       <c r="P7">
-        <v>0.9984771216626736</v>
+        <v>0.2787361876233391</v>
       </c>
       <c r="Q7">
-        <v>0.9987598958561158</v>
+        <v>0.4069325224103767</v>
       </c>
       <c r="R7">
-        <v>0.9986825712987022</v>
+        <v>0.7216845537239349</v>
       </c>
       <c r="S7">
-        <v>0.9986630796122048</v>
+        <v>0.2713967013732664</v>
       </c>
       <c r="T7">
-        <v>0.9986825712987022</v>
+        <v>0.7216845537239349</v>
       </c>
       <c r="U7">
-        <v>0.9987706773518434</v>
+        <v>0.6054428475112315</v>
       </c>
       <c r="V7">
-        <v>0.9988352359956266</v>
+        <v>0.8058705351940105</v>
       </c>
       <c r="W7">
-        <v>0.9989984538685855</v>
+        <v>0.9367165819925574</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002244029695417</v>
+        <v>0.8474459051870435</v>
       </c>
       <c r="D8">
-        <v>0.9955818490981312</v>
+        <v>0.8171416859154716</v>
       </c>
       <c r="E8">
-        <v>0.9977290602208045</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="F8">
-        <v>0.9977290602208045</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="G8">
-        <v>0.9979443911656752</v>
+        <v>0.2554411402166298</v>
       </c>
       <c r="H8">
-        <v>0.998454460921998</v>
+        <v>1.763728414604088</v>
       </c>
       <c r="I8">
-        <v>0.9996664245167922</v>
+        <v>0.5543381035486384</v>
       </c>
       <c r="J8">
-        <v>0.9947057129537848</v>
+        <v>0.0003297375933004139</v>
       </c>
       <c r="K8">
-        <v>0.9977290602208045</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="L8">
-        <v>0.9947057129537848</v>
+        <v>0.0003297375933004139</v>
       </c>
       <c r="M8">
-        <v>0.9967709381746945</v>
+        <v>1.627260469519191</v>
       </c>
       <c r="N8">
-        <v>0.9977290602208045</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="O8">
-        <v>0.9996664245167922</v>
+        <v>0.5543381035486384</v>
       </c>
       <c r="P8">
-        <v>0.9971860687352885</v>
+        <v>0.2773339205709694</v>
       </c>
       <c r="Q8">
-        <v>0.9988054078412337</v>
+        <v>0.4048896218826341</v>
       </c>
       <c r="R8">
-        <v>0.9973670658971271</v>
+        <v>0.7168292803309536</v>
       </c>
       <c r="S8">
-        <v>0.9974388428787507</v>
+        <v>0.2700363271195229</v>
       </c>
       <c r="T8">
-        <v>0.9973670658971273</v>
+        <v>0.7168292803309536</v>
       </c>
       <c r="U8">
-        <v>0.9975113972142643</v>
+        <v>0.6014822453023726</v>
       </c>
       <c r="V8">
-        <v>0.9975549298155724</v>
+        <v>0.8003497962120825</v>
       </c>
       <c r="W8">
-        <v>0.9978871083434122</v>
+        <v>0.9326881820544106</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.007246381106835</v>
+        <v>0.8490029571759666</v>
       </c>
       <c r="D9">
-        <v>0.9903783482415098</v>
+        <v>0.8132592738771104</v>
       </c>
       <c r="E9">
-        <v>1.015816350608682</v>
+        <v>1.582787484763554</v>
       </c>
       <c r="F9">
-        <v>1.015816350608682</v>
+        <v>1.582787484763554</v>
       </c>
       <c r="G9">
-        <v>0.9964159700236286</v>
+        <v>0.2544548078226244</v>
       </c>
       <c r="H9">
-        <v>0.9907323318324628</v>
+        <v>1.760834343551971</v>
       </c>
       <c r="I9">
-        <v>0.9956538326137917</v>
+        <v>0.5527956037808001</v>
       </c>
       <c r="J9">
-        <v>0.9930956503774566</v>
+        <v>0.000313272181448164</v>
       </c>
       <c r="K9">
-        <v>1.015816350608682</v>
+        <v>1.582787484763554</v>
       </c>
       <c r="L9">
-        <v>0.9930956503774566</v>
+        <v>0.000313272181448164</v>
       </c>
       <c r="M9">
-        <v>0.9944132147243058</v>
+        <v>1.617589986806948</v>
       </c>
       <c r="N9">
-        <v>1.015816350608682</v>
+        <v>1.582787484763554</v>
       </c>
       <c r="O9">
-        <v>0.9956538326137917</v>
+        <v>0.5527956037808001</v>
       </c>
       <c r="P9">
-        <v>0.9943747414956241</v>
+        <v>0.2765544379811241</v>
       </c>
       <c r="Q9">
-        <v>0.9960349013187102</v>
+        <v>0.4036252058017122</v>
       </c>
       <c r="R9">
-        <v>1.00152194453331</v>
+        <v>0.7119654535752676</v>
       </c>
       <c r="S9">
-        <v>0.9950551510049589</v>
+        <v>0.2691878945949575</v>
       </c>
       <c r="T9">
-        <v>1.00152194453331</v>
+        <v>0.7119654535752674</v>
       </c>
       <c r="U9">
-        <v>1.00024545090589</v>
+        <v>0.5975877921371067</v>
       </c>
       <c r="V9">
-        <v>1.003359630846448</v>
+        <v>0.7946277306623962</v>
       </c>
       <c r="W9">
-        <v>0.9979690099410841</v>
+        <v>0.9288797162450528</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.003539527043636</v>
+        <v>0.8829407549103048</v>
       </c>
       <c r="D10">
-        <v>0.994171506541371</v>
+        <v>0.8005253494757454</v>
       </c>
       <c r="E10">
-        <v>0.9760331517024553</v>
+        <v>1.545888120208296</v>
       </c>
       <c r="F10">
-        <v>0.9760331517024553</v>
+        <v>1.545888120208296</v>
       </c>
       <c r="G10">
-        <v>0.9906614343230589</v>
+        <v>0.2510324908333439</v>
       </c>
       <c r="H10">
-        <v>1.002128221816792</v>
+        <v>1.7425719427136</v>
       </c>
       <c r="I10">
-        <v>0.9912054982065164</v>
+        <v>0.5455560599153715</v>
       </c>
       <c r="J10">
-        <v>0.9909757832050827</v>
+        <v>0.0003238335432531295</v>
       </c>
       <c r="K10">
-        <v>0.9760331517024553</v>
+        <v>1.545888120208296</v>
       </c>
       <c r="L10">
-        <v>0.9909757832050827</v>
+        <v>0.0003238335432531295</v>
       </c>
       <c r="M10">
-        <v>0.9960052931943204</v>
+        <v>1.584963736437374</v>
       </c>
       <c r="N10">
-        <v>0.9760331517024553</v>
+        <v>1.545888120208296</v>
       </c>
       <c r="O10">
-        <v>0.9912054982065164</v>
+        <v>0.5455560599153715</v>
       </c>
       <c r="P10">
-        <v>0.9910906407057996</v>
+        <v>0.2729399467293123</v>
       </c>
       <c r="Q10">
-        <v>0.9909334662647876</v>
+        <v>0.3982942753743577</v>
       </c>
       <c r="R10">
-        <v>0.9860714777046847</v>
+        <v>0.6972560045556403</v>
       </c>
       <c r="S10">
-        <v>0.9909475719115527</v>
+        <v>0.2656374614306562</v>
       </c>
       <c r="T10">
-        <v>0.9860714777046847</v>
+        <v>0.6972560045556403</v>
       </c>
       <c r="U10">
-        <v>0.9872189668592783</v>
+        <v>0.5857001261250663</v>
       </c>
       <c r="V10">
-        <v>0.9849818038279137</v>
+        <v>0.7777377249417123</v>
       </c>
       <c r="W10">
-        <v>0.9930900520041541</v>
+        <v>0.9192252860046611</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.035226989075718</v>
+        <v>1.009922541573482</v>
       </c>
       <c r="D11">
-        <v>0.9611013951452855</v>
+        <v>1.001036054893854</v>
       </c>
       <c r="E11">
-        <v>1.029459894125828</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="F11">
-        <v>1.029459894125828</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="G11">
-        <v>1.000318831649774</v>
+        <v>0.9650228432219077</v>
       </c>
       <c r="H11">
-        <v>0.9409866523976519</v>
+        <v>1.006927165349379</v>
       </c>
       <c r="I11">
-        <v>0.9676748875473582</v>
+        <v>0.9592099456376557</v>
       </c>
       <c r="J11">
-        <v>0.8904573808547618</v>
+        <v>0.9512752863825724</v>
       </c>
       <c r="K11">
-        <v>1.029459894125828</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="L11">
-        <v>0.8904573808547618</v>
+        <v>0.9512752863825724</v>
       </c>
       <c r="M11">
-        <v>0.9966032629166391</v>
+        <v>1.02210267656093</v>
       </c>
       <c r="N11">
-        <v>1.029459894125828</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="O11">
-        <v>0.9676748875473582</v>
+        <v>0.9592099456376557</v>
       </c>
       <c r="P11">
-        <v>0.92906613420106</v>
+        <v>0.9552426160101141</v>
       </c>
       <c r="Q11">
-        <v>0.9839968595985659</v>
+        <v>0.9621163944297817</v>
       </c>
       <c r="R11">
-        <v>0.9625307208426491</v>
+        <v>0.9986698126634265</v>
       </c>
       <c r="S11">
-        <v>0.9528170333506312</v>
+        <v>0.9585026917473787</v>
       </c>
       <c r="T11">
-        <v>0.9625307208426491</v>
+        <v>0.9986698126634265</v>
       </c>
       <c r="U11">
-        <v>0.9719777485444302</v>
+        <v>0.9902580703030468</v>
       </c>
       <c r="V11">
-        <v>0.9834741776607097</v>
+        <v>1.009311297436448</v>
       </c>
       <c r="W11">
-        <v>0.977728661714127</v>
+        <v>1.000127589948729</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.531501474756946</v>
+        <v>1.004921111041467</v>
       </c>
       <c r="D12">
-        <v>1.539455930538949</v>
+        <v>0.9964571175062076</v>
       </c>
       <c r="E12">
-        <v>0.9840053548963863</v>
+        <v>1.033295732713779</v>
       </c>
       <c r="F12">
-        <v>0.9840053548963863</v>
+        <v>1.033295732713779</v>
       </c>
       <c r="G12">
-        <v>0.6271839420445542</v>
+        <v>0.9802713125664775</v>
       </c>
       <c r="H12">
-        <v>0.9256219321168204</v>
+        <v>1.008438582516387</v>
       </c>
       <c r="I12">
-        <v>0.4627936133186827</v>
+        <v>0.978804031325276</v>
       </c>
       <c r="J12">
-        <v>1.767723737934358</v>
+        <v>0.973965113958238</v>
       </c>
       <c r="K12">
-        <v>0.9840053548963863</v>
+        <v>1.033295732713779</v>
       </c>
       <c r="L12">
-        <v>1.767723737934358</v>
+        <v>0.973965113958238</v>
       </c>
       <c r="M12">
-        <v>0.5238793359144963</v>
+        <v>1.011106302517514</v>
       </c>
       <c r="N12">
-        <v>0.9840053548963863</v>
+        <v>1.033295732713779</v>
       </c>
       <c r="O12">
-        <v>0.4627936133186827</v>
+        <v>0.978804031325276</v>
       </c>
       <c r="P12">
-        <v>1.11525867562652</v>
+        <v>0.976384572641757</v>
       </c>
       <c r="Q12">
-        <v>0.5449887776816185</v>
+        <v>0.9795376719458768</v>
       </c>
       <c r="R12">
-        <v>1.071507568716476</v>
+        <v>0.9953549593324308</v>
       </c>
       <c r="S12">
-        <v>0.9525670977658649</v>
+        <v>0.977680152616664</v>
       </c>
       <c r="T12">
-        <v>1.071507568716475</v>
+        <v>0.9953549593324308</v>
       </c>
       <c r="U12">
-        <v>0.9604266620484951</v>
+        <v>0.9915840476409425</v>
       </c>
       <c r="V12">
-        <v>0.9651424006180733</v>
+        <v>0.9999263846555098</v>
       </c>
       <c r="W12">
-        <v>1.045270665190149</v>
+        <v>0.9984074130181683</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.7952416120434692</v>
+        <v>1.056894526839326</v>
       </c>
       <c r="D13">
-        <v>1.162045768650515</v>
+        <v>0.9855077279563856</v>
       </c>
       <c r="E13">
-        <v>1.046112278459054</v>
+        <v>1.120269669966459</v>
       </c>
       <c r="F13">
-        <v>1.046112278459054</v>
+        <v>1.120269669966459</v>
       </c>
       <c r="G13">
-        <v>0.8106030221734616</v>
+        <v>0.9607523389908104</v>
       </c>
       <c r="H13">
-        <v>0.94983271636682</v>
+        <v>1.070302840302666</v>
       </c>
       <c r="I13">
-        <v>0.8720598664434072</v>
+        <v>0.9354415095402483</v>
       </c>
       <c r="J13">
-        <v>0.9245614428718981</v>
+        <v>0.8769851599080614</v>
       </c>
       <c r="K13">
-        <v>1.046112278459054</v>
+        <v>1.120269669966459</v>
       </c>
       <c r="L13">
-        <v>0.9245614428718981</v>
+        <v>0.8769851599080614</v>
       </c>
       <c r="M13">
-        <v>1.299384753518798</v>
+        <v>1.045657747167718</v>
       </c>
       <c r="N13">
-        <v>1.046112278459054</v>
+        <v>1.120269669966459</v>
       </c>
       <c r="O13">
-        <v>0.8720598664434072</v>
+        <v>0.9354415095402483</v>
       </c>
       <c r="P13">
-        <v>0.8983106546576527</v>
+        <v>0.9062133347241548</v>
       </c>
       <c r="Q13">
-        <v>0.8413314443084343</v>
+        <v>0.9480969242655293</v>
       </c>
       <c r="R13">
-        <v>0.9475778625914532</v>
+        <v>0.9775654464715894</v>
       </c>
       <c r="S13">
-        <v>0.8690747771629224</v>
+        <v>0.9243930028130399</v>
       </c>
       <c r="T13">
-        <v>0.9475778625914529</v>
+        <v>0.9775654464715896</v>
       </c>
       <c r="U13">
-        <v>0.9133341524869552</v>
+        <v>0.9733621696013948</v>
       </c>
       <c r="V13">
-        <v>0.9398897776813749</v>
+        <v>1.002743669674408</v>
       </c>
       <c r="W13">
-        <v>0.9824801825659278</v>
+        <v>1.006476440083959</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.4536917121509401</v>
+        <v>1.133583288657746</v>
       </c>
       <c r="D14">
-        <v>0.4096840475411664</v>
+        <v>0.9838055091028793</v>
       </c>
       <c r="E14">
-        <v>-4.311673120392414E-05</v>
+        <v>1.363948831297949</v>
       </c>
       <c r="F14">
-        <v>-4.311673120392414E-05</v>
+        <v>1.363948831297949</v>
       </c>
       <c r="G14">
-        <v>0.8118449974278891</v>
+        <v>0.8218904506212404</v>
       </c>
       <c r="H14">
-        <v>1.303737983122168</v>
+        <v>1.109381263202183</v>
       </c>
       <c r="I14">
-        <v>2.974005281740447</v>
+        <v>0.7612916181534104</v>
       </c>
       <c r="J14">
-        <v>0.001702079803434697</v>
+        <v>1.024114016526873</v>
       </c>
       <c r="K14">
-        <v>-4.311673120392414E-05</v>
+        <v>1.363948831297949</v>
       </c>
       <c r="L14">
-        <v>0.001702079803434697</v>
+        <v>1.024114016526873</v>
       </c>
       <c r="M14">
-        <v>1.431143634562504</v>
+        <v>0.9731543014764408</v>
       </c>
       <c r="N14">
-        <v>-4.311673120392414E-05</v>
+        <v>1.363948831297949</v>
       </c>
       <c r="O14">
-        <v>2.974005281740447</v>
+        <v>0.7612916181534104</v>
       </c>
       <c r="P14">
-        <v>1.487853680771941</v>
+        <v>0.8927028173401419</v>
       </c>
       <c r="Q14">
-        <v>1.892925139584168</v>
+        <v>0.7915910343873254</v>
       </c>
       <c r="R14">
-        <v>0.9918880816042258</v>
+        <v>1.049784821992744</v>
       </c>
       <c r="S14">
-        <v>1.26251745299059</v>
+        <v>0.8690986951005081</v>
       </c>
       <c r="T14">
-        <v>0.9918880816042258</v>
+        <v>1.049784821992744</v>
       </c>
       <c r="U14">
-        <v>0.9468773105601416</v>
+        <v>0.9928112291498683</v>
       </c>
       <c r="V14">
-        <v>0.7574932251018724</v>
+        <v>1.067038749579484</v>
       </c>
       <c r="W14">
-        <v>0.9232208274521682</v>
+        <v>1.02139615987984</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.358438649396205</v>
+        <v>1.004996820712794</v>
       </c>
       <c r="D15">
-        <v>1.591921160835133</v>
+        <v>0.9949486301700963</v>
       </c>
       <c r="E15">
-        <v>0.6022316227780382</v>
+        <v>1.06158343524296</v>
       </c>
       <c r="F15">
-        <v>0.6022316227780382</v>
+        <v>1.06158343524296</v>
       </c>
       <c r="G15">
-        <v>1.358152967190434</v>
+        <v>0.9610716945265264</v>
       </c>
       <c r="H15">
-        <v>0.8098822901324816</v>
+        <v>1.007907696554501</v>
       </c>
       <c r="I15">
-        <v>0.1993459802812506</v>
+        <v>0.9536718278061079</v>
       </c>
       <c r="J15">
-        <v>1.655727129746554</v>
+        <v>0.9560852844970736</v>
       </c>
       <c r="K15">
-        <v>0.6022316227780382</v>
+        <v>1.06158343524296</v>
       </c>
       <c r="L15">
-        <v>1.655727129746554</v>
+        <v>0.9560852844970736</v>
       </c>
       <c r="M15">
-        <v>0.4300450824887913</v>
+        <v>1.016593108169967</v>
       </c>
       <c r="N15">
-        <v>0.6022316227780382</v>
+        <v>1.06158343524296</v>
       </c>
       <c r="O15">
-        <v>0.1993459802812506</v>
+        <v>0.9536718278061079</v>
       </c>
       <c r="P15">
-        <v>0.9275365550139025</v>
+        <v>0.9548785561515908</v>
       </c>
       <c r="Q15">
-        <v>0.7787494737358426</v>
+        <v>0.9573717611663172</v>
       </c>
       <c r="R15">
-        <v>0.8191015776019478</v>
+        <v>0.9904468491820473</v>
       </c>
       <c r="S15">
-        <v>1.071075359072746</v>
+        <v>0.9569429356099026</v>
       </c>
       <c r="T15">
-        <v>0.8191015776019476</v>
+        <v>0.9904468491820473</v>
       </c>
       <c r="U15">
-        <v>0.9538644249990693</v>
+        <v>0.9831030605181671</v>
       </c>
       <c r="V15">
-        <v>0.8835378645548631</v>
+        <v>0.9987991354631257</v>
       </c>
       <c r="W15">
-        <v>1.000718110356111</v>
+        <v>0.9946073122100033</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.173294644172044</v>
+        <v>1.002840550218579</v>
       </c>
       <c r="D16">
-        <v>0.904968216309797</v>
+        <v>0.9907584283849312</v>
       </c>
       <c r="E16">
-        <v>2.264998554369355</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="F16">
-        <v>2.264998554369355</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="G16">
-        <v>0.4221791945609977</v>
+        <v>0.9492129957330031</v>
       </c>
       <c r="H16">
-        <v>1.112075400045889</v>
+        <v>1.005703809510849</v>
       </c>
       <c r="I16">
-        <v>0.3387230087034297</v>
+        <v>0.9388351797027396</v>
       </c>
       <c r="J16">
-        <v>0.2104586797856233</v>
+        <v>0.9247712258388323</v>
       </c>
       <c r="K16">
-        <v>2.264998554369355</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="L16">
-        <v>0.2104586797856233</v>
+        <v>0.9247712258388323</v>
       </c>
       <c r="M16">
-        <v>1.269755208780715</v>
+        <v>1.047355316221156</v>
       </c>
       <c r="N16">
-        <v>2.264998554369355</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="O16">
-        <v>0.3387230087034297</v>
+        <v>0.9388351797027396</v>
       </c>
       <c r="P16">
-        <v>0.2745908442445265</v>
+        <v>0.9318032027707859</v>
       </c>
       <c r="Q16">
-        <v>0.3804511016322137</v>
+        <v>0.9440240877178714</v>
       </c>
       <c r="R16">
-        <v>0.9380600809528028</v>
+        <v>1.009172843089828</v>
       </c>
       <c r="S16">
-        <v>0.3237869610166836</v>
+        <v>0.9376064670915248</v>
       </c>
       <c r="T16">
-        <v>0.9380600809528028</v>
+        <v>1.009172843089828</v>
       </c>
       <c r="U16">
-        <v>0.8090898593548516</v>
+        <v>0.9941828812506217</v>
       </c>
       <c r="V16">
-        <v>1.100271598357752</v>
+        <v>1.02812872974608</v>
       </c>
       <c r="W16">
-        <v>0.9620566133409812</v>
+        <v>1.00292370366725</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.134142038305093</v>
+        <v>1.157647644055814</v>
       </c>
       <c r="D17">
-        <v>0.8911440392926008</v>
+        <v>1.01195178795936</v>
       </c>
       <c r="E17">
-        <v>1.830925107281788</v>
+        <v>1.426364778558492</v>
       </c>
       <c r="F17">
-        <v>1.830925107281788</v>
+        <v>1.426364778558492</v>
       </c>
       <c r="G17">
-        <v>0.594238828929473</v>
+        <v>0.7714929954765783</v>
       </c>
       <c r="H17">
-        <v>1.09115076930328</v>
+        <v>1.128659233626176</v>
       </c>
       <c r="I17">
-        <v>0.542891363344751</v>
+        <v>0.7576655276188383</v>
       </c>
       <c r="J17">
-        <v>0.4151756118116359</v>
+        <v>0.9817220576027323</v>
       </c>
       <c r="K17">
-        <v>1.830925107281788</v>
+        <v>1.426364778558492</v>
       </c>
       <c r="L17">
-        <v>0.4151756118116359</v>
+        <v>0.9817220576027323</v>
       </c>
       <c r="M17">
-        <v>1.1531492337953</v>
+        <v>1.06254588018692</v>
       </c>
       <c r="N17">
-        <v>1.830925107281788</v>
+        <v>1.426364778558492</v>
       </c>
       <c r="O17">
-        <v>0.542891363344751</v>
+        <v>0.7576655276188383</v>
       </c>
       <c r="P17">
-        <v>0.4790334875781934</v>
+        <v>0.8696937926107853</v>
       </c>
       <c r="Q17">
-        <v>0.568565096137112</v>
+        <v>0.7645792615477083</v>
       </c>
       <c r="R17">
-        <v>0.9296640274793918</v>
+        <v>1.055250787926687</v>
       </c>
       <c r="S17">
-        <v>0.5174352680286199</v>
+        <v>0.8369601935660497</v>
       </c>
       <c r="T17">
-        <v>0.9296640274793916</v>
+        <v>1.055250787926687</v>
       </c>
       <c r="U17">
-        <v>0.8458077278419119</v>
+        <v>0.9843113398141601</v>
       </c>
       <c r="V17">
-        <v>1.042831203729887</v>
+        <v>1.072722027563026</v>
       </c>
       <c r="W17">
-        <v>0.9566021240079902</v>
+        <v>1.037256238135614</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.060662115561352</v>
+        <v>1.171895451028345</v>
       </c>
       <c r="D18">
-        <v>0.8694685891829061</v>
+        <v>0.8365378436106552</v>
       </c>
       <c r="E18">
-        <v>0.9537919164026216</v>
+        <v>1.935676985299377</v>
       </c>
       <c r="F18">
-        <v>0.9537919164026216</v>
+        <v>1.935676985299377</v>
       </c>
       <c r="G18">
-        <v>0.9382005628455743</v>
+        <v>0.7079817533086157</v>
       </c>
       <c r="H18">
-        <v>1.049739102495359</v>
+        <v>0.7998759219692106</v>
       </c>
       <c r="I18">
-        <v>0.9534364377030456</v>
+        <v>0.4982469482183665</v>
       </c>
       <c r="J18">
-        <v>0.82069062778437</v>
+        <v>0.9130200743921836</v>
       </c>
       <c r="K18">
-        <v>0.9537919164026216</v>
+        <v>1.935676985299377</v>
       </c>
       <c r="L18">
-        <v>0.82069062778437</v>
+        <v>0.9130200743921836</v>
       </c>
       <c r="M18">
-        <v>0.922407900836787</v>
+        <v>1.045859727334433</v>
       </c>
       <c r="N18">
-        <v>0.9537919164026216</v>
+        <v>1.935676985299377</v>
       </c>
       <c r="O18">
-        <v>0.9534364377030456</v>
+        <v>0.4982469482183665</v>
       </c>
       <c r="P18">
-        <v>0.8870635327437077</v>
+        <v>0.705633511305275</v>
       </c>
       <c r="Q18">
-        <v>0.94581850027431</v>
+        <v>0.6031143507634911</v>
       </c>
       <c r="R18">
-        <v>0.909306327296679</v>
+        <v>1.115648002636642</v>
       </c>
       <c r="S18">
-        <v>0.9041092094443299</v>
+        <v>0.7064162586397219</v>
       </c>
       <c r="T18">
-        <v>0.909306327296679</v>
+        <v>1.115648002636642</v>
       </c>
       <c r="U18">
-        <v>0.9165298861839029</v>
+        <v>1.013731440304636</v>
       </c>
       <c r="V18">
-        <v>0.9239822922276467</v>
+        <v>1.198120549303584</v>
       </c>
       <c r="W18">
-        <v>0.9460496566015019</v>
+        <v>0.9886368381451482</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.073127371786186</v>
+        <v>1.000217658992381</v>
       </c>
       <c r="D19">
-        <v>0.8069055009654151</v>
+        <v>0.9984829026034733</v>
       </c>
       <c r="E19">
-        <v>0.9263386813187364</v>
+        <v>0.9990934705707594</v>
       </c>
       <c r="F19">
-        <v>0.9263386813187364</v>
+        <v>0.9990934705707594</v>
       </c>
       <c r="G19">
-        <v>0.9574331525703889</v>
+        <v>0.9990349955112671</v>
       </c>
       <c r="H19">
-        <v>1.006162814983</v>
+        <v>0.9994006323708627</v>
       </c>
       <c r="I19">
-        <v>0.8989916097711975</v>
+        <v>0.9984847962009645</v>
       </c>
       <c r="J19">
-        <v>0.8279834321831741</v>
+        <v>0.9984694471243825</v>
       </c>
       <c r="K19">
-        <v>0.9263386813187364</v>
+        <v>0.9990934705707594</v>
       </c>
       <c r="L19">
-        <v>0.8279834321831741</v>
+        <v>0.9984694471243825</v>
       </c>
       <c r="M19">
-        <v>0.9639730115047271</v>
+        <v>0.9988037275745933</v>
       </c>
       <c r="N19">
-        <v>0.9263386813187364</v>
+        <v>0.9990934705707594</v>
       </c>
       <c r="O19">
-        <v>0.8989916097711975</v>
+        <v>0.9984847962009645</v>
       </c>
       <c r="P19">
-        <v>0.8634875209771857</v>
+        <v>0.9984771216626736</v>
       </c>
       <c r="Q19">
-        <v>0.9282123811707932</v>
+        <v>0.9987598958561158</v>
       </c>
       <c r="R19">
-        <v>0.8844379077577026</v>
+        <v>0.9986825712987022</v>
       </c>
       <c r="S19">
-        <v>0.8948027315082534</v>
+        <v>0.9986630796122048</v>
       </c>
       <c r="T19">
-        <v>0.8844379077577026</v>
+        <v>0.9986825712987022</v>
       </c>
       <c r="U19">
-        <v>0.9026867189608742</v>
+        <v>0.9987706773518434</v>
       </c>
       <c r="V19">
-        <v>0.9074171114324466</v>
+        <v>0.9988352359956266</v>
       </c>
       <c r="W19">
-        <v>0.9326144468853532</v>
+        <v>0.9989984538685855</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9992953829773028</v>
+        <v>1.002244029695417</v>
       </c>
       <c r="D20">
-        <v>1.000672093612878</v>
+        <v>0.9955818490981312</v>
       </c>
       <c r="E20">
-        <v>0.991117410336132</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="F20">
-        <v>0.991117410336132</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="G20">
-        <v>0.9993435390432956</v>
+        <v>0.9979443911656752</v>
       </c>
       <c r="H20">
-        <v>1.005326533576175</v>
+        <v>0.998454460921998</v>
       </c>
       <c r="I20">
-        <v>0.9993794933216376</v>
+        <v>0.9996664245167922</v>
       </c>
       <c r="J20">
-        <v>1.004416392137886</v>
+        <v>0.9947057129537848</v>
       </c>
       <c r="K20">
-        <v>0.991117410336132</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="L20">
-        <v>1.004416392137886</v>
+        <v>0.9947057129537848</v>
       </c>
       <c r="M20">
-        <v>0.9946300794126655</v>
+        <v>0.9967709381746945</v>
       </c>
       <c r="N20">
-        <v>0.991117410336132</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="O20">
-        <v>0.9993794933216376</v>
+        <v>0.9996664245167922</v>
       </c>
       <c r="P20">
-        <v>1.001897942729762</v>
+        <v>0.9971860687352885</v>
       </c>
       <c r="Q20">
-        <v>0.9993615161824666</v>
+        <v>0.9988054078412337</v>
       </c>
       <c r="R20">
-        <v>0.9983044319318853</v>
+        <v>0.9973670658971271</v>
       </c>
       <c r="S20">
-        <v>1.001046474834273</v>
+        <v>0.9974388428787507</v>
       </c>
       <c r="T20">
-        <v>0.9983044319318853</v>
+        <v>0.9973670658971273</v>
       </c>
       <c r="U20">
-        <v>0.9985642087097379</v>
+        <v>0.9975113972142643</v>
       </c>
       <c r="V20">
-        <v>0.9970748490350168</v>
+        <v>0.9975549298155724</v>
       </c>
       <c r="W20">
-        <v>0.9992726155522464</v>
+        <v>0.9978871083434122</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.014930165733475</v>
+        <v>1.007246381106835</v>
       </c>
       <c r="D21">
-        <v>0.9952625695581356</v>
+        <v>0.9903783482415098</v>
       </c>
       <c r="E21">
-        <v>1.01854838572003</v>
+        <v>1.015816350608682</v>
       </c>
       <c r="F21">
-        <v>1.01854838572003</v>
+        <v>1.015816350608682</v>
       </c>
       <c r="G21">
-        <v>0.9995739604608329</v>
+        <v>0.9964159700236286</v>
       </c>
       <c r="H21">
-        <v>0.996521581169062</v>
+        <v>0.9907323318324628</v>
       </c>
       <c r="I21">
-        <v>0.9961862231355252</v>
+        <v>0.9956538326137917</v>
       </c>
       <c r="J21">
-        <v>1.013476421438183</v>
+        <v>0.9930956503774566</v>
       </c>
       <c r="K21">
-        <v>1.01854838572003</v>
+        <v>1.015816350608682</v>
       </c>
       <c r="L21">
-        <v>1.013476421438183</v>
+        <v>0.9930956503774566</v>
       </c>
       <c r="M21">
-        <v>1.008999415294257</v>
+        <v>0.9944132147243058</v>
       </c>
       <c r="N21">
-        <v>1.01854838572003</v>
+        <v>1.015816350608682</v>
       </c>
       <c r="O21">
-        <v>0.9961862231355252</v>
+        <v>0.9956538326137917</v>
       </c>
       <c r="P21">
-        <v>1.004831322286854</v>
+        <v>0.9943747414956241</v>
       </c>
       <c r="Q21">
-        <v>0.997880091798179</v>
+        <v>0.9960349013187102</v>
       </c>
       <c r="R21">
-        <v>1.009403676764579</v>
+        <v>1.00152194453331</v>
       </c>
       <c r="S21">
-        <v>1.003078868344847</v>
+        <v>0.9950551510049589</v>
       </c>
       <c r="T21">
-        <v>1.009403676764579</v>
+        <v>1.00152194453331</v>
       </c>
       <c r="U21">
-        <v>1.006946247688643</v>
+        <v>1.00024545090589</v>
       </c>
       <c r="V21">
-        <v>1.00926667529492</v>
+        <v>1.003359630846448</v>
       </c>
       <c r="W21">
-        <v>1.005437340313688</v>
+        <v>0.9979690099410841</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.017848501283164</v>
+        <v>1.003539527043636</v>
       </c>
       <c r="D22">
-        <v>1.024851016807697</v>
+        <v>0.994171506541371</v>
       </c>
       <c r="E22">
-        <v>0.990075409819188</v>
+        <v>0.9760331517024553</v>
       </c>
       <c r="F22">
-        <v>0.990075409819188</v>
+        <v>0.9760331517024553</v>
       </c>
       <c r="G22">
-        <v>0.9760377150965702</v>
+        <v>0.9906614343230589</v>
       </c>
       <c r="H22">
-        <v>1.088193230955135</v>
+        <v>1.002128221816792</v>
       </c>
       <c r="I22">
-        <v>0.9671355983571034</v>
+        <v>0.9912054982065164</v>
       </c>
       <c r="J22">
-        <v>1.016548480068031</v>
+        <v>0.9909757832050827</v>
       </c>
       <c r="K22">
-        <v>0.990075409819188</v>
+        <v>0.9760331517024553</v>
       </c>
       <c r="L22">
-        <v>1.016548480068031</v>
+        <v>0.9909757832050827</v>
       </c>
       <c r="M22">
-        <v>1.040977269817865</v>
+        <v>0.9960052931943204</v>
       </c>
       <c r="N22">
-        <v>0.990075409819188</v>
+        <v>0.9760331517024553</v>
       </c>
       <c r="O22">
-        <v>0.9671355983571034</v>
+        <v>0.9912054982065164</v>
       </c>
       <c r="P22">
-        <v>0.9918420392125671</v>
+        <v>0.9910906407057996</v>
       </c>
       <c r="Q22">
-        <v>0.9715866567268368</v>
+        <v>0.9909334662647876</v>
       </c>
       <c r="R22">
-        <v>0.9912531627481074</v>
+        <v>0.9860714777046847</v>
       </c>
       <c r="S22">
-        <v>0.9865739311739015</v>
+        <v>0.9909475719115527</v>
       </c>
       <c r="T22">
-        <v>0.9912531627481073</v>
+        <v>0.9860714777046847</v>
       </c>
       <c r="U22">
-        <v>0.987449300835223</v>
+        <v>0.9872189668592783</v>
       </c>
       <c r="V22">
-        <v>0.987974522632016</v>
+        <v>0.9849818038279137</v>
       </c>
       <c r="W22">
-        <v>1.015208402775594</v>
+        <v>0.9930900520041541</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.035226989075718</v>
+      </c>
+      <c r="D23">
+        <v>0.9611013951452855</v>
+      </c>
+      <c r="E23">
+        <v>1.029459894125828</v>
+      </c>
+      <c r="F23">
+        <v>1.029459894125828</v>
+      </c>
+      <c r="G23">
+        <v>1.000318831649774</v>
+      </c>
+      <c r="H23">
+        <v>0.9409866523976519</v>
+      </c>
+      <c r="I23">
+        <v>0.9676748875473582</v>
+      </c>
+      <c r="J23">
+        <v>0.8904573808547618</v>
+      </c>
+      <c r="K23">
+        <v>1.029459894125828</v>
+      </c>
+      <c r="L23">
+        <v>0.8904573808547618</v>
+      </c>
+      <c r="M23">
+        <v>0.9966032629166391</v>
+      </c>
+      <c r="N23">
+        <v>1.029459894125828</v>
+      </c>
+      <c r="O23">
+        <v>0.9676748875473582</v>
+      </c>
+      <c r="P23">
+        <v>0.92906613420106</v>
+      </c>
+      <c r="Q23">
+        <v>0.9839968595985659</v>
+      </c>
+      <c r="R23">
+        <v>0.9625307208426491</v>
+      </c>
+      <c r="S23">
+        <v>0.9528170333506312</v>
+      </c>
+      <c r="T23">
+        <v>0.9625307208426491</v>
+      </c>
+      <c r="U23">
+        <v>0.9719777485444302</v>
+      </c>
+      <c r="V23">
+        <v>0.9834741776607097</v>
+      </c>
+      <c r="W23">
+        <v>0.977728661714127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.531501474756946</v>
+      </c>
+      <c r="D24">
+        <v>1.539455930538949</v>
+      </c>
+      <c r="E24">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="F24">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="G24">
+        <v>0.6271839420445542</v>
+      </c>
+      <c r="H24">
+        <v>0.9256219321168204</v>
+      </c>
+      <c r="I24">
+        <v>0.4627936133186827</v>
+      </c>
+      <c r="J24">
+        <v>1.767723737934358</v>
+      </c>
+      <c r="K24">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="L24">
+        <v>1.767723737934358</v>
+      </c>
+      <c r="M24">
+        <v>0.5238793359144963</v>
+      </c>
+      <c r="N24">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="O24">
+        <v>0.4627936133186827</v>
+      </c>
+      <c r="P24">
+        <v>1.11525867562652</v>
+      </c>
+      <c r="Q24">
+        <v>0.5449887776816185</v>
+      </c>
+      <c r="R24">
+        <v>1.071507568716476</v>
+      </c>
+      <c r="S24">
+        <v>0.9525670977658649</v>
+      </c>
+      <c r="T24">
+        <v>1.071507568716475</v>
+      </c>
+      <c r="U24">
+        <v>0.9604266620484951</v>
+      </c>
+      <c r="V24">
+        <v>0.9651424006180733</v>
+      </c>
+      <c r="W24">
+        <v>1.045270665190149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7952416120434692</v>
+      </c>
+      <c r="D25">
+        <v>1.162045768650515</v>
+      </c>
+      <c r="E25">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="F25">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="G25">
+        <v>0.8106030221734616</v>
+      </c>
+      <c r="H25">
+        <v>0.94983271636682</v>
+      </c>
+      <c r="I25">
+        <v>0.8720598664434072</v>
+      </c>
+      <c r="J25">
+        <v>0.9245614428718981</v>
+      </c>
+      <c r="K25">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="L25">
+        <v>0.9245614428718981</v>
+      </c>
+      <c r="M25">
+        <v>1.299384753518798</v>
+      </c>
+      <c r="N25">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="O25">
+        <v>0.8720598664434072</v>
+      </c>
+      <c r="P25">
+        <v>0.8983106546576527</v>
+      </c>
+      <c r="Q25">
+        <v>0.8413314443084343</v>
+      </c>
+      <c r="R25">
+        <v>0.9475778625914532</v>
+      </c>
+      <c r="S25">
+        <v>0.8690747771629224</v>
+      </c>
+      <c r="T25">
+        <v>0.9475778625914529</v>
+      </c>
+      <c r="U25">
+        <v>0.9133341524869552</v>
+      </c>
+      <c r="V25">
+        <v>0.9398897776813749</v>
+      </c>
+      <c r="W25">
+        <v>0.9824801825659278</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.4536917121509401</v>
+      </c>
+      <c r="D26">
+        <v>0.4096840475411664</v>
+      </c>
+      <c r="E26">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="F26">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="G26">
+        <v>0.8118449974278891</v>
+      </c>
+      <c r="H26">
+        <v>1.303737983122168</v>
+      </c>
+      <c r="I26">
+        <v>2.974005281740447</v>
+      </c>
+      <c r="J26">
+        <v>0.001702079803434697</v>
+      </c>
+      <c r="K26">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="L26">
+        <v>0.001702079803434697</v>
+      </c>
+      <c r="M26">
+        <v>1.431143634562504</v>
+      </c>
+      <c r="N26">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="O26">
+        <v>2.974005281740447</v>
+      </c>
+      <c r="P26">
+        <v>1.487853680771941</v>
+      </c>
+      <c r="Q26">
+        <v>1.892925139584168</v>
+      </c>
+      <c r="R26">
+        <v>0.9918880816042258</v>
+      </c>
+      <c r="S26">
+        <v>1.26251745299059</v>
+      </c>
+      <c r="T26">
+        <v>0.9918880816042258</v>
+      </c>
+      <c r="U26">
+        <v>0.9468773105601416</v>
+      </c>
+      <c r="V26">
+        <v>0.7574932251018724</v>
+      </c>
+      <c r="W26">
+        <v>0.9232208274521682</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.358438649396205</v>
+      </c>
+      <c r="D27">
+        <v>1.591921160835133</v>
+      </c>
+      <c r="E27">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="F27">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="G27">
+        <v>1.358152967190434</v>
+      </c>
+      <c r="H27">
+        <v>0.8098822901324816</v>
+      </c>
+      <c r="I27">
+        <v>0.1993459802812506</v>
+      </c>
+      <c r="J27">
+        <v>1.655727129746554</v>
+      </c>
+      <c r="K27">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="L27">
+        <v>1.655727129746554</v>
+      </c>
+      <c r="M27">
+        <v>0.4300450824887913</v>
+      </c>
+      <c r="N27">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="O27">
+        <v>0.1993459802812506</v>
+      </c>
+      <c r="P27">
+        <v>0.9275365550139025</v>
+      </c>
+      <c r="Q27">
+        <v>0.7787494737358426</v>
+      </c>
+      <c r="R27">
+        <v>0.8191015776019478</v>
+      </c>
+      <c r="S27">
+        <v>1.071075359072746</v>
+      </c>
+      <c r="T27">
+        <v>0.8191015776019476</v>
+      </c>
+      <c r="U27">
+        <v>0.9538644249990693</v>
+      </c>
+      <c r="V27">
+        <v>0.8835378645548631</v>
+      </c>
+      <c r="W27">
+        <v>1.000718110356111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.173294644172044</v>
+      </c>
+      <c r="D28">
+        <v>0.904968216309797</v>
+      </c>
+      <c r="E28">
+        <v>2.264998554369355</v>
+      </c>
+      <c r="F28">
+        <v>2.264998554369355</v>
+      </c>
+      <c r="G28">
+        <v>0.4221791945609977</v>
+      </c>
+      <c r="H28">
+        <v>1.112075400045889</v>
+      </c>
+      <c r="I28">
+        <v>0.3387230087034297</v>
+      </c>
+      <c r="J28">
+        <v>0.2104586797856233</v>
+      </c>
+      <c r="K28">
+        <v>2.264998554369355</v>
+      </c>
+      <c r="L28">
+        <v>0.2104586797856233</v>
+      </c>
+      <c r="M28">
+        <v>1.269755208780715</v>
+      </c>
+      <c r="N28">
+        <v>2.264998554369355</v>
+      </c>
+      <c r="O28">
+        <v>0.3387230087034297</v>
+      </c>
+      <c r="P28">
+        <v>0.2745908442445265</v>
+      </c>
+      <c r="Q28">
+        <v>0.3804511016322137</v>
+      </c>
+      <c r="R28">
+        <v>0.9380600809528028</v>
+      </c>
+      <c r="S28">
+        <v>0.3237869610166836</v>
+      </c>
+      <c r="T28">
+        <v>0.9380600809528028</v>
+      </c>
+      <c r="U28">
+        <v>0.8090898593548516</v>
+      </c>
+      <c r="V28">
+        <v>1.100271598357752</v>
+      </c>
+      <c r="W28">
+        <v>0.9620566133409812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.134142038305093</v>
+      </c>
+      <c r="D29">
+        <v>0.8911440392926008</v>
+      </c>
+      <c r="E29">
+        <v>1.830925107281788</v>
+      </c>
+      <c r="F29">
+        <v>1.830925107281788</v>
+      </c>
+      <c r="G29">
+        <v>0.594238828929473</v>
+      </c>
+      <c r="H29">
+        <v>1.09115076930328</v>
+      </c>
+      <c r="I29">
+        <v>0.542891363344751</v>
+      </c>
+      <c r="J29">
+        <v>0.4151756118116359</v>
+      </c>
+      <c r="K29">
+        <v>1.830925107281788</v>
+      </c>
+      <c r="L29">
+        <v>0.4151756118116359</v>
+      </c>
+      <c r="M29">
+        <v>1.1531492337953</v>
+      </c>
+      <c r="N29">
+        <v>1.830925107281788</v>
+      </c>
+      <c r="O29">
+        <v>0.542891363344751</v>
+      </c>
+      <c r="P29">
+        <v>0.4790334875781934</v>
+      </c>
+      <c r="Q29">
+        <v>0.568565096137112</v>
+      </c>
+      <c r="R29">
+        <v>0.9296640274793918</v>
+      </c>
+      <c r="S29">
+        <v>0.5174352680286199</v>
+      </c>
+      <c r="T29">
+        <v>0.9296640274793916</v>
+      </c>
+      <c r="U29">
+        <v>0.8458077278419119</v>
+      </c>
+      <c r="V29">
+        <v>1.042831203729887</v>
+      </c>
+      <c r="W29">
+        <v>0.9566021240079902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.060662115561352</v>
+      </c>
+      <c r="D30">
+        <v>0.8694685891829061</v>
+      </c>
+      <c r="E30">
+        <v>0.9537919164026216</v>
+      </c>
+      <c r="F30">
+        <v>0.9537919164026216</v>
+      </c>
+      <c r="G30">
+        <v>0.9382005628455743</v>
+      </c>
+      <c r="H30">
+        <v>1.049739102495359</v>
+      </c>
+      <c r="I30">
+        <v>0.9534364377030456</v>
+      </c>
+      <c r="J30">
+        <v>0.82069062778437</v>
+      </c>
+      <c r="K30">
+        <v>0.9537919164026216</v>
+      </c>
+      <c r="L30">
+        <v>0.82069062778437</v>
+      </c>
+      <c r="M30">
+        <v>0.922407900836787</v>
+      </c>
+      <c r="N30">
+        <v>0.9537919164026216</v>
+      </c>
+      <c r="O30">
+        <v>0.9534364377030456</v>
+      </c>
+      <c r="P30">
+        <v>0.8870635327437077</v>
+      </c>
+      <c r="Q30">
+        <v>0.94581850027431</v>
+      </c>
+      <c r="R30">
+        <v>0.909306327296679</v>
+      </c>
+      <c r="S30">
+        <v>0.9041092094443299</v>
+      </c>
+      <c r="T30">
+        <v>0.909306327296679</v>
+      </c>
+      <c r="U30">
+        <v>0.9165298861839029</v>
+      </c>
+      <c r="V30">
+        <v>0.9239822922276467</v>
+      </c>
+      <c r="W30">
+        <v>0.9460496566015019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.073127371786186</v>
+      </c>
+      <c r="D31">
+        <v>0.8069055009654151</v>
+      </c>
+      <c r="E31">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="F31">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="G31">
+        <v>0.9574331525703889</v>
+      </c>
+      <c r="H31">
+        <v>1.006162814983</v>
+      </c>
+      <c r="I31">
+        <v>0.8989916097711975</v>
+      </c>
+      <c r="J31">
+        <v>0.8279834321831741</v>
+      </c>
+      <c r="K31">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="L31">
+        <v>0.8279834321831741</v>
+      </c>
+      <c r="M31">
+        <v>0.9639730115047271</v>
+      </c>
+      <c r="N31">
+        <v>0.9263386813187364</v>
+      </c>
+      <c r="O31">
+        <v>0.8989916097711975</v>
+      </c>
+      <c r="P31">
+        <v>0.8634875209771857</v>
+      </c>
+      <c r="Q31">
+        <v>0.9282123811707932</v>
+      </c>
+      <c r="R31">
+        <v>0.8844379077577026</v>
+      </c>
+      <c r="S31">
+        <v>0.8948027315082534</v>
+      </c>
+      <c r="T31">
+        <v>0.8844379077577026</v>
+      </c>
+      <c r="U31">
+        <v>0.9026867189608742</v>
+      </c>
+      <c r="V31">
+        <v>0.9074171114324466</v>
+      </c>
+      <c r="W31">
+        <v>0.9326144468853532</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.255848985535781</v>
+      </c>
+      <c r="D32">
+        <v>0.9055459068286303</v>
+      </c>
+      <c r="E32">
+        <v>2.661477215342467</v>
+      </c>
+      <c r="F32">
+        <v>2.661477215342467</v>
+      </c>
+      <c r="G32">
+        <v>0.2463961961616438</v>
+      </c>
+      <c r="H32">
+        <v>1.117686533458082</v>
+      </c>
+      <c r="I32">
+        <v>0.1321323823591781</v>
+      </c>
+      <c r="J32">
+        <v>0.00526360710438356</v>
+      </c>
+      <c r="K32">
+        <v>2.661477215342467</v>
+      </c>
+      <c r="L32">
+        <v>0.00526360710438356</v>
+      </c>
+      <c r="M32">
+        <v>1.36660617169315</v>
+      </c>
+      <c r="N32">
+        <v>2.661477215342467</v>
+      </c>
+      <c r="O32">
+        <v>0.1321323823591781</v>
+      </c>
+      <c r="P32">
+        <v>0.06869799473178081</v>
+      </c>
+      <c r="Q32">
+        <v>0.1892642892604109</v>
+      </c>
+      <c r="R32">
+        <v>0.9329577349353427</v>
+      </c>
+      <c r="S32">
+        <v>0.1279307285417352</v>
+      </c>
+      <c r="T32">
+        <v>0.9329577349353427</v>
+      </c>
+      <c r="U32">
+        <v>0.7613173502419179</v>
+      </c>
+      <c r="V32">
+        <v>1.141349323262028</v>
+      </c>
+      <c r="W32">
+        <v>0.9613696248104144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.7190279024157895</v>
+      </c>
+      <c r="D33">
+        <v>0.2137315294889473</v>
+      </c>
+      <c r="E33">
+        <v>1.554622763205579</v>
+      </c>
+      <c r="F33">
+        <v>1.554622763205579</v>
+      </c>
+      <c r="G33">
+        <v>0.9960268855563157</v>
+      </c>
+      <c r="H33">
+        <v>1.028072381531579</v>
+      </c>
+      <c r="I33">
+        <v>0.8928489053347368</v>
+      </c>
+      <c r="J33">
+        <v>4.988099631578902E-05</v>
+      </c>
+      <c r="K33">
+        <v>1.554622763205579</v>
+      </c>
+      <c r="L33">
+        <v>4.988099631578902E-05</v>
+      </c>
+      <c r="M33">
+        <v>1.366466313505263</v>
+      </c>
+      <c r="N33">
+        <v>1.554622763205579</v>
+      </c>
+      <c r="O33">
+        <v>0.8928489053347368</v>
+      </c>
+      <c r="P33">
+        <v>0.4464493931655263</v>
+      </c>
+      <c r="Q33">
+        <v>0.9444378954455263</v>
+      </c>
+      <c r="R33">
+        <v>0.8158405165122105</v>
+      </c>
+      <c r="S33">
+        <v>0.6296418906291228</v>
+      </c>
+      <c r="T33">
+        <v>0.8158405165122105</v>
+      </c>
+      <c r="U33">
+        <v>0.8608871087732368</v>
+      </c>
+      <c r="V33">
+        <v>0.9996342396597052</v>
+      </c>
+      <c r="W33">
+        <v>0.8463558202543158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9000602186447368</v>
+      </c>
+      <c r="D34">
+        <v>0.7397562935925791</v>
+      </c>
+      <c r="E34">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="F34">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="G34">
+        <v>0.2344642994884211</v>
+      </c>
+      <c r="H34">
+        <v>1.630941837373684</v>
+      </c>
+      <c r="I34">
+        <v>0.5012347371378947</v>
+      </c>
+      <c r="J34">
+        <v>0.0002514201820526311</v>
+      </c>
+      <c r="K34">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="L34">
+        <v>0.0002514201820526311</v>
+      </c>
+      <c r="M34">
+        <v>1.478782537500526</v>
+      </c>
+      <c r="N34">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="O34">
+        <v>0.5012347371378947</v>
+      </c>
+      <c r="P34">
+        <v>0.2507430786599736</v>
+      </c>
+      <c r="Q34">
+        <v>0.3678495183131579</v>
+      </c>
+      <c r="R34">
+        <v>0.650400510724193</v>
+      </c>
+      <c r="S34">
+        <v>0.2453168189361228</v>
+      </c>
+      <c r="T34">
+        <v>0.650400510724193</v>
+      </c>
+      <c r="U34">
+        <v>0.5464164579152501</v>
+      </c>
+      <c r="V34">
+        <v>0.7270762413027263</v>
+      </c>
+      <c r="W34">
+        <v>0.8669008398465659</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.8096681978385366</v>
+      </c>
+      <c r="D35">
+        <v>0.4302747822521641</v>
+      </c>
+      <c r="E35">
+        <v>0.4854159546117728</v>
+      </c>
+      <c r="F35">
+        <v>0.4854159546117728</v>
+      </c>
+      <c r="G35">
+        <v>0.4858700365134004</v>
+      </c>
+      <c r="H35">
+        <v>0.7649177045260979</v>
+      </c>
+      <c r="I35">
+        <v>0.4783369174253663</v>
+      </c>
+      <c r="J35">
+        <v>0.4076390588638172</v>
+      </c>
+      <c r="K35">
+        <v>0.4854159546117728</v>
+      </c>
+      <c r="L35">
+        <v>0.4076390588638172</v>
+      </c>
+      <c r="M35">
+        <v>0.4669637365034571</v>
+      </c>
+      <c r="N35">
+        <v>0.4854159546117728</v>
+      </c>
+      <c r="O35">
+        <v>0.4783369174253663</v>
+      </c>
+      <c r="P35">
+        <v>0.4429879881445917</v>
+      </c>
+      <c r="Q35">
+        <v>0.4821034769693834</v>
+      </c>
+      <c r="R35">
+        <v>0.4571306436336521</v>
+      </c>
+      <c r="S35">
+        <v>0.4572820042675279</v>
+      </c>
+      <c r="T35">
+        <v>0.4571306436336521</v>
+      </c>
+      <c r="U35">
+        <v>0.4643154918535892</v>
+      </c>
+      <c r="V35">
+        <v>0.4685355844052259</v>
+      </c>
+      <c r="W35">
+        <v>0.5411357985668266</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9992953829773028</v>
+      </c>
+      <c r="D36">
+        <v>1.000672093612878</v>
+      </c>
+      <c r="E36">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="F36">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="G36">
+        <v>0.9993435390432956</v>
+      </c>
+      <c r="H36">
+        <v>1.005326533576175</v>
+      </c>
+      <c r="I36">
+        <v>0.9993794933216376</v>
+      </c>
+      <c r="J36">
+        <v>1.004416392137886</v>
+      </c>
+      <c r="K36">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="L36">
+        <v>1.004416392137886</v>
+      </c>
+      <c r="M36">
+        <v>0.9946300794126655</v>
+      </c>
+      <c r="N36">
+        <v>0.991117410336132</v>
+      </c>
+      <c r="O36">
+        <v>0.9993794933216376</v>
+      </c>
+      <c r="P36">
+        <v>1.001897942729762</v>
+      </c>
+      <c r="Q36">
+        <v>0.9993615161824666</v>
+      </c>
+      <c r="R36">
+        <v>0.9983044319318853</v>
+      </c>
+      <c r="S36">
+        <v>1.001046474834273</v>
+      </c>
+      <c r="T36">
+        <v>0.9983044319318853</v>
+      </c>
+      <c r="U36">
+        <v>0.9985642087097379</v>
+      </c>
+      <c r="V36">
+        <v>0.9970748490350168</v>
+      </c>
+      <c r="W36">
+        <v>0.9992726155522464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.014930165733475</v>
+      </c>
+      <c r="D37">
+        <v>0.9952625695581356</v>
+      </c>
+      <c r="E37">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="F37">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="G37">
+        <v>0.9995739604608329</v>
+      </c>
+      <c r="H37">
+        <v>0.996521581169062</v>
+      </c>
+      <c r="I37">
+        <v>0.9961862231355252</v>
+      </c>
+      <c r="J37">
+        <v>1.013476421438183</v>
+      </c>
+      <c r="K37">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="L37">
+        <v>1.013476421438183</v>
+      </c>
+      <c r="M37">
+        <v>1.008999415294257</v>
+      </c>
+      <c r="N37">
+        <v>1.01854838572003</v>
+      </c>
+      <c r="O37">
+        <v>0.9961862231355252</v>
+      </c>
+      <c r="P37">
+        <v>1.004831322286854</v>
+      </c>
+      <c r="Q37">
+        <v>0.997880091798179</v>
+      </c>
+      <c r="R37">
+        <v>1.009403676764579</v>
+      </c>
+      <c r="S37">
+        <v>1.003078868344847</v>
+      </c>
+      <c r="T37">
+        <v>1.009403676764579</v>
+      </c>
+      <c r="U37">
+        <v>1.006946247688643</v>
+      </c>
+      <c r="V37">
+        <v>1.00926667529492</v>
+      </c>
+      <c r="W37">
+        <v>1.005437340313688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.017848501283164</v>
+      </c>
+      <c r="D38">
+        <v>1.024851016807697</v>
+      </c>
+      <c r="E38">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="F38">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="G38">
+        <v>0.9760377150965702</v>
+      </c>
+      <c r="H38">
+        <v>1.088193230955135</v>
+      </c>
+      <c r="I38">
+        <v>0.9671355983571034</v>
+      </c>
+      <c r="J38">
+        <v>1.016548480068031</v>
+      </c>
+      <c r="K38">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="L38">
+        <v>1.016548480068031</v>
+      </c>
+      <c r="M38">
+        <v>1.040977269817865</v>
+      </c>
+      <c r="N38">
+        <v>0.990075409819188</v>
+      </c>
+      <c r="O38">
+        <v>0.9671355983571034</v>
+      </c>
+      <c r="P38">
+        <v>0.9918420392125671</v>
+      </c>
+      <c r="Q38">
+        <v>0.9715866567268368</v>
+      </c>
+      <c r="R38">
+        <v>0.9912531627481074</v>
+      </c>
+      <c r="S38">
+        <v>0.9865739311739015</v>
+      </c>
+      <c r="T38">
+        <v>0.9912531627481073</v>
+      </c>
+      <c r="U38">
+        <v>0.987449300835223</v>
+      </c>
+      <c r="V38">
+        <v>0.987974522632016</v>
+      </c>
+      <c r="W38">
+        <v>1.015208402775594</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.145404248686863</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.028424139829051</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.18912803919332</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.18912803919332</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9567896143151863</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.188121283008542</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9358179020119795</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.8858301933841755</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.18912803919332</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.8858301933841755</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9452805655159452</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.18912803919332</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9358179020119795</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9108240476980775</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9463037581635829</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.003592044863158</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9261459032371137</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.003592044863158</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9918914372261654</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.031338757619596</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>1.034349498243133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.049118984036946</v>
+      </c>
+      <c r="D40">
+        <v>0.8299628311987545</v>
+      </c>
+      <c r="E40">
+        <v>1.070027264350759</v>
+      </c>
+      <c r="F40">
+        <v>1.070027264350759</v>
+      </c>
+      <c r="G40">
+        <v>0.910588068099057</v>
+      </c>
+      <c r="H40">
+        <v>1.180653913869586</v>
+      </c>
+      <c r="I40">
+        <v>0.9670045046901757</v>
+      </c>
+      <c r="J40">
+        <v>0.7913127570119343</v>
+      </c>
+      <c r="K40">
+        <v>1.070027264350759</v>
+      </c>
+      <c r="L40">
+        <v>0.7913127570119343</v>
+      </c>
+      <c r="M40">
+        <v>0.9065753966898721</v>
+      </c>
+      <c r="N40">
+        <v>1.070027264350759</v>
+      </c>
+      <c r="O40">
+        <v>0.9670045046901757</v>
+      </c>
+      <c r="P40">
+        <v>0.8791586308510551</v>
+      </c>
+      <c r="Q40">
+        <v>0.9387962863946164</v>
+      </c>
+      <c r="R40">
+        <v>0.9427815086842898</v>
+      </c>
+      <c r="S40">
+        <v>0.8896351099337224</v>
+      </c>
+      <c r="T40">
+        <v>0.9427815086842898</v>
+      </c>
+      <c r="U40">
+        <v>0.9347331485379815</v>
+      </c>
+      <c r="V40">
+        <v>0.9617919717005371</v>
+      </c>
+      <c r="W40">
+        <v>0.9631554649933856</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.029728783686453</v>
+      </c>
+      <c r="D41">
+        <v>1.106663182714306</v>
+      </c>
+      <c r="E41">
+        <v>0.8494495702345409</v>
+      </c>
+      <c r="F41">
+        <v>0.8494495702345409</v>
+      </c>
+      <c r="G41">
+        <v>1.073489506012625</v>
+      </c>
+      <c r="H41">
+        <v>0.9504518272020424</v>
+      </c>
+      <c r="I41">
+        <v>0.9457368936330545</v>
+      </c>
+      <c r="J41">
+        <v>1.277880249448049</v>
+      </c>
+      <c r="K41">
+        <v>0.8494495702345409</v>
+      </c>
+      <c r="L41">
+        <v>1.277880249448049</v>
+      </c>
+      <c r="M41">
+        <v>0.9670678707878432</v>
+      </c>
+      <c r="N41">
+        <v>0.8494495702345409</v>
+      </c>
+      <c r="O41">
+        <v>0.9457368936330545</v>
+      </c>
+      <c r="P41">
+        <v>1.111808571540552</v>
+      </c>
+      <c r="Q41">
+        <v>1.00961319982284</v>
+      </c>
+      <c r="R41">
+        <v>1.024355571105215</v>
+      </c>
+      <c r="S41">
+        <v>1.09903554969791</v>
+      </c>
+      <c r="T41">
+        <v>1.024355571105215</v>
+      </c>
+      <c r="U41">
+        <v>1.036639054832067</v>
+      </c>
+      <c r="V41">
+        <v>0.9992011579125621</v>
+      </c>
+      <c r="W41">
+        <v>1.025058485464864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.223338499784641</v>
+      </c>
+      <c r="D42">
+        <v>0.7206323052687612</v>
+      </c>
+      <c r="E42">
+        <v>0.4832957983189896</v>
+      </c>
+      <c r="F42">
+        <v>0.4832957983189896</v>
+      </c>
+      <c r="G42">
+        <v>0.9693244026045825</v>
+      </c>
+      <c r="H42">
+        <v>1.400882739189836</v>
+      </c>
+      <c r="I42">
+        <v>1.246012749542525</v>
+      </c>
+      <c r="J42">
+        <v>0.7167096335906893</v>
+      </c>
+      <c r="K42">
+        <v>0.4832957983189896</v>
+      </c>
+      <c r="L42">
+        <v>0.7167096335906893</v>
+      </c>
+      <c r="M42">
+        <v>0.9027095392995426</v>
+      </c>
+      <c r="N42">
+        <v>0.4832957983189896</v>
+      </c>
+      <c r="O42">
+        <v>1.246012749542525</v>
+      </c>
+      <c r="P42">
+        <v>0.9813611915666074</v>
+      </c>
+      <c r="Q42">
+        <v>1.107668576073554</v>
+      </c>
+      <c r="R42">
+        <v>0.8153393938174015</v>
+      </c>
+      <c r="S42">
+        <v>0.9773489285792657</v>
+      </c>
+      <c r="T42">
+        <v>0.8153393938174015</v>
+      </c>
+      <c r="U42">
+        <v>0.8538356460141967</v>
+      </c>
+      <c r="V42">
+        <v>0.7797276764751553</v>
+      </c>
+      <c r="W42">
+        <v>0.957863208449946</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW05.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,42 +85,45 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
     <t>[3, 3, 3]</t>
   </si>
   <si>
@@ -95,12 +131,6 @@
   </si>
   <si>
     <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.06158343524296</v>
+        <v>1.002244029695417</v>
       </c>
       <c r="D3">
-        <v>0.9560852844970736</v>
+        <v>0.9955818490981312</v>
       </c>
       <c r="E3">
-        <v>0.9536718278061078</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="F3">
-        <v>1.06158343524296</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="G3">
-        <v>0.9610716945265264</v>
+        <v>0.9979443911656752</v>
       </c>
       <c r="H3">
-        <v>1.007907696554501</v>
+        <v>0.998454460921998</v>
       </c>
       <c r="I3">
-        <v>1.06158343524296</v>
+        <v>0.9996664245167922</v>
       </c>
       <c r="J3">
-        <v>0.9560852844970736</v>
+        <v>0.9947057129537848</v>
       </c>
       <c r="K3">
-        <v>1.016593108169967</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="L3">
-        <v>1.004996820712794</v>
+        <v>0.9947057129537848</v>
       </c>
       <c r="M3">
-        <v>0.9949486301700959</v>
+        <v>0.9967709381746945</v>
       </c>
       <c r="N3">
-        <v>1.06158343524296</v>
+        <v>0.9977290602208045</v>
       </c>
       <c r="O3">
-        <v>0.9536718278061078</v>
+        <v>0.9996664245167922</v>
       </c>
       <c r="P3">
-        <v>0.9548785561515907</v>
+        <v>0.9971860687352885</v>
       </c>
       <c r="Q3">
-        <v>0.9573717611663171</v>
+        <v>0.9988054078412337</v>
       </c>
       <c r="R3">
-        <v>0.9904468491820472</v>
+        <v>0.9973670658971271</v>
       </c>
       <c r="S3">
-        <v>0.9569429356099026</v>
+        <v>0.9974388428787507</v>
       </c>
       <c r="T3">
-        <v>0.9904468491820472</v>
+        <v>0.9973670658971273</v>
       </c>
       <c r="U3">
-        <v>0.983103060518167</v>
+        <v>0.9975113972142643</v>
       </c>
       <c r="V3">
-        <v>0.9987991354631257</v>
+        <v>0.9975549298155724</v>
       </c>
       <c r="W3">
-        <v>0.9946073122100031</v>
+        <v>0.9978871083434122</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.163912123727912</v>
+        <v>1.049118984036946</v>
       </c>
       <c r="D4">
-        <v>0.9247712258388324</v>
+        <v>0.8299628311987545</v>
       </c>
       <c r="E4">
-        <v>0.9388351797027392</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="F4">
-        <v>1.163912123727912</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="G4">
-        <v>0.9492129957330031</v>
+        <v>0.910588068099057</v>
       </c>
       <c r="H4">
-        <v>1.005703809510849</v>
+        <v>1.180653913869586</v>
       </c>
       <c r="I4">
-        <v>1.163912123727912</v>
+        <v>0.9670045046901757</v>
       </c>
       <c r="J4">
-        <v>0.9247712258388324</v>
+        <v>0.7913127570119343</v>
       </c>
       <c r="K4">
-        <v>1.047355316221156</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="L4">
-        <v>1.002840550218579</v>
+        <v>0.7913127570119343</v>
       </c>
       <c r="M4">
-        <v>0.9907584283849309</v>
+        <v>0.9065753966898721</v>
       </c>
       <c r="N4">
-        <v>1.163912123727912</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="O4">
-        <v>0.9388351797027392</v>
+        <v>0.9670045046901757</v>
       </c>
       <c r="P4">
-        <v>0.9318032027707859</v>
+        <v>0.8791586308510551</v>
       </c>
       <c r="Q4">
-        <v>0.9440240877178712</v>
+        <v>0.9387962863946164</v>
       </c>
       <c r="R4">
-        <v>1.009172843089828</v>
+        <v>0.9427815086842898</v>
       </c>
       <c r="S4">
-        <v>0.9376064670915248</v>
+        <v>0.8896351099337224</v>
       </c>
       <c r="T4">
-        <v>1.009172843089828</v>
+        <v>0.9427815086842898</v>
       </c>
       <c r="U4">
-        <v>0.9941828812506215</v>
+        <v>0.9347331485379815</v>
       </c>
       <c r="V4">
-        <v>1.02812872974608</v>
+        <v>0.9617919717005371</v>
       </c>
       <c r="W4">
-        <v>1.00292370366725</v>
+        <v>0.9631554649933856</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.426364778558493</v>
+        <v>1.042590025288837</v>
       </c>
       <c r="D5">
-        <v>0.9817220576027323</v>
+        <v>0.8430010600877645</v>
       </c>
       <c r="E5">
-        <v>0.7576655276188383</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="F5">
-        <v>1.426364778558493</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="G5">
-        <v>0.7714929954765783</v>
+        <v>0.8921865081017141</v>
       </c>
       <c r="H5">
-        <v>1.128659233626176</v>
+        <v>1.046439878004328</v>
       </c>
       <c r="I5">
-        <v>1.426364778558493</v>
+        <v>0.9047482279649254</v>
       </c>
       <c r="J5">
-        <v>0.9817220576027323</v>
+        <v>0.7757134859262662</v>
       </c>
       <c r="K5">
-        <v>1.06254588018692</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="L5">
-        <v>1.157647644055814</v>
+        <v>0.7757134859262662</v>
       </c>
       <c r="M5">
-        <v>1.01195178795936</v>
+        <v>0.9172155062128842</v>
       </c>
       <c r="N5">
-        <v>1.426364778558493</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="O5">
-        <v>0.7576655276188383</v>
+        <v>0.9047482279649254</v>
       </c>
       <c r="P5">
-        <v>0.8696937926107853</v>
+        <v>0.8402308569455958</v>
       </c>
       <c r="Q5">
-        <v>0.7645792615477083</v>
+        <v>0.8984673680333197</v>
       </c>
       <c r="R5">
-        <v>1.055250787926688</v>
+        <v>0.8889771862814966</v>
       </c>
       <c r="S5">
-        <v>0.8369601935660497</v>
+        <v>0.8575494073309686</v>
       </c>
       <c r="T5">
-        <v>1.055250787926688</v>
+        <v>0.8889771862814965</v>
       </c>
       <c r="U5">
-        <v>0.9843113398141603</v>
+        <v>0.8897795167365509</v>
       </c>
       <c r="V5">
-        <v>1.072722027563027</v>
+        <v>0.9091175823799003</v>
       </c>
       <c r="W5">
-        <v>1.037256238135614</v>
+        <v>0.9260455670675023</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.935676985299377</v>
+        <v>0.8096681978385366</v>
       </c>
       <c r="D6">
-        <v>0.9130200743921834</v>
+        <v>0.4302747822521641</v>
       </c>
       <c r="E6">
-        <v>0.4982469482183665</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="F6">
-        <v>1.935676985299377</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="G6">
-        <v>0.7079817533086157</v>
+        <v>0.4858700365134004</v>
       </c>
       <c r="H6">
-        <v>0.7998759219692105</v>
+        <v>0.7649177045260979</v>
       </c>
       <c r="I6">
-        <v>1.935676985299377</v>
+        <v>0.4783369174253663</v>
       </c>
       <c r="J6">
-        <v>0.9130200743921834</v>
+        <v>0.4076390588638172</v>
       </c>
       <c r="K6">
-        <v>1.045859727334433</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="L6">
-        <v>1.171895451028345</v>
+        <v>0.4076390588638172</v>
       </c>
       <c r="M6">
-        <v>0.8365378436106552</v>
+        <v>0.4669637365034571</v>
       </c>
       <c r="N6">
-        <v>1.935676985299377</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="O6">
-        <v>0.4982469482183665</v>
+        <v>0.4783369174253663</v>
       </c>
       <c r="P6">
-        <v>0.705633511305275</v>
+        <v>0.4429879881445917</v>
       </c>
       <c r="Q6">
-        <v>0.6031143507634911</v>
+        <v>0.4821034769693834</v>
       </c>
       <c r="R6">
-        <v>1.115648002636642</v>
+        <v>0.4571306436336521</v>
       </c>
       <c r="S6">
-        <v>0.7064162586397219</v>
+        <v>0.4572820042675279</v>
       </c>
       <c r="T6">
-        <v>1.115648002636642</v>
+        <v>0.4571306436336521</v>
       </c>
       <c r="U6">
-        <v>1.013731440304636</v>
+        <v>0.4643154918535892</v>
       </c>
       <c r="V6">
-        <v>1.198120549303584</v>
+        <v>0.4685355844052259</v>
       </c>
       <c r="W6">
-        <v>0.9886368381451482</v>
+        <v>0.5411357985668266</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9990934705707594</v>
+        <v>1.009922541573482</v>
       </c>
       <c r="D7">
-        <v>0.9984694471243839</v>
+        <v>1.001036054893854</v>
       </c>
       <c r="E7">
-        <v>0.9984847962009652</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="F7">
-        <v>0.9990934705707594</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="G7">
-        <v>0.9990349955112662</v>
+        <v>0.9650228432219077</v>
       </c>
       <c r="H7">
-        <v>0.9994006323708623</v>
+        <v>1.006927165349379</v>
       </c>
       <c r="I7">
-        <v>0.9990934705707594</v>
+        <v>0.9592099456376557</v>
       </c>
       <c r="J7">
-        <v>0.9984694471243839</v>
+        <v>0.9512752863825724</v>
       </c>
       <c r="K7">
-        <v>0.9988037275745945</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="L7">
-        <v>1.000217658992382</v>
+        <v>0.9512752863825724</v>
       </c>
       <c r="M7">
-        <v>0.9984829026034731</v>
+        <v>1.02210267656093</v>
       </c>
       <c r="N7">
-        <v>0.9990934705707594</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="O7">
-        <v>0.9984847962009652</v>
+        <v>0.9592099456376557</v>
       </c>
       <c r="P7">
-        <v>0.9984771216626745</v>
+        <v>0.9552426160101141</v>
       </c>
       <c r="Q7">
-        <v>0.9987598958561157</v>
+        <v>0.9621163944297817</v>
       </c>
       <c r="R7">
-        <v>0.9986825712987027</v>
+        <v>0.9986698126634265</v>
       </c>
       <c r="S7">
-        <v>0.998663079612205</v>
+        <v>0.9585026917473787</v>
       </c>
       <c r="T7">
-        <v>0.9986825712987027</v>
+        <v>0.9986698126634265</v>
       </c>
       <c r="U7">
-        <v>0.9987706773518437</v>
+        <v>0.9902580703030468</v>
       </c>
       <c r="V7">
-        <v>0.9988352359956268</v>
+        <v>1.009311297436448</v>
       </c>
       <c r="W7">
-        <v>0.9989984538685859</v>
+        <v>1.000127589948729</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9977290602208045</v>
+        <v>1.014930165733475</v>
       </c>
       <c r="D8">
-        <v>0.9947057129537843</v>
+        <v>0.9952625695581356</v>
       </c>
       <c r="E8">
-        <v>0.9996664245167916</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="F8">
-        <v>0.9977290602208045</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="G8">
-        <v>0.9979443911656756</v>
+        <v>0.9995739604608329</v>
       </c>
       <c r="H8">
-        <v>0.9984544609219962</v>
+        <v>0.996521581169062</v>
       </c>
       <c r="I8">
-        <v>0.9977290602208045</v>
+        <v>0.9961862231355252</v>
       </c>
       <c r="J8">
-        <v>0.9947057129537843</v>
+        <v>1.013476421438183</v>
       </c>
       <c r="K8">
-        <v>0.9967709381746945</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="L8">
-        <v>1.002244029695415</v>
+        <v>1.013476421438183</v>
       </c>
       <c r="M8">
-        <v>0.9955818490981306</v>
+        <v>1.008999415294257</v>
       </c>
       <c r="N8">
-        <v>0.9977290602208045</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="O8">
-        <v>0.9996664245167916</v>
+        <v>0.9961862231355252</v>
       </c>
       <c r="P8">
-        <v>0.9971860687352879</v>
+        <v>1.004831322286854</v>
       </c>
       <c r="Q8">
-        <v>0.9988054078412336</v>
+        <v>0.997880091798179</v>
       </c>
       <c r="R8">
-        <v>0.9973670658971269</v>
+        <v>1.009403676764579</v>
       </c>
       <c r="S8">
-        <v>0.9974388428787505</v>
+        <v>1.003078868344847</v>
       </c>
       <c r="T8">
-        <v>0.9973670658971269</v>
+        <v>1.009403676764579</v>
       </c>
       <c r="U8">
-        <v>0.997511397214264</v>
+        <v>1.006946247688643</v>
       </c>
       <c r="V8">
-        <v>0.9975549298155721</v>
+        <v>1.00926667529492</v>
       </c>
       <c r="W8">
-        <v>0.9978871083434115</v>
+        <v>1.005437340313688</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.015816350608682</v>
+        <v>1.002840550218579</v>
       </c>
       <c r="D9">
-        <v>0.9930956503774566</v>
+        <v>0.9907584283849312</v>
       </c>
       <c r="E9">
-        <v>0.9956538326137917</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="F9">
-        <v>1.015816350608682</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="G9">
-        <v>0.9964159700236286</v>
+        <v>0.9492129957330031</v>
       </c>
       <c r="H9">
-        <v>0.9907323318324628</v>
+        <v>1.005703809510849</v>
       </c>
       <c r="I9">
-        <v>1.015816350608682</v>
+        <v>0.9388351797027396</v>
       </c>
       <c r="J9">
-        <v>0.9930956503774566</v>
+        <v>0.9247712258388323</v>
       </c>
       <c r="K9">
-        <v>0.9944132147243058</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="L9">
-        <v>1.007246381106835</v>
+        <v>0.9247712258388323</v>
       </c>
       <c r="M9">
-        <v>0.9903783482415098</v>
+        <v>1.047355316221156</v>
       </c>
       <c r="N9">
-        <v>1.015816350608682</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="O9">
-        <v>0.9956538326137917</v>
+        <v>0.9388351797027396</v>
       </c>
       <c r="P9">
-        <v>0.9943747414956241</v>
+        <v>0.9318032027707859</v>
       </c>
       <c r="Q9">
-        <v>0.9960349013187102</v>
+        <v>0.9440240877178714</v>
       </c>
       <c r="R9">
-        <v>1.00152194453331</v>
+        <v>1.009172843089828</v>
       </c>
       <c r="S9">
-        <v>0.9950551510049589</v>
+        <v>0.9376064670915248</v>
       </c>
       <c r="T9">
-        <v>1.00152194453331</v>
+        <v>1.009172843089828</v>
       </c>
       <c r="U9">
-        <v>1.00024545090589</v>
+        <v>0.9941828812506217</v>
       </c>
       <c r="V9">
-        <v>1.003359630846448</v>
+        <v>1.02812872974608</v>
       </c>
       <c r="W9">
-        <v>0.9979690099410841</v>
+        <v>1.00292370366725</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9760331517024553</v>
+        <v>0.8144631821576266</v>
       </c>
       <c r="D10">
-        <v>0.9909757832050829</v>
+        <v>0.4211114415877115</v>
       </c>
       <c r="E10">
-        <v>0.9912054982065164</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="F10">
-        <v>0.9760331517024553</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="G10">
-        <v>0.9906614343230589</v>
+        <v>0.4884189438468826</v>
       </c>
       <c r="H10">
-        <v>1.002128221816792</v>
+        <v>0.7568980875581356</v>
       </c>
       <c r="I10">
-        <v>0.9760331517024553</v>
+        <v>0.4596006330047704</v>
       </c>
       <c r="J10">
-        <v>0.9909757832050829</v>
+        <v>0.3967470305383115</v>
       </c>
       <c r="K10">
-        <v>0.9960052931943204</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="L10">
-        <v>1.003539527043636</v>
+        <v>0.3967470305383115</v>
       </c>
       <c r="M10">
-        <v>0.994171506541371</v>
+        <v>0.4690051410958807</v>
       </c>
       <c r="N10">
-        <v>0.9760331517024553</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="O10">
-        <v>0.9912054982065164</v>
+        <v>0.4596006330047704</v>
       </c>
       <c r="P10">
-        <v>0.9910906407057997</v>
+        <v>0.428173831771541</v>
       </c>
       <c r="Q10">
-        <v>0.9909334662647876</v>
+        <v>0.4740097884258265</v>
       </c>
       <c r="R10">
-        <v>0.986071477704685</v>
+        <v>0.441097430105843</v>
       </c>
       <c r="S10">
-        <v>0.9909475719115527</v>
+        <v>0.4482555357966548</v>
       </c>
       <c r="T10">
-        <v>0.986071477704685</v>
+        <v>0.441097430105843</v>
       </c>
       <c r="U10">
-        <v>0.9872189668592783</v>
+        <v>0.4529278085411028</v>
       </c>
       <c r="V10">
-        <v>0.9849818038279137</v>
+        <v>0.4557311721877716</v>
       </c>
       <c r="W10">
-        <v>0.9930900520041541</v>
+        <v>0.5341486358204707</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.029459894125828</v>
+        <v>1.138943222112661</v>
       </c>
       <c r="D11">
-        <v>0.8904573808547618</v>
+        <v>0.9352790512379453</v>
       </c>
       <c r="E11">
-        <v>0.9676748875473582</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="F11">
-        <v>1.029459894125828</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="G11">
-        <v>1.000318831649773</v>
+        <v>1.002607521991012</v>
       </c>
       <c r="H11">
-        <v>0.9409866523976519</v>
+        <v>1.215713762801498</v>
       </c>
       <c r="I11">
-        <v>1.029459894125828</v>
+        <v>0.9988853393770505</v>
       </c>
       <c r="J11">
-        <v>0.8904573808547618</v>
+        <v>1.036396245022384</v>
       </c>
       <c r="K11">
-        <v>0.9966032629166394</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="L11">
-        <v>1.035226989075718</v>
+        <v>1.036396245022384</v>
       </c>
       <c r="M11">
-        <v>0.9611013951452855</v>
+        <v>0.8207540058491524</v>
       </c>
       <c r="N11">
-        <v>1.029459894125828</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="O11">
-        <v>0.9676748875473582</v>
+        <v>0.9988853393770505</v>
       </c>
       <c r="P11">
-        <v>0.92906613420106</v>
+        <v>1.017640792199717</v>
       </c>
       <c r="Q11">
-        <v>0.9839968595985658</v>
+        <v>1.000746430684031</v>
       </c>
       <c r="R11">
-        <v>0.9625307208426492</v>
+        <v>0.9256451666111248</v>
       </c>
       <c r="S11">
-        <v>0.9528170333506312</v>
+        <v>1.012629702130149</v>
       </c>
       <c r="T11">
-        <v>0.9625307208426492</v>
+        <v>0.9256451666111248</v>
       </c>
       <c r="U11">
-        <v>0.9719777485444303</v>
+        <v>0.9448857554560968</v>
       </c>
       <c r="V11">
-        <v>0.9834741776607098</v>
+        <v>0.9042393874516653</v>
       </c>
       <c r="W11">
-        <v>0.977728661714127</v>
+        <v>0.9862791329782054</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9840053548963867</v>
+        <v>1.007541713623152</v>
       </c>
       <c r="D12">
-        <v>1.767723737934358</v>
+        <v>0.819951879582589</v>
       </c>
       <c r="E12">
-        <v>0.4627936133186834</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="F12">
-        <v>0.9840053548963867</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="G12">
-        <v>0.6271839420445542</v>
+        <v>0.8926077226236225</v>
       </c>
       <c r="H12">
-        <v>0.9256219321168199</v>
+        <v>1.001949791592473</v>
       </c>
       <c r="I12">
-        <v>0.9840053548963867</v>
+        <v>0.8714422616722812</v>
       </c>
       <c r="J12">
-        <v>1.767723737934358</v>
+        <v>0.7947332407184741</v>
       </c>
       <c r="K12">
-        <v>0.5238793359144964</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="L12">
-        <v>1.531501474756946</v>
+        <v>0.7947332407184741</v>
       </c>
       <c r="M12">
-        <v>1.539455930538949</v>
+        <v>0.9280602390829098</v>
       </c>
       <c r="N12">
-        <v>0.9840053548963867</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="O12">
-        <v>0.4627936133186834</v>
+        <v>0.8714422616722812</v>
       </c>
       <c r="P12">
-        <v>1.115258675626521</v>
+        <v>0.8330877511953776</v>
       </c>
       <c r="Q12">
-        <v>0.5449887776816188</v>
+        <v>0.8820249921479519</v>
       </c>
       <c r="R12">
-        <v>1.071507568716476</v>
+        <v>0.8531844093219987</v>
       </c>
       <c r="S12">
-        <v>0.9525670977658652</v>
+        <v>0.8529277416714592</v>
       </c>
       <c r="T12">
-        <v>1.071507568716476</v>
+        <v>0.8531844093219987</v>
       </c>
       <c r="U12">
-        <v>0.9604266620484956</v>
+        <v>0.8630402376474047</v>
       </c>
       <c r="V12">
-        <v>0.9651424006180738</v>
+        <v>0.8691077352329719</v>
       </c>
       <c r="W12">
-        <v>1.045270665190149</v>
+        <v>0.9012080718088428</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.046112278459053</v>
+        <v>0.9590167309289951</v>
       </c>
       <c r="D13">
-        <v>0.9245614428718992</v>
+        <v>1.115843091470399</v>
       </c>
       <c r="E13">
-        <v>0.8720598664434069</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="F13">
-        <v>1.046112278459053</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="G13">
-        <v>0.8106030221734617</v>
+        <v>1.071751601344244</v>
       </c>
       <c r="H13">
-        <v>0.9498327163668195</v>
+        <v>0.9308225962446046</v>
       </c>
       <c r="I13">
-        <v>1.046112278459053</v>
+        <v>0.9368953381285502</v>
       </c>
       <c r="J13">
-        <v>0.9245614428718992</v>
+        <v>1.092996058085415</v>
       </c>
       <c r="K13">
-        <v>1.299384753518798</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="L13">
-        <v>0.7952416120434692</v>
+        <v>1.092996058085415</v>
       </c>
       <c r="M13">
-        <v>1.162045768650515</v>
+        <v>1.075688928237735</v>
       </c>
       <c r="N13">
-        <v>1.046112278459053</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="O13">
-        <v>0.8720598664434069</v>
+        <v>0.9368953381285502</v>
       </c>
       <c r="P13">
-        <v>0.8983106546576531</v>
+        <v>1.014945698106982</v>
       </c>
       <c r="Q13">
-        <v>0.8413314443084343</v>
+        <v>1.004323469736397</v>
       </c>
       <c r="R13">
-        <v>0.9475778625914533</v>
+        <v>1.001442479778733</v>
       </c>
       <c r="S13">
-        <v>0.8690747771629227</v>
+        <v>1.03388099918607</v>
       </c>
       <c r="T13">
-        <v>0.9475778625914532</v>
+        <v>1.001442479778733</v>
       </c>
       <c r="U13">
-        <v>0.9133341524869553</v>
+        <v>1.019019760170111</v>
       </c>
       <c r="V13">
-        <v>0.9398897776813749</v>
+        <v>1.010103016760535</v>
       </c>
       <c r="W13">
-        <v>0.982480182565928</v>
+        <v>1.019681298445272</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-4.311673120392456E-05</v>
+        <v>0.5669581800000002</v>
       </c>
       <c r="D14">
-        <v>0.0017020798034347</v>
+        <v>-0.005230645899999998</v>
       </c>
       <c r="E14">
-        <v>2.974005281740447</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="F14">
-        <v>-4.311673120392456E-05</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="G14">
-        <v>0.8118449974278895</v>
+        <v>0.02770764300000002</v>
       </c>
       <c r="H14">
-        <v>1.303737983122169</v>
+        <v>0.4809672899999997</v>
       </c>
       <c r="I14">
-        <v>-4.311673120392456E-05</v>
+        <v>0.003742605799999997</v>
       </c>
       <c r="J14">
-        <v>0.0017020798034347</v>
+        <v>-0.004579163200000009</v>
       </c>
       <c r="K14">
-        <v>1.431143634562503</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="L14">
-        <v>0.4536917121509401</v>
+        <v>-0.004579163200000009</v>
       </c>
       <c r="M14">
-        <v>0.4096840475411666</v>
+        <v>0.01326413299999998</v>
       </c>
       <c r="N14">
-        <v>-4.311673120392456E-05</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="O14">
-        <v>2.974005281740447</v>
+        <v>0.003742605799999997</v>
       </c>
       <c r="P14">
-        <v>1.487853680771941</v>
+        <v>-0.0004182787000000059</v>
       </c>
       <c r="Q14">
-        <v>1.892925139584168</v>
+        <v>0.01572512440000001</v>
       </c>
       <c r="R14">
-        <v>0.9918880816042259</v>
+        <v>-0.002113578500000002</v>
       </c>
       <c r="S14">
-        <v>1.26251745299059</v>
+        <v>0.008957028533333336</v>
       </c>
       <c r="T14">
-        <v>0.9918880816042259</v>
+        <v>-0.002113578500000002</v>
       </c>
       <c r="U14">
-        <v>0.9468773105601418</v>
+        <v>0.005341726875000003</v>
       </c>
       <c r="V14">
-        <v>0.7574932251018727</v>
+        <v>0.003172545880000003</v>
       </c>
       <c r="W14">
-        <v>0.9232208274521683</v>
+        <v>0.134665733075</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.6022316227780383</v>
+        <v>4.3574609</v>
       </c>
       <c r="D15">
-        <v>1.655727129746554</v>
+        <v>0.00072768059</v>
       </c>
       <c r="E15">
-        <v>0.1993459802812507</v>
+        <v>0.032689534</v>
       </c>
       <c r="F15">
-        <v>0.6022316227780383</v>
+        <v>0.032689534</v>
       </c>
       <c r="G15">
-        <v>1.358152967190434</v>
+        <v>0.019451937</v>
       </c>
       <c r="H15">
-        <v>0.8098822901324818</v>
+        <v>0.054505227</v>
       </c>
       <c r="I15">
-        <v>0.6022316227780383</v>
+        <v>-0.00091394646</v>
       </c>
       <c r="J15">
-        <v>1.655727129746554</v>
+        <v>0.0054007039</v>
       </c>
       <c r="K15">
-        <v>0.4300450824887913</v>
+        <v>0.032689534</v>
       </c>
       <c r="L15">
-        <v>1.358438649396204</v>
+        <v>0.0054007039</v>
       </c>
       <c r="M15">
-        <v>1.591921160835133</v>
+        <v>0.001717086</v>
       </c>
       <c r="N15">
-        <v>0.6022316227780383</v>
+        <v>0.032689534</v>
       </c>
       <c r="O15">
-        <v>0.1993459802812507</v>
+        <v>-0.00091394646</v>
       </c>
       <c r="P15">
-        <v>0.9275365550139025</v>
+        <v>0.00224337872</v>
       </c>
       <c r="Q15">
-        <v>0.7787494737358426</v>
+        <v>0.00926899527</v>
       </c>
       <c r="R15">
-        <v>0.8191015776019478</v>
+        <v>0.01239209714666667</v>
       </c>
       <c r="S15">
-        <v>1.071075359072746</v>
+        <v>0.007979564813333333</v>
       </c>
       <c r="T15">
-        <v>0.8191015776019478</v>
+        <v>0.01239209714666666</v>
       </c>
       <c r="U15">
-        <v>0.9538644249990694</v>
+        <v>0.01415705711</v>
       </c>
       <c r="V15">
-        <v>0.8835378645548632</v>
+        <v>0.017863552488</v>
       </c>
       <c r="W15">
-        <v>1.000718110356111</v>
+        <v>0.5588798902537501</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9911174103361308</v>
+        <v>0.26756978</v>
       </c>
       <c r="D16">
-        <v>1.004416392137885</v>
+        <v>0.0022279058</v>
       </c>
       <c r="E16">
-        <v>0.9993794933216372</v>
+        <v>0.01137042</v>
       </c>
       <c r="F16">
-        <v>0.9911174103361308</v>
+        <v>0.01137042</v>
       </c>
       <c r="G16">
-        <v>0.9993435390432948</v>
+        <v>0.0069074932</v>
       </c>
       <c r="H16">
-        <v>1.005326533576175</v>
+        <v>2.0996007</v>
       </c>
       <c r="I16">
-        <v>0.9911174103361308</v>
+        <v>0.0003878148</v>
       </c>
       <c r="J16">
-        <v>1.004416392137885</v>
+        <v>0.00053800132</v>
       </c>
       <c r="K16">
-        <v>0.994630079412665</v>
+        <v>0.01137042</v>
       </c>
       <c r="L16">
-        <v>0.9992953829773022</v>
+        <v>0.00053800132</v>
       </c>
       <c r="M16">
-        <v>1.000672093612879</v>
+        <v>-0.0044368932</v>
       </c>
       <c r="N16">
-        <v>0.9911174103361308</v>
+        <v>0.01137042</v>
       </c>
       <c r="O16">
-        <v>0.9993794933216372</v>
+        <v>0.0003878148</v>
       </c>
       <c r="P16">
-        <v>1.001897942729761</v>
+        <v>0.00046290806</v>
       </c>
       <c r="Q16">
-        <v>0.999361516182466</v>
+        <v>0.003647654</v>
       </c>
       <c r="R16">
-        <v>0.9983044319318846</v>
+        <v>0.004098745373333333</v>
       </c>
       <c r="S16">
-        <v>1.001046474834273</v>
+        <v>0.002611103106666667</v>
       </c>
       <c r="T16">
-        <v>0.9983044319318845</v>
+        <v>0.004098745373333333</v>
       </c>
       <c r="U16">
-        <v>0.9985642087097371</v>
+        <v>0.00480093233</v>
       </c>
       <c r="V16">
-        <v>0.9970748490350158</v>
+        <v>0.006114829864</v>
       </c>
       <c r="W16">
-        <v>0.9992726155522461</v>
+        <v>0.29802065274</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.01854838572003</v>
+        <v>0.010824832</v>
       </c>
       <c r="D17">
-        <v>1.013476421438184</v>
+        <v>0.26575835</v>
       </c>
       <c r="E17">
-        <v>0.9961862231355253</v>
+        <v>0.26040927</v>
       </c>
       <c r="F17">
-        <v>1.01854838572003</v>
+        <v>0.26040927</v>
       </c>
       <c r="G17">
-        <v>0.999573960460833</v>
+        <v>0.37935706</v>
       </c>
       <c r="H17">
-        <v>0.9965215811690616</v>
+        <v>0.6371999699999999</v>
       </c>
       <c r="I17">
-        <v>1.01854838572003</v>
+        <v>-0.002174764</v>
       </c>
       <c r="J17">
-        <v>1.013476421438184</v>
+        <v>0.0013160402</v>
       </c>
       <c r="K17">
-        <v>1.008999415294258</v>
+        <v>0.26040927</v>
       </c>
       <c r="L17">
-        <v>1.014930165733475</v>
+        <v>0.0013160402</v>
       </c>
       <c r="M17">
-        <v>0.9952625695581353</v>
+        <v>0.8036221</v>
       </c>
       <c r="N17">
-        <v>1.01854838572003</v>
+        <v>0.26040927</v>
       </c>
       <c r="O17">
-        <v>0.9961862231355253</v>
+        <v>-0.002174764</v>
       </c>
       <c r="P17">
-        <v>1.004831322286854</v>
+        <v>-0.0004293619</v>
       </c>
       <c r="Q17">
-        <v>0.9978800917981792</v>
+        <v>0.188591148</v>
       </c>
       <c r="R17">
-        <v>1.00940367676458</v>
+        <v>0.08651684873333333</v>
       </c>
       <c r="S17">
-        <v>1.003078868344847</v>
+        <v>0.1261661120666667</v>
       </c>
       <c r="T17">
-        <v>1.00940367676458</v>
+        <v>0.08651684873333333</v>
       </c>
       <c r="U17">
-        <v>1.006946247688643</v>
+        <v>0.15972690155</v>
       </c>
       <c r="V17">
-        <v>1.00926667529492</v>
+        <v>0.17986337524</v>
       </c>
       <c r="W17">
-        <v>1.005437340313688</v>
+        <v>0.294539107275</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9900754098191862</v>
+        <v>1.255848985535781</v>
       </c>
       <c r="D18">
-        <v>1.016548480068032</v>
+        <v>0.9055459068286303</v>
       </c>
       <c r="E18">
-        <v>0.9671355983571028</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="F18">
-        <v>0.9900754098191862</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="G18">
-        <v>0.9760377150965706</v>
+        <v>0.2463961961616438</v>
       </c>
       <c r="H18">
-        <v>1.088193230955134</v>
+        <v>1.117686533458082</v>
       </c>
       <c r="I18">
-        <v>0.9900754098191862</v>
+        <v>0.1321323823591781</v>
       </c>
       <c r="J18">
-        <v>1.016548480068032</v>
+        <v>0.00526360710438356</v>
       </c>
       <c r="K18">
-        <v>1.040977269817865</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="L18">
-        <v>1.017848501283164</v>
+        <v>0.00526360710438356</v>
       </c>
       <c r="M18">
-        <v>1.024851016807697</v>
+        <v>1.36660617169315</v>
       </c>
       <c r="N18">
-        <v>0.9900754098191862</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="O18">
-        <v>0.9671355983571028</v>
+        <v>0.1321323823591781</v>
       </c>
       <c r="P18">
-        <v>0.9918420392125675</v>
+        <v>0.06869799473178081</v>
       </c>
       <c r="Q18">
-        <v>0.9715866567268368</v>
+        <v>0.1892642892604109</v>
       </c>
       <c r="R18">
-        <v>0.991253162748107</v>
+        <v>0.9329577349353427</v>
       </c>
       <c r="S18">
-        <v>0.9865739311739019</v>
+        <v>0.1279307285417352</v>
       </c>
       <c r="T18">
-        <v>0.991253162748107</v>
+        <v>0.9329577349353427</v>
       </c>
       <c r="U18">
-        <v>0.987449300835223</v>
+        <v>0.7613173502419179</v>
       </c>
       <c r="V18">
-        <v>0.9879745226320157</v>
+        <v>1.141349323262028</v>
       </c>
       <c r="W18">
-        <v>1.015208402775594</v>
+        <v>0.9613696248104144</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.18912803919332</v>
+        <v>0.7190279024157895</v>
       </c>
       <c r="D19">
-        <v>0.8858301933841753</v>
+        <v>0.2137315294889473</v>
       </c>
       <c r="E19">
-        <v>0.9358179020119795</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="F19">
-        <v>1.18912803919332</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="G19">
-        <v>0.9567896143151863</v>
+        <v>0.9960268855563157</v>
       </c>
       <c r="H19">
-        <v>1.188121283008542</v>
+        <v>1.028072381531579</v>
       </c>
       <c r="I19">
-        <v>1.18912803919332</v>
+        <v>0.8928489053347368</v>
       </c>
       <c r="J19">
-        <v>0.8858301933841753</v>
+        <v>4.988099631578902E-05</v>
       </c>
       <c r="K19">
-        <v>0.9452805655159452</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="L19">
-        <v>1.145404248686863</v>
+        <v>4.988099631578902E-05</v>
       </c>
       <c r="M19">
-        <v>1.028424139829051</v>
+        <v>1.366466313505263</v>
       </c>
       <c r="N19">
-        <v>1.18912803919332</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="O19">
-        <v>0.9358179020119795</v>
+        <v>0.8928489053347368</v>
       </c>
       <c r="P19">
-        <v>0.9108240476980773</v>
+        <v>0.4464493931655263</v>
       </c>
       <c r="Q19">
-        <v>0.9463037581635829</v>
+        <v>0.9444378954455263</v>
       </c>
       <c r="R19">
-        <v>1.003592044863158</v>
+        <v>0.8158405165122105</v>
       </c>
       <c r="S19">
-        <v>0.9261459032371137</v>
+        <v>0.6296418906291228</v>
       </c>
       <c r="T19">
-        <v>1.003592044863158</v>
+        <v>0.8158405165122105</v>
       </c>
       <c r="U19">
-        <v>0.9918914372261654</v>
+        <v>0.8608871087732368</v>
       </c>
       <c r="V19">
-        <v>1.031338757619596</v>
+        <v>0.9996342396597052</v>
       </c>
       <c r="W19">
-        <v>1.034349498243133</v>
+        <v>0.8463558202543158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9000602186447368</v>
+      </c>
+      <c r="D20">
+        <v>0.7397562935925791</v>
+      </c>
+      <c r="E20">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="F20">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="G20">
+        <v>0.2344642994884211</v>
+      </c>
+      <c r="H20">
+        <v>1.630941837373684</v>
+      </c>
+      <c r="I20">
+        <v>0.5012347371378947</v>
+      </c>
+      <c r="J20">
+        <v>0.0002514201820526311</v>
+      </c>
+      <c r="K20">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="L20">
+        <v>0.0002514201820526311</v>
+      </c>
+      <c r="M20">
+        <v>1.478782537500526</v>
+      </c>
+      <c r="N20">
+        <v>1.449715374852632</v>
+      </c>
+      <c r="O20">
+        <v>0.5012347371378947</v>
+      </c>
+      <c r="P20">
+        <v>0.2507430786599736</v>
+      </c>
+      <c r="Q20">
+        <v>0.3678495183131579</v>
+      </c>
+      <c r="R20">
+        <v>0.650400510724193</v>
+      </c>
+      <c r="S20">
+        <v>0.2453168189361228</v>
+      </c>
+      <c r="T20">
+        <v>0.650400510724193</v>
+      </c>
+      <c r="U20">
+        <v>0.5464164579152501</v>
+      </c>
+      <c r="V20">
+        <v>0.7270762413027263</v>
+      </c>
+      <c r="W20">
+        <v>0.8669008398465659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.4536917121509401</v>
+      </c>
+      <c r="D21">
+        <v>0.4096840475411664</v>
+      </c>
+      <c r="E21">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="F21">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="G21">
+        <v>0.8118449974278891</v>
+      </c>
+      <c r="H21">
+        <v>1.303737983122168</v>
+      </c>
+      <c r="I21">
+        <v>2.974005281740447</v>
+      </c>
+      <c r="J21">
+        <v>0.001702079803434697</v>
+      </c>
+      <c r="K21">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="L21">
+        <v>0.001702079803434697</v>
+      </c>
+      <c r="M21">
+        <v>1.431143634562504</v>
+      </c>
+      <c r="N21">
+        <v>-4.311673120392414E-05</v>
+      </c>
+      <c r="O21">
+        <v>2.974005281740447</v>
+      </c>
+      <c r="P21">
+        <v>1.487853680771941</v>
+      </c>
+      <c r="Q21">
+        <v>1.892925139584168</v>
+      </c>
+      <c r="R21">
+        <v>0.9918880816042258</v>
+      </c>
+      <c r="S21">
+        <v>1.26251745299059</v>
+      </c>
+      <c r="T21">
+        <v>0.9918880816042258</v>
+      </c>
+      <c r="U21">
+        <v>0.9468773105601416</v>
+      </c>
+      <c r="V21">
+        <v>0.7574932251018724</v>
+      </c>
+      <c r="W21">
+        <v>0.9232208274521682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.358438649396205</v>
+      </c>
+      <c r="D22">
+        <v>1.591921160835133</v>
+      </c>
+      <c r="E22">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="F22">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="G22">
+        <v>1.358152967190434</v>
+      </c>
+      <c r="H22">
+        <v>0.8098822901324816</v>
+      </c>
+      <c r="I22">
+        <v>0.1993459802812506</v>
+      </c>
+      <c r="J22">
+        <v>1.655727129746554</v>
+      </c>
+      <c r="K22">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="L22">
+        <v>1.655727129746554</v>
+      </c>
+      <c r="M22">
+        <v>0.4300450824887913</v>
+      </c>
+      <c r="N22">
+        <v>0.6022316227780382</v>
+      </c>
+      <c r="O22">
+        <v>0.1993459802812506</v>
+      </c>
+      <c r="P22">
+        <v>0.9275365550139025</v>
+      </c>
+      <c r="Q22">
+        <v>0.7787494737358426</v>
+      </c>
+      <c r="R22">
+        <v>0.8191015776019478</v>
+      </c>
+      <c r="S22">
+        <v>1.071075359072746</v>
+      </c>
+      <c r="T22">
+        <v>0.8191015776019476</v>
+      </c>
+      <c r="U22">
+        <v>0.9538644249990693</v>
+      </c>
+      <c r="V22">
+        <v>0.8835378645548631</v>
+      </c>
+      <c r="W22">
+        <v>1.000718110356111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.531501474756946</v>
+      </c>
+      <c r="D23">
+        <v>1.539455930538949</v>
+      </c>
+      <c r="E23">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="F23">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="G23">
+        <v>0.6271839420445542</v>
+      </c>
+      <c r="H23">
+        <v>0.9256219321168204</v>
+      </c>
+      <c r="I23">
+        <v>0.4627936133186827</v>
+      </c>
+      <c r="J23">
+        <v>1.767723737934358</v>
+      </c>
+      <c r="K23">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="L23">
+        <v>1.767723737934358</v>
+      </c>
+      <c r="M23">
+        <v>0.5238793359144963</v>
+      </c>
+      <c r="N23">
+        <v>0.9840053548963863</v>
+      </c>
+      <c r="O23">
+        <v>0.4627936133186827</v>
+      </c>
+      <c r="P23">
+        <v>1.11525867562652</v>
+      </c>
+      <c r="Q23">
+        <v>0.5449887776816185</v>
+      </c>
+      <c r="R23">
+        <v>1.071507568716476</v>
+      </c>
+      <c r="S23">
+        <v>0.9525670977658649</v>
+      </c>
+      <c r="T23">
+        <v>1.071507568716475</v>
+      </c>
+      <c r="U23">
+        <v>0.9604266620484951</v>
+      </c>
+      <c r="V23">
+        <v>0.9651424006180733</v>
+      </c>
+      <c r="W23">
+        <v>1.045270665190149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7952416120434692</v>
+      </c>
+      <c r="D24">
+        <v>1.162045768650515</v>
+      </c>
+      <c r="E24">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="F24">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="G24">
+        <v>0.8106030221734616</v>
+      </c>
+      <c r="H24">
+        <v>0.94983271636682</v>
+      </c>
+      <c r="I24">
+        <v>0.8720598664434072</v>
+      </c>
+      <c r="J24">
+        <v>0.9245614428718981</v>
+      </c>
+      <c r="K24">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="L24">
+        <v>0.9245614428718981</v>
+      </c>
+      <c r="M24">
+        <v>1.299384753518798</v>
+      </c>
+      <c r="N24">
+        <v>1.046112278459054</v>
+      </c>
+      <c r="O24">
+        <v>0.8720598664434072</v>
+      </c>
+      <c r="P24">
+        <v>0.8983106546576527</v>
+      </c>
+      <c r="Q24">
+        <v>0.8413314443084343</v>
+      </c>
+      <c r="R24">
+        <v>0.9475778625914532</v>
+      </c>
+      <c r="S24">
+        <v>0.8690747771629224</v>
+      </c>
+      <c r="T24">
+        <v>0.9475778625914529</v>
+      </c>
+      <c r="U24">
+        <v>0.9133341524869552</v>
+      </c>
+      <c r="V24">
+        <v>0.9398897776813749</v>
+      </c>
+      <c r="W24">
+        <v>0.9824801825659278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.357021250103997</v>
+      </c>
+      <c r="D25">
+        <v>0.2920568863742489</v>
+      </c>
+      <c r="E25">
+        <v>2.594536535644355</v>
+      </c>
+      <c r="F25">
+        <v>2.594536535644355</v>
+      </c>
+      <c r="G25">
+        <v>0.7508690426842072</v>
+      </c>
+      <c r="H25">
+        <v>0.8328563850080257</v>
+      </c>
+      <c r="I25">
+        <v>0.2383931734993213</v>
+      </c>
+      <c r="J25">
+        <v>1.360422372806201</v>
+      </c>
+      <c r="K25">
+        <v>2.594536535644355</v>
+      </c>
+      <c r="L25">
+        <v>1.360422372806201</v>
+      </c>
+      <c r="M25">
+        <v>0.6812565832788728</v>
+      </c>
+      <c r="N25">
+        <v>2.594536535644355</v>
+      </c>
+      <c r="O25">
+        <v>0.2383931734993213</v>
+      </c>
+      <c r="P25">
+        <v>0.7994077731527609</v>
+      </c>
+      <c r="Q25">
+        <v>0.4946311080917642</v>
+      </c>
+      <c r="R25">
+        <v>1.397784027316626</v>
+      </c>
+      <c r="S25">
+        <v>0.7832281963299096</v>
+      </c>
+      <c r="T25">
+        <v>1.397784027316625</v>
+      </c>
+      <c r="U25">
+        <v>1.236055281158521</v>
+      </c>
+      <c r="V25">
+        <v>1.507751532055688</v>
+      </c>
+      <c r="W25">
+        <v>1.013426528674903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.3982791149170485</v>
+      </c>
+      <c r="D26">
+        <v>1.193373258907465</v>
+      </c>
+      <c r="E26">
+        <v>0.1282168158440911</v>
+      </c>
+      <c r="F26">
+        <v>0.1282168158440911</v>
+      </c>
+      <c r="G26">
+        <v>1.457526845851832</v>
+      </c>
+      <c r="H26">
+        <v>0.921778312830374</v>
+      </c>
+      <c r="I26">
+        <v>0.9312179522669349</v>
+      </c>
+      <c r="J26">
+        <v>0.5358272646206984</v>
+      </c>
+      <c r="K26">
+        <v>0.1282168158440911</v>
+      </c>
+      <c r="L26">
+        <v>0.5358272646206984</v>
+      </c>
+      <c r="M26">
+        <v>1.139062096776784</v>
+      </c>
+      <c r="N26">
+        <v>0.1282168158440911</v>
+      </c>
+      <c r="O26">
+        <v>0.9312179522669349</v>
+      </c>
+      <c r="P26">
+        <v>0.7335226084438167</v>
+      </c>
+      <c r="Q26">
+        <v>1.194372399059383</v>
+      </c>
+      <c r="R26">
+        <v>0.5317540109105748</v>
+      </c>
+      <c r="S26">
+        <v>0.9748573542464882</v>
+      </c>
+      <c r="T26">
+        <v>0.5317540109105748</v>
+      </c>
+      <c r="U26">
+        <v>0.7631972196458889</v>
+      </c>
+      <c r="V26">
+        <v>0.6362011388855293</v>
+      </c>
+      <c r="W26">
+        <v>0.8381602077519035</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.114861815150332</v>
+      </c>
+      <c r="D27">
+        <v>1.228236484901138</v>
+      </c>
+      <c r="E27">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="F27">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="G27">
+        <v>0.8730690775607581</v>
+      </c>
+      <c r="H27">
+        <v>0.8585615739896324</v>
+      </c>
+      <c r="I27">
+        <v>0.189010829079881</v>
+      </c>
+      <c r="J27">
+        <v>0.6756947695825444</v>
+      </c>
+      <c r="K27">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="L27">
+        <v>0.6756947695825444</v>
+      </c>
+      <c r="M27">
+        <v>1.425316295294742</v>
+      </c>
+      <c r="N27">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="O27">
+        <v>0.189010829079881</v>
+      </c>
+      <c r="P27">
+        <v>0.4323527993312127</v>
+      </c>
+      <c r="Q27">
+        <v>0.5310399533203196</v>
+      </c>
+      <c r="R27">
+        <v>0.8453155342190858</v>
+      </c>
+      <c r="S27">
+        <v>0.5792582254077279</v>
+      </c>
+      <c r="T27">
+        <v>0.8453155342190858</v>
+      </c>
+      <c r="U27">
+        <v>0.8522539200545038</v>
+      </c>
+      <c r="V27">
+        <v>1.016051336842569</v>
+      </c>
+      <c r="W27">
+        <v>1.004498981194232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.6056952878226448</v>
+      </c>
+      <c r="D28">
+        <v>1.686003119526722</v>
+      </c>
+      <c r="E28">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="F28">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="G28">
+        <v>1.17816407802077</v>
+      </c>
+      <c r="H28">
+        <v>2.105663879519281</v>
+      </c>
+      <c r="I28">
+        <v>0.2759509032502152</v>
+      </c>
+      <c r="J28">
+        <v>0.6820994655884874</v>
+      </c>
+      <c r="K28">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="L28">
+        <v>0.6820994655884874</v>
+      </c>
+      <c r="M28">
+        <v>0.8145540912571011</v>
+      </c>
+      <c r="N28">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="O28">
+        <v>0.2759509032502152</v>
+      </c>
+      <c r="P28">
+        <v>0.4790251844193513</v>
+      </c>
+      <c r="Q28">
+        <v>0.7270574906354924</v>
+      </c>
+      <c r="R28">
+        <v>0.8506142042806911</v>
+      </c>
+      <c r="S28">
+        <v>0.7120714822864906</v>
+      </c>
+      <c r="T28">
+        <v>0.8506142042806911</v>
+      </c>
+      <c r="U28">
+        <v>0.9325016727157107</v>
+      </c>
+      <c r="V28">
+        <v>1.064759786973243</v>
+      </c>
+      <c r="W28">
+        <v>1.117740383623574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.04918775479670611</v>
+      </c>
+      <c r="D29">
+        <v>2.25012053848427</v>
+      </c>
+      <c r="E29">
+        <v>0.4663737940216015</v>
+      </c>
+      <c r="F29">
+        <v>0.4663737940216015</v>
+      </c>
+      <c r="G29">
+        <v>1.866835371742265</v>
+      </c>
+      <c r="H29">
+        <v>2.768370334122901</v>
+      </c>
+      <c r="I29">
+        <v>0.04770037229760621</v>
+      </c>
+      <c r="J29">
+        <v>0.008323017215330672</v>
+      </c>
+      <c r="K29">
+        <v>0.4663737940216015</v>
+      </c>
+      <c r="L29">
+        <v>0.008323017215330672</v>
+      </c>
+      <c r="M29">
+        <v>0.9688638416249395</v>
+      </c>
+      <c r="N29">
+        <v>0.4663737940216015</v>
+      </c>
+      <c r="O29">
+        <v>0.04770037229760621</v>
+      </c>
+      <c r="P29">
+        <v>0.02801169475646844</v>
+      </c>
+      <c r="Q29">
+        <v>0.9572678720199354</v>
+      </c>
+      <c r="R29">
+        <v>0.1741323945115128</v>
+      </c>
+      <c r="S29">
+        <v>0.6409529204184005</v>
+      </c>
+      <c r="T29">
+        <v>0.1741323945115128</v>
+      </c>
+      <c r="U29">
+        <v>0.5973081388192008</v>
+      </c>
+      <c r="V29">
+        <v>0.5711212698596808</v>
+      </c>
+      <c r="W29">
+        <v>1.053221878038202</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/SA-HW05.xlsx
+++ b/JupyterNotebooks/AvgHW/SA-HW05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.049118984036946</v>
+        <v>1.050472487462828</v>
       </c>
       <c r="D4">
-        <v>0.8299628311987545</v>
+        <v>0.8695254824612608</v>
       </c>
       <c r="E4">
-        <v>1.070027264350759</v>
+        <v>0.9242960327926223</v>
       </c>
       <c r="F4">
-        <v>1.070027264350759</v>
+        <v>0.9242960327926223</v>
       </c>
       <c r="G4">
-        <v>0.910588068099057</v>
+        <v>0.9415511497186676</v>
       </c>
       <c r="H4">
-        <v>1.180653913869586</v>
+        <v>1.056347779319075</v>
       </c>
       <c r="I4">
-        <v>0.9670045046901757</v>
+        <v>0.9564393635295126</v>
       </c>
       <c r="J4">
-        <v>0.7913127570119343</v>
+        <v>0.8289252918333334</v>
       </c>
       <c r="K4">
-        <v>1.070027264350759</v>
+        <v>0.9242960327926223</v>
       </c>
       <c r="L4">
-        <v>0.7913127570119343</v>
+        <v>0.8289252918333334</v>
       </c>
       <c r="M4">
-        <v>0.9065753966898721</v>
+        <v>0.9264877987386745</v>
       </c>
       <c r="N4">
-        <v>1.070027264350759</v>
+        <v>0.9242960327926223</v>
       </c>
       <c r="O4">
-        <v>0.9670045046901757</v>
+        <v>0.9564393635295126</v>
       </c>
       <c r="P4">
-        <v>0.8791586308510551</v>
+        <v>0.8926823276814231</v>
       </c>
       <c r="Q4">
-        <v>0.9387962863946164</v>
+        <v>0.9489952566240901</v>
       </c>
       <c r="R4">
-        <v>0.9427815086842898</v>
+        <v>0.9032202293851562</v>
       </c>
       <c r="S4">
-        <v>0.8896351099337224</v>
+        <v>0.9089719350271713</v>
       </c>
       <c r="T4">
-        <v>0.9427815086842898</v>
+        <v>0.9032202293851562</v>
       </c>
       <c r="U4">
-        <v>0.9347331485379815</v>
+        <v>0.9128029594685341</v>
       </c>
       <c r="V4">
-        <v>0.9617919717005371</v>
+        <v>0.9151015741333517</v>
       </c>
       <c r="W4">
-        <v>0.9631554649933856</v>
+        <v>0.9442556732319969</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.042590025288837</v>
+        <v>0.8474459051870435</v>
       </c>
       <c r="D5">
-        <v>0.8430010600877645</v>
+        <v>0.8171416859154716</v>
       </c>
       <c r="E5">
-        <v>0.9864698449532978</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="F5">
-        <v>0.9864698449532978</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="G5">
-        <v>0.8921865081017141</v>
+        <v>0.2554411402166298</v>
       </c>
       <c r="H5">
-        <v>1.046439878004328</v>
+        <v>1.763728414604088</v>
       </c>
       <c r="I5">
-        <v>0.9047482279649254</v>
+        <v>0.5543381035486384</v>
       </c>
       <c r="J5">
-        <v>0.7757134859262662</v>
+        <v>0.0003297375933004139</v>
       </c>
       <c r="K5">
-        <v>0.9864698449532978</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="L5">
-        <v>0.7757134859262662</v>
+        <v>0.0003297375933004139</v>
       </c>
       <c r="M5">
-        <v>0.9172155062128842</v>
+        <v>1.627260469519191</v>
       </c>
       <c r="N5">
-        <v>0.9864698449532978</v>
+        <v>1.595819999850922</v>
       </c>
       <c r="O5">
-        <v>0.9047482279649254</v>
+        <v>0.5543381035486384</v>
       </c>
       <c r="P5">
-        <v>0.8402308569455958</v>
+        <v>0.2773339205709694</v>
       </c>
       <c r="Q5">
-        <v>0.8984673680333197</v>
+        <v>0.4048896218826341</v>
       </c>
       <c r="R5">
-        <v>0.8889771862814966</v>
+        <v>0.7168292803309536</v>
       </c>
       <c r="S5">
-        <v>0.8575494073309686</v>
+        <v>0.2700363271195229</v>
       </c>
       <c r="T5">
-        <v>0.8889771862814965</v>
+        <v>0.7168292803309536</v>
       </c>
       <c r="U5">
-        <v>0.8897795167365509</v>
+        <v>0.6014822453023726</v>
       </c>
       <c r="V5">
-        <v>0.9091175823799003</v>
+        <v>0.8003497962120825</v>
       </c>
       <c r="W5">
-        <v>0.9260455670675023</v>
+        <v>0.9326881820544106</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8096681978385366</v>
+        <v>1.049118984036946</v>
       </c>
       <c r="D6">
-        <v>0.4302747822521641</v>
+        <v>0.8299628311987545</v>
       </c>
       <c r="E6">
-        <v>0.4854159546117728</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="F6">
-        <v>0.4854159546117728</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="G6">
-        <v>0.4858700365134004</v>
+        <v>0.910588068099057</v>
       </c>
       <c r="H6">
-        <v>0.7649177045260979</v>
+        <v>1.180653913869586</v>
       </c>
       <c r="I6">
-        <v>0.4783369174253663</v>
+        <v>0.9670045046901757</v>
       </c>
       <c r="J6">
-        <v>0.4076390588638172</v>
+        <v>0.7913127570119343</v>
       </c>
       <c r="K6">
-        <v>0.4854159546117728</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="L6">
-        <v>0.4076390588638172</v>
+        <v>0.7913127570119343</v>
       </c>
       <c r="M6">
-        <v>0.4669637365034571</v>
+        <v>0.9065753966898721</v>
       </c>
       <c r="N6">
-        <v>0.4854159546117728</v>
+        <v>1.070027264350759</v>
       </c>
       <c r="O6">
-        <v>0.4783369174253663</v>
+        <v>0.9670045046901757</v>
       </c>
       <c r="P6">
-        <v>0.4429879881445917</v>
+        <v>0.8791586308510551</v>
       </c>
       <c r="Q6">
-        <v>0.4821034769693834</v>
+        <v>0.9387962863946164</v>
       </c>
       <c r="R6">
-        <v>0.4571306436336521</v>
+        <v>0.9427815086842898</v>
       </c>
       <c r="S6">
-        <v>0.4572820042675279</v>
+        <v>0.8896351099337224</v>
       </c>
       <c r="T6">
-        <v>0.4571306436336521</v>
+        <v>0.9427815086842898</v>
       </c>
       <c r="U6">
-        <v>0.4643154918535892</v>
+        <v>0.9347331485379815</v>
       </c>
       <c r="V6">
-        <v>0.4685355844052259</v>
+        <v>0.9617919717005371</v>
       </c>
       <c r="W6">
-        <v>0.5411357985668266</v>
+        <v>0.9631554649933856</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.009922541573482</v>
+        <v>1.042590025288837</v>
       </c>
       <c r="D7">
-        <v>1.001036054893854</v>
+        <v>0.8430010600877645</v>
       </c>
       <c r="E7">
-        <v>1.085524205970051</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="F7">
-        <v>1.085524205970051</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="G7">
-        <v>0.9650228432219077</v>
+        <v>0.8921865081017141</v>
       </c>
       <c r="H7">
-        <v>1.006927165349379</v>
+        <v>1.046439878004328</v>
       </c>
       <c r="I7">
-        <v>0.9592099456376557</v>
+        <v>0.9047482279649254</v>
       </c>
       <c r="J7">
-        <v>0.9512752863825724</v>
+        <v>0.7757134859262662</v>
       </c>
       <c r="K7">
-        <v>1.085524205970051</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="L7">
-        <v>0.9512752863825724</v>
+        <v>0.7757134859262662</v>
       </c>
       <c r="M7">
-        <v>1.02210267656093</v>
+        <v>0.9172155062128842</v>
       </c>
       <c r="N7">
-        <v>1.085524205970051</v>
+        <v>0.9864698449532978</v>
       </c>
       <c r="O7">
-        <v>0.9592099456376557</v>
+        <v>0.9047482279649254</v>
       </c>
       <c r="P7">
-        <v>0.9552426160101141</v>
+        <v>0.8402308569455958</v>
       </c>
       <c r="Q7">
-        <v>0.9621163944297817</v>
+        <v>0.8984673680333197</v>
       </c>
       <c r="R7">
-        <v>0.9986698126634265</v>
+        <v>0.8889771862814966</v>
       </c>
       <c r="S7">
-        <v>0.9585026917473787</v>
+        <v>0.8575494073309686</v>
       </c>
       <c r="T7">
-        <v>0.9986698126634265</v>
+        <v>0.8889771862814965</v>
       </c>
       <c r="U7">
-        <v>0.9902580703030468</v>
+        <v>0.8897795167365509</v>
       </c>
       <c r="V7">
-        <v>1.009311297436448</v>
+        <v>0.9091175823799003</v>
       </c>
       <c r="W7">
-        <v>1.000127589948729</v>
+        <v>0.9260455670675023</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.014930165733475</v>
+        <v>0.8096681978385366</v>
       </c>
       <c r="D8">
-        <v>0.9952625695581356</v>
+        <v>0.4302747822521641</v>
       </c>
       <c r="E8">
-        <v>1.01854838572003</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="F8">
-        <v>1.01854838572003</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="G8">
-        <v>0.9995739604608329</v>
+        <v>0.4858700365134004</v>
       </c>
       <c r="H8">
-        <v>0.996521581169062</v>
+        <v>0.7649177045260979</v>
       </c>
       <c r="I8">
-        <v>0.9961862231355252</v>
+        <v>0.4783369174253663</v>
       </c>
       <c r="J8">
-        <v>1.013476421438183</v>
+        <v>0.4076390588638172</v>
       </c>
       <c r="K8">
-        <v>1.01854838572003</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="L8">
-        <v>1.013476421438183</v>
+        <v>0.4076390588638172</v>
       </c>
       <c r="M8">
-        <v>1.008999415294257</v>
+        <v>0.4669637365034571</v>
       </c>
       <c r="N8">
-        <v>1.01854838572003</v>
+        <v>0.4854159546117728</v>
       </c>
       <c r="O8">
-        <v>0.9961862231355252</v>
+        <v>0.4783369174253663</v>
       </c>
       <c r="P8">
-        <v>1.004831322286854</v>
+        <v>0.4429879881445917</v>
       </c>
       <c r="Q8">
-        <v>0.997880091798179</v>
+        <v>0.4821034769693834</v>
       </c>
       <c r="R8">
-        <v>1.009403676764579</v>
+        <v>0.4571306436336521</v>
       </c>
       <c r="S8">
-        <v>1.003078868344847</v>
+        <v>0.4572820042675279</v>
       </c>
       <c r="T8">
-        <v>1.009403676764579</v>
+        <v>0.4571306436336521</v>
       </c>
       <c r="U8">
-        <v>1.006946247688643</v>
+        <v>0.4643154918535892</v>
       </c>
       <c r="V8">
-        <v>1.00926667529492</v>
+        <v>0.4685355844052259</v>
       </c>
       <c r="W8">
-        <v>1.005437340313688</v>
+        <v>0.5411357985668266</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.002840550218579</v>
+        <v>1.009922541573482</v>
       </c>
       <c r="D9">
-        <v>0.9907584283849312</v>
+        <v>1.001036054893854</v>
       </c>
       <c r="E9">
-        <v>1.163912123727912</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="F9">
-        <v>1.163912123727912</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="G9">
-        <v>0.9492129957330031</v>
+        <v>0.9650228432219077</v>
       </c>
       <c r="H9">
-        <v>1.005703809510849</v>
+        <v>1.006927165349379</v>
       </c>
       <c r="I9">
-        <v>0.9388351797027396</v>
+        <v>0.9592099456376557</v>
       </c>
       <c r="J9">
-        <v>0.9247712258388323</v>
+        <v>0.9512752863825724</v>
       </c>
       <c r="K9">
-        <v>1.163912123727912</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="L9">
-        <v>0.9247712258388323</v>
+        <v>0.9512752863825724</v>
       </c>
       <c r="M9">
-        <v>1.047355316221156</v>
+        <v>1.02210267656093</v>
       </c>
       <c r="N9">
-        <v>1.163912123727912</v>
+        <v>1.085524205970051</v>
       </c>
       <c r="O9">
-        <v>0.9388351797027396</v>
+        <v>0.9592099456376557</v>
       </c>
       <c r="P9">
-        <v>0.9318032027707859</v>
+        <v>0.9552426160101141</v>
       </c>
       <c r="Q9">
-        <v>0.9440240877178714</v>
+        <v>0.9621163944297817</v>
       </c>
       <c r="R9">
-        <v>1.009172843089828</v>
+        <v>0.9986698126634265</v>
       </c>
       <c r="S9">
-        <v>0.9376064670915248</v>
+        <v>0.9585026917473787</v>
       </c>
       <c r="T9">
-        <v>1.009172843089828</v>
+        <v>0.9986698126634265</v>
       </c>
       <c r="U9">
-        <v>0.9941828812506217</v>
+        <v>0.9902580703030468</v>
       </c>
       <c r="V9">
-        <v>1.02812872974608</v>
+        <v>1.009311297436448</v>
       </c>
       <c r="W9">
-        <v>1.00292370366725</v>
+        <v>1.000127589948729</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8144631821576266</v>
+        <v>1.014930165733475</v>
       </c>
       <c r="D10">
-        <v>0.4211114415877115</v>
+        <v>0.9952625695581356</v>
       </c>
       <c r="E10">
-        <v>0.466944626774447</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="F10">
-        <v>0.466944626774447</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="G10">
-        <v>0.4884189438468826</v>
+        <v>0.9995739604608329</v>
       </c>
       <c r="H10">
-        <v>0.7568980875581356</v>
+        <v>0.996521581169062</v>
       </c>
       <c r="I10">
-        <v>0.4596006330047704</v>
+        <v>0.9961862231355252</v>
       </c>
       <c r="J10">
-        <v>0.3967470305383115</v>
+        <v>1.013476421438183</v>
       </c>
       <c r="K10">
-        <v>0.466944626774447</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="L10">
-        <v>0.3967470305383115</v>
+        <v>1.013476421438183</v>
       </c>
       <c r="M10">
-        <v>0.4690051410958807</v>
+        <v>1.008999415294257</v>
       </c>
       <c r="N10">
-        <v>0.466944626774447</v>
+        <v>1.01854838572003</v>
       </c>
       <c r="O10">
-        <v>0.4596006330047704</v>
+        <v>0.9961862231355252</v>
       </c>
       <c r="P10">
-        <v>0.428173831771541</v>
+        <v>1.004831322286854</v>
       </c>
       <c r="Q10">
-        <v>0.4740097884258265</v>
+        <v>0.997880091798179</v>
       </c>
       <c r="R10">
-        <v>0.441097430105843</v>
+        <v>1.009403676764579</v>
       </c>
       <c r="S10">
-        <v>0.4482555357966548</v>
+        <v>1.003078868344847</v>
       </c>
       <c r="T10">
-        <v>0.441097430105843</v>
+        <v>1.009403676764579</v>
       </c>
       <c r="U10">
-        <v>0.4529278085411028</v>
+        <v>1.006946247688643</v>
       </c>
       <c r="V10">
-        <v>0.4557311721877716</v>
+        <v>1.00926667529492</v>
       </c>
       <c r="W10">
-        <v>0.5341486358204707</v>
+        <v>1.005437340313688</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.138943222112661</v>
+        <v>1.002840550218579</v>
       </c>
       <c r="D11">
-        <v>0.9352790512379453</v>
+        <v>0.9907584283849312</v>
       </c>
       <c r="E11">
-        <v>0.7416539154339399</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="F11">
-        <v>0.7416539154339399</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="G11">
-        <v>1.002607521991012</v>
+        <v>0.9492129957330031</v>
       </c>
       <c r="H11">
-        <v>1.215713762801498</v>
+        <v>1.005703809510849</v>
       </c>
       <c r="I11">
-        <v>0.9988853393770505</v>
+        <v>0.9388351797027396</v>
       </c>
       <c r="J11">
-        <v>1.036396245022384</v>
+        <v>0.9247712258388323</v>
       </c>
       <c r="K11">
-        <v>0.7416539154339399</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="L11">
-        <v>1.036396245022384</v>
+        <v>0.9247712258388323</v>
       </c>
       <c r="M11">
-        <v>0.8207540058491524</v>
+        <v>1.047355316221156</v>
       </c>
       <c r="N11">
-        <v>0.7416539154339399</v>
+        <v>1.163912123727912</v>
       </c>
       <c r="O11">
-        <v>0.9988853393770505</v>
+        <v>0.9388351797027396</v>
       </c>
       <c r="P11">
-        <v>1.017640792199717</v>
+        <v>0.9318032027707859</v>
       </c>
       <c r="Q11">
-        <v>1.000746430684031</v>
+        <v>0.9440240877178714</v>
       </c>
       <c r="R11">
-        <v>0.9256451666111248</v>
+        <v>1.009172843089828</v>
       </c>
       <c r="S11">
-        <v>1.012629702130149</v>
+        <v>0.9376064670915248</v>
       </c>
       <c r="T11">
-        <v>0.9256451666111248</v>
+        <v>1.009172843089828</v>
       </c>
       <c r="U11">
-        <v>0.9448857554560968</v>
+        <v>0.9941828812506217</v>
       </c>
       <c r="V11">
-        <v>0.9042393874516653</v>
+        <v>1.02812872974608</v>
       </c>
       <c r="W11">
-        <v>0.9862791329782054</v>
+        <v>1.00292370366725</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.007541713623152</v>
+        <v>0.8144631821576266</v>
       </c>
       <c r="D12">
-        <v>0.819951879582589</v>
+        <v>0.4211114415877115</v>
       </c>
       <c r="E12">
-        <v>0.8933777255752408</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="F12">
-        <v>0.8933777255752408</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="G12">
-        <v>0.8926077226236225</v>
+        <v>0.4884189438468826</v>
       </c>
       <c r="H12">
-        <v>1.001949791592473</v>
+        <v>0.7568980875581356</v>
       </c>
       <c r="I12">
-        <v>0.8714422616722812</v>
+        <v>0.4596006330047704</v>
       </c>
       <c r="J12">
-        <v>0.7947332407184741</v>
+        <v>0.3967470305383115</v>
       </c>
       <c r="K12">
-        <v>0.8933777255752408</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="L12">
-        <v>0.7947332407184741</v>
+        <v>0.3967470305383115</v>
       </c>
       <c r="M12">
-        <v>0.9280602390829098</v>
+        <v>0.4690051410958807</v>
       </c>
       <c r="N12">
-        <v>0.8933777255752408</v>
+        <v>0.466944626774447</v>
       </c>
       <c r="O12">
-        <v>0.8714422616722812</v>
+        <v>0.4596006330047704</v>
       </c>
       <c r="P12">
-        <v>0.8330877511953776</v>
+        <v>0.428173831771541</v>
       </c>
       <c r="Q12">
-        <v>0.8820249921479519</v>
+        <v>0.4740097884258265</v>
       </c>
       <c r="R12">
-        <v>0.8531844093219987</v>
+        <v>0.441097430105843</v>
       </c>
       <c r="S12">
-        <v>0.8529277416714592</v>
+        <v>0.4482555357966548</v>
       </c>
       <c r="T12">
-        <v>0.8531844093219987</v>
+        <v>0.441097430105843</v>
       </c>
       <c r="U12">
-        <v>0.8630402376474047</v>
+        <v>0.4529278085411028</v>
       </c>
       <c r="V12">
-        <v>0.8691077352329719</v>
+        <v>0.4557311721877716</v>
       </c>
       <c r="W12">
-        <v>0.9012080718088428</v>
+        <v>0.5341486358204707</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9590167309289951</v>
+        <v>1.138943222112661</v>
       </c>
       <c r="D13">
-        <v>1.115843091470399</v>
+        <v>0.9352790512379453</v>
       </c>
       <c r="E13">
-        <v>0.9744360431222331</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="F13">
-        <v>0.9744360431222331</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="G13">
-        <v>1.071751601344244</v>
+        <v>1.002607521991012</v>
       </c>
       <c r="H13">
-        <v>0.9308225962446046</v>
+        <v>1.215713762801498</v>
       </c>
       <c r="I13">
-        <v>0.9368953381285502</v>
+        <v>0.9988853393770505</v>
       </c>
       <c r="J13">
-        <v>1.092996058085415</v>
+        <v>1.036396245022384</v>
       </c>
       <c r="K13">
-        <v>0.9744360431222331</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="L13">
-        <v>1.092996058085415</v>
+        <v>1.036396245022384</v>
       </c>
       <c r="M13">
-        <v>1.075688928237735</v>
+        <v>0.8207540058491524</v>
       </c>
       <c r="N13">
-        <v>0.9744360431222331</v>
+        <v>0.7416539154339399</v>
       </c>
       <c r="O13">
-        <v>0.9368953381285502</v>
+        <v>0.9988853393770505</v>
       </c>
       <c r="P13">
-        <v>1.014945698106982</v>
+        <v>1.017640792199717</v>
       </c>
       <c r="Q13">
-        <v>1.004323469736397</v>
+        <v>1.000746430684031</v>
       </c>
       <c r="R13">
-        <v>1.001442479778733</v>
+        <v>0.9256451666111248</v>
       </c>
       <c r="S13">
-        <v>1.03388099918607</v>
+        <v>1.012629702130149</v>
       </c>
       <c r="T13">
-        <v>1.001442479778733</v>
+        <v>0.9256451666111248</v>
       </c>
       <c r="U13">
-        <v>1.019019760170111</v>
+        <v>0.9448857554560968</v>
       </c>
       <c r="V13">
-        <v>1.010103016760535</v>
+        <v>0.9042393874516653</v>
       </c>
       <c r="W13">
-        <v>1.019681298445272</v>
+        <v>0.9862791329782054</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.5669581800000002</v>
+        <v>1.007541713623152</v>
       </c>
       <c r="D14">
-        <v>-0.005230645899999998</v>
+        <v>0.819951879582589</v>
       </c>
       <c r="E14">
-        <v>-0.005504178099999995</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="F14">
-        <v>-0.005504178099999995</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="G14">
-        <v>0.02770764300000002</v>
+        <v>0.8926077226236225</v>
       </c>
       <c r="H14">
-        <v>0.4809672899999997</v>
+        <v>1.001949791592473</v>
       </c>
       <c r="I14">
-        <v>0.003742605799999997</v>
+        <v>0.8714422616722812</v>
       </c>
       <c r="J14">
-        <v>-0.004579163200000009</v>
+        <v>0.7947332407184741</v>
       </c>
       <c r="K14">
-        <v>-0.005504178099999995</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="L14">
-        <v>-0.004579163200000009</v>
+        <v>0.7947332407184741</v>
       </c>
       <c r="M14">
-        <v>0.01326413299999998</v>
+        <v>0.9280602390829098</v>
       </c>
       <c r="N14">
-        <v>-0.005504178099999995</v>
+        <v>0.8933777255752408</v>
       </c>
       <c r="O14">
-        <v>0.003742605799999997</v>
+        <v>0.8714422616722812</v>
       </c>
       <c r="P14">
-        <v>-0.0004182787000000059</v>
+        <v>0.8330877511953776</v>
       </c>
       <c r="Q14">
-        <v>0.01572512440000001</v>
+        <v>0.8820249921479519</v>
       </c>
       <c r="R14">
-        <v>-0.002113578500000002</v>
+        <v>0.8531844093219987</v>
       </c>
       <c r="S14">
-        <v>0.008957028533333336</v>
+        <v>0.8529277416714592</v>
       </c>
       <c r="T14">
-        <v>-0.002113578500000002</v>
+        <v>0.8531844093219987</v>
       </c>
       <c r="U14">
-        <v>0.005341726875000003</v>
+        <v>0.8630402376474047</v>
       </c>
       <c r="V14">
-        <v>0.003172545880000003</v>
+        <v>0.8691077352329719</v>
       </c>
       <c r="W14">
-        <v>0.134665733075</v>
+        <v>0.9012080718088428</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.3574609</v>
+        <v>0.9590167309289951</v>
       </c>
       <c r="D15">
-        <v>0.00072768059</v>
+        <v>1.115843091470399</v>
       </c>
       <c r="E15">
-        <v>0.032689534</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="F15">
-        <v>0.032689534</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="G15">
-        <v>0.019451937</v>
+        <v>1.071751601344244</v>
       </c>
       <c r="H15">
-        <v>0.054505227</v>
+        <v>0.9308225962446046</v>
       </c>
       <c r="I15">
-        <v>-0.00091394646</v>
+        <v>0.9368953381285502</v>
       </c>
       <c r="J15">
-        <v>0.0054007039</v>
+        <v>1.092996058085415</v>
       </c>
       <c r="K15">
-        <v>0.032689534</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="L15">
-        <v>0.0054007039</v>
+        <v>1.092996058085415</v>
       </c>
       <c r="M15">
-        <v>0.001717086</v>
+        <v>1.075688928237735</v>
       </c>
       <c r="N15">
-        <v>0.032689534</v>
+        <v>0.9744360431222331</v>
       </c>
       <c r="O15">
-        <v>-0.00091394646</v>
+        <v>0.9368953381285502</v>
       </c>
       <c r="P15">
-        <v>0.00224337872</v>
+        <v>1.014945698106982</v>
       </c>
       <c r="Q15">
-        <v>0.00926899527</v>
+        <v>1.004323469736397</v>
       </c>
       <c r="R15">
-        <v>0.01239209714666667</v>
+        <v>1.001442479778733</v>
       </c>
       <c r="S15">
-        <v>0.007979564813333333</v>
+        <v>1.03388099918607</v>
       </c>
       <c r="T15">
-        <v>0.01239209714666666</v>
+        <v>1.001442479778733</v>
       </c>
       <c r="U15">
-        <v>0.01415705711</v>
+        <v>1.019019760170111</v>
       </c>
       <c r="V15">
-        <v>0.017863552488</v>
+        <v>1.010103016760535</v>
       </c>
       <c r="W15">
-        <v>0.5588798902537501</v>
+        <v>1.019681298445272</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.26756978</v>
+        <v>0.5669581800000002</v>
       </c>
       <c r="D16">
-        <v>0.0022279058</v>
+        <v>-0.005230645899999998</v>
       </c>
       <c r="E16">
-        <v>0.01137042</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="F16">
-        <v>0.01137042</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="G16">
-        <v>0.0069074932</v>
+        <v>0.02770764300000002</v>
       </c>
       <c r="H16">
-        <v>2.0996007</v>
+        <v>0.4809672899999997</v>
       </c>
       <c r="I16">
-        <v>0.0003878148</v>
+        <v>0.003742605799999997</v>
       </c>
       <c r="J16">
-        <v>0.00053800132</v>
+        <v>-0.004579163200000009</v>
       </c>
       <c r="K16">
-        <v>0.01137042</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="L16">
-        <v>0.00053800132</v>
+        <v>-0.004579163200000009</v>
       </c>
       <c r="M16">
-        <v>-0.0044368932</v>
+        <v>0.01326413299999998</v>
       </c>
       <c r="N16">
-        <v>0.01137042</v>
+        <v>-0.005504178099999995</v>
       </c>
       <c r="O16">
-        <v>0.0003878148</v>
+        <v>0.003742605799999997</v>
       </c>
       <c r="P16">
-        <v>0.00046290806</v>
+        <v>-0.0004182787000000059</v>
       </c>
       <c r="Q16">
-        <v>0.003647654</v>
+        <v>0.01572512440000001</v>
       </c>
       <c r="R16">
-        <v>0.004098745373333333</v>
+        <v>-0.002113578500000002</v>
       </c>
       <c r="S16">
-        <v>0.002611103106666667</v>
+        <v>0.008957028533333336</v>
       </c>
       <c r="T16">
-        <v>0.004098745373333333</v>
+        <v>-0.002113578500000002</v>
       </c>
       <c r="U16">
-        <v>0.00480093233</v>
+        <v>0.005341726875000003</v>
       </c>
       <c r="V16">
-        <v>0.006114829864</v>
+        <v>0.003172545880000003</v>
       </c>
       <c r="W16">
-        <v>0.29802065274</v>
+        <v>0.134665733075</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.010824832</v>
+        <v>4.3574609</v>
       </c>
       <c r="D17">
-        <v>0.26575835</v>
+        <v>0.00072768059</v>
       </c>
       <c r="E17">
-        <v>0.26040927</v>
+        <v>0.032689534</v>
       </c>
       <c r="F17">
-        <v>0.26040927</v>
+        <v>0.032689534</v>
       </c>
       <c r="G17">
-        <v>0.37935706</v>
+        <v>0.019451937</v>
       </c>
       <c r="H17">
-        <v>0.6371999699999999</v>
+        <v>0.054505227</v>
       </c>
       <c r="I17">
-        <v>-0.002174764</v>
+        <v>-0.00091394646</v>
       </c>
       <c r="J17">
-        <v>0.0013160402</v>
+        <v>0.0054007039</v>
       </c>
       <c r="K17">
-        <v>0.26040927</v>
+        <v>0.032689534</v>
       </c>
       <c r="L17">
-        <v>0.0013160402</v>
+        <v>0.0054007039</v>
       </c>
       <c r="M17">
-        <v>0.8036221</v>
+        <v>0.001717086</v>
       </c>
       <c r="N17">
-        <v>0.26040927</v>
+        <v>0.032689534</v>
       </c>
       <c r="O17">
-        <v>-0.002174764</v>
+        <v>-0.00091394646</v>
       </c>
       <c r="P17">
-        <v>-0.0004293619</v>
+        <v>0.00224337872</v>
       </c>
       <c r="Q17">
-        <v>0.188591148</v>
+        <v>0.00926899527</v>
       </c>
       <c r="R17">
-        <v>0.08651684873333333</v>
+        <v>0.01239209714666667</v>
       </c>
       <c r="S17">
-        <v>0.1261661120666667</v>
+        <v>0.007979564813333333</v>
       </c>
       <c r="T17">
-        <v>0.08651684873333333</v>
+        <v>0.01239209714666666</v>
       </c>
       <c r="U17">
-        <v>0.15972690155</v>
+        <v>0.01415705711</v>
       </c>
       <c r="V17">
-        <v>0.17986337524</v>
+        <v>0.017863552488</v>
       </c>
       <c r="W17">
-        <v>0.294539107275</v>
+        <v>0.5588798902537501</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.255848985535781</v>
+        <v>0.26756978</v>
       </c>
       <c r="D18">
-        <v>0.9055459068286303</v>
+        <v>0.0022279058</v>
       </c>
       <c r="E18">
-        <v>2.661477215342467</v>
+        <v>0.01137042</v>
       </c>
       <c r="F18">
-        <v>2.661477215342467</v>
+        <v>0.01137042</v>
       </c>
       <c r="G18">
-        <v>0.2463961961616438</v>
+        <v>0.0069074932</v>
       </c>
       <c r="H18">
-        <v>1.117686533458082</v>
+        <v>2.0996007</v>
       </c>
       <c r="I18">
-        <v>0.1321323823591781</v>
+        <v>0.0003878148</v>
       </c>
       <c r="J18">
-        <v>0.00526360710438356</v>
+        <v>0.00053800132</v>
       </c>
       <c r="K18">
-        <v>2.661477215342467</v>
+        <v>0.01137042</v>
       </c>
       <c r="L18">
-        <v>0.00526360710438356</v>
+        <v>0.00053800132</v>
       </c>
       <c r="M18">
-        <v>1.36660617169315</v>
+        <v>-0.0044368932</v>
       </c>
       <c r="N18">
-        <v>2.661477215342467</v>
+        <v>0.01137042</v>
       </c>
       <c r="O18">
-        <v>0.1321323823591781</v>
+        <v>0.0003878148</v>
       </c>
       <c r="P18">
-        <v>0.06869799473178081</v>
+        <v>0.00046290806</v>
       </c>
       <c r="Q18">
-        <v>0.1892642892604109</v>
+        <v>0.003647654</v>
       </c>
       <c r="R18">
-        <v>0.9329577349353427</v>
+        <v>0.004098745373333333</v>
       </c>
       <c r="S18">
-        <v>0.1279307285417352</v>
+        <v>0.002611103106666667</v>
       </c>
       <c r="T18">
-        <v>0.9329577349353427</v>
+        <v>0.004098745373333333</v>
       </c>
       <c r="U18">
-        <v>0.7613173502419179</v>
+        <v>0.00480093233</v>
       </c>
       <c r="V18">
-        <v>1.141349323262028</v>
+        <v>0.006114829864</v>
       </c>
       <c r="W18">
-        <v>0.9613696248104144</v>
+        <v>0.29802065274</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.7190279024157895</v>
+        <v>0.010824832</v>
       </c>
       <c r="D19">
-        <v>0.2137315294889473</v>
+        <v>0.26575835</v>
       </c>
       <c r="E19">
-        <v>1.554622763205579</v>
+        <v>0.26040927</v>
       </c>
       <c r="F19">
-        <v>1.554622763205579</v>
+        <v>0.26040927</v>
       </c>
       <c r="G19">
-        <v>0.9960268855563157</v>
+        <v>0.37935706</v>
       </c>
       <c r="H19">
-        <v>1.028072381531579</v>
+        <v>0.6371999699999999</v>
       </c>
       <c r="I19">
-        <v>0.8928489053347368</v>
+        <v>-0.002174764</v>
       </c>
       <c r="J19">
-        <v>4.988099631578902E-05</v>
+        <v>0.0013160402</v>
       </c>
       <c r="K19">
-        <v>1.554622763205579</v>
+        <v>0.26040927</v>
       </c>
       <c r="L19">
-        <v>4.988099631578902E-05</v>
+        <v>0.0013160402</v>
       </c>
       <c r="M19">
-        <v>1.366466313505263</v>
+        <v>0.8036221</v>
       </c>
       <c r="N19">
-        <v>1.554622763205579</v>
+        <v>0.26040927</v>
       </c>
       <c r="O19">
-        <v>0.8928489053347368</v>
+        <v>-0.002174764</v>
       </c>
       <c r="P19">
-        <v>0.4464493931655263</v>
+        <v>-0.0004293619</v>
       </c>
       <c r="Q19">
-        <v>0.9444378954455263</v>
+        <v>0.188591148</v>
       </c>
       <c r="R19">
-        <v>0.8158405165122105</v>
+        <v>0.08651684873333333</v>
       </c>
       <c r="S19">
-        <v>0.6296418906291228</v>
+        <v>0.1261661120666667</v>
       </c>
       <c r="T19">
-        <v>0.8158405165122105</v>
+        <v>0.08651684873333333</v>
       </c>
       <c r="U19">
-        <v>0.8608871087732368</v>
+        <v>0.15972690155</v>
       </c>
       <c r="V19">
-        <v>0.9996342396597052</v>
+        <v>0.17986337524</v>
       </c>
       <c r="W19">
-        <v>0.8463558202543158</v>
+        <v>0.294539107275</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9000602186447368</v>
+        <v>1.255848985535781</v>
       </c>
       <c r="D20">
-        <v>0.7397562935925791</v>
+        <v>0.9055459068286303</v>
       </c>
       <c r="E20">
-        <v>1.449715374852632</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="F20">
-        <v>1.449715374852632</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="G20">
-        <v>0.2344642994884211</v>
+        <v>0.2463961961616438</v>
       </c>
       <c r="H20">
-        <v>1.630941837373684</v>
+        <v>1.117686533458082</v>
       </c>
       <c r="I20">
-        <v>0.5012347371378947</v>
+        <v>0.1321323823591781</v>
       </c>
       <c r="J20">
-        <v>0.0002514201820526311</v>
+        <v>0.00526360710438356</v>
       </c>
       <c r="K20">
-        <v>1.449715374852632</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="L20">
-        <v>0.0002514201820526311</v>
+        <v>0.00526360710438356</v>
       </c>
       <c r="M20">
-        <v>1.478782537500526</v>
+        <v>1.36660617169315</v>
       </c>
       <c r="N20">
-        <v>1.449715374852632</v>
+        <v>2.661477215342467</v>
       </c>
       <c r="O20">
-        <v>0.5012347371378947</v>
+        <v>0.1321323823591781</v>
       </c>
       <c r="P20">
-        <v>0.2507430786599736</v>
+        <v>0.06869799473178081</v>
       </c>
       <c r="Q20">
-        <v>0.3678495183131579</v>
+        <v>0.1892642892604109</v>
       </c>
       <c r="R20">
-        <v>0.650400510724193</v>
+        <v>0.9329577349353427</v>
       </c>
       <c r="S20">
-        <v>0.2453168189361228</v>
+        <v>0.1279307285417352</v>
       </c>
       <c r="T20">
-        <v>0.650400510724193</v>
+        <v>0.9329577349353427</v>
       </c>
       <c r="U20">
-        <v>0.5464164579152501</v>
+        <v>0.7613173502419179</v>
       </c>
       <c r="V20">
-        <v>0.7270762413027263</v>
+        <v>1.141349323262028</v>
       </c>
       <c r="W20">
-        <v>0.8669008398465659</v>
+        <v>0.9613696248104144</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.4536917121509401</v>
+        <v>0.7190279024157895</v>
       </c>
       <c r="D21">
-        <v>0.4096840475411664</v>
+        <v>0.2137315294889473</v>
       </c>
       <c r="E21">
-        <v>-4.311673120392414E-05</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="F21">
-        <v>-4.311673120392414E-05</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="G21">
-        <v>0.8118449974278891</v>
+        <v>0.9960268855563157</v>
       </c>
       <c r="H21">
-        <v>1.303737983122168</v>
+        <v>1.028072381531579</v>
       </c>
       <c r="I21">
-        <v>2.974005281740447</v>
+        <v>0.8928489053347368</v>
       </c>
       <c r="J21">
-        <v>0.001702079803434697</v>
+        <v>4.988099631578902E-05</v>
       </c>
       <c r="K21">
-        <v>-4.311673120392414E-05</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="L21">
-        <v>0.001702079803434697</v>
+        <v>4.988099631578902E-05</v>
       </c>
       <c r="M21">
-        <v>1.431143634562504</v>
+        <v>1.366466313505263</v>
       </c>
       <c r="N21">
-        <v>-4.311673120392414E-05</v>
+        <v>1.554622763205579</v>
       </c>
       <c r="O21">
-        <v>2.974005281740447</v>
+        <v>0.8928489053347368</v>
       </c>
       <c r="P21">
-        <v>1.487853680771941</v>
+        <v>0.4464493931655263</v>
       </c>
       <c r="Q21">
-        <v>1.892925139584168</v>
+        <v>0.9444378954455263</v>
       </c>
       <c r="R21">
-        <v>0.9918880816042258</v>
+        <v>0.8158405165122105</v>
       </c>
       <c r="S21">
-        <v>1.26251745299059</v>
+        <v>0.6296418906291228</v>
       </c>
       <c r="T21">
-        <v>0.9918880816042258</v>
+        <v>0.8158405165122105</v>
       </c>
       <c r="U21">
-        <v>0.9468773105601416</v>
+        <v>0.8608871087732368</v>
       </c>
       <c r="V21">
-        <v>0.7574932251018724</v>
+        <v>0.9996342396597052</v>
       </c>
       <c r="W21">
-        <v>0.9232208274521682</v>
+        <v>0.8463558202543158</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.358438649396205</v>
+        <v>0.9000602186447368</v>
       </c>
       <c r="D22">
-        <v>1.591921160835133</v>
+        <v>0.7397562935925791</v>
       </c>
       <c r="E22">
-        <v>0.6022316227780382</v>
+        <v>1.449715374852632</v>
       </c>
       <c r="F22">
-        <v>0.6022316227780382</v>
+        <v>1.449715374852632</v>
       </c>
       <c r="G22">
-        <v>1.358152967190434</v>
+        <v>0.2344642994884211</v>
       </c>
       <c r="H22">
-        <v>0.8098822901324816</v>
+        <v>1.630941837373684</v>
       </c>
       <c r="I22">
-        <v>0.1993459802812506</v>
+        <v>0.5012347371378947</v>
       </c>
       <c r="J22">
-        <v>1.655727129746554</v>
+        <v>0.0002514201820526311</v>
       </c>
       <c r="K22">
-        <v>0.6022316227780382</v>
+        <v>1.449715374852632</v>
       </c>
       <c r="L22">
-        <v>1.655727129746554</v>
+        <v>0.0002514201820526311</v>
       </c>
       <c r="M22">
-        <v>0.4300450824887913</v>
+        <v>1.478782537500526</v>
       </c>
       <c r="N22">
-        <v>0.6022316227780382</v>
+        <v>1.449715374852632</v>
       </c>
       <c r="O22">
-        <v>0.1993459802812506</v>
+        <v>0.5012347371378947</v>
       </c>
       <c r="P22">
-        <v>0.9275365550139025</v>
+        <v>0.2507430786599736</v>
       </c>
       <c r="Q22">
-        <v>0.7787494737358426</v>
+        <v>0.3678495183131579</v>
       </c>
       <c r="R22">
-        <v>0.8191015776019478</v>
+        <v>0.650400510724193</v>
       </c>
       <c r="S22">
-        <v>1.071075359072746</v>
+        <v>0.2453168189361228</v>
       </c>
       <c r="T22">
-        <v>0.8191015776019476</v>
+        <v>0.650400510724193</v>
       </c>
       <c r="U22">
-        <v>0.9538644249990693</v>
+        <v>0.5464164579152501</v>
       </c>
       <c r="V22">
-        <v>0.8835378645548631</v>
+        <v>0.7270762413027263</v>
       </c>
       <c r="W22">
-        <v>1.000718110356111</v>
+        <v>0.8669008398465659</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.531501474756946</v>
+        <v>0.4536917121509401</v>
       </c>
       <c r="D23">
-        <v>1.539455930538949</v>
+        <v>0.4096840475411664</v>
       </c>
       <c r="E23">
-        <v>0.9840053548963863</v>
+        <v>-4.311673120392414E-05</v>
       </c>
       <c r="F23">
-        <v>0.9840053548963863</v>
+        <v>-4.311673120392414E-05</v>
       </c>
       <c r="G23">
-        <v>0.6271839420445542</v>
+        <v>0.8118449974278891</v>
       </c>
       <c r="H23">
-        <v>0.9256219321168204</v>
+        <v>1.303737983122168</v>
       </c>
       <c r="I23">
-        <v>0.4627936133186827</v>
+        <v>2.974005281740447</v>
       </c>
       <c r="J23">
-        <v>1.767723737934358</v>
+        <v>0.001702079803434697</v>
       </c>
       <c r="K23">
-        <v>0.9840053548963863</v>
+        <v>-4.311673120392414E-05</v>
       </c>
       <c r="L23">
-        <v>1.767723737934358</v>
+        <v>0.001702079803434697</v>
       </c>
       <c r="M23">
-        <v>0.5238793359144963</v>
+        <v>1.431143634562504</v>
       </c>
       <c r="N23">
-        <v>0.9840053548963863</v>
+        <v>-4.311673120392414E-05</v>
       </c>
       <c r="O23">
-        <v>0.4627936133186827</v>
+        <v>2.974005281740447</v>
       </c>
       <c r="P23">
-        <v>1.11525867562652</v>
+        <v>1.487853680771941</v>
       </c>
       <c r="Q23">
-        <v>0.5449887776816185</v>
+        <v>1.892925139584168</v>
       </c>
       <c r="R23">
-        <v>1.071507568716476</v>
+        <v>0.9918880816042258</v>
       </c>
       <c r="S23">
-        <v>0.9525670977658649</v>
+        <v>1.26251745299059</v>
       </c>
       <c r="T23">
-        <v>1.071507568716475</v>
+        <v>0.9918880816042258</v>
       </c>
       <c r="U23">
-        <v>0.9604266620484951</v>
+        <v>0.9468773105601416</v>
       </c>
       <c r="V23">
-        <v>0.9651424006180733</v>
+        <v>0.7574932251018724</v>
       </c>
       <c r="W23">
-        <v>1.045270665190149</v>
+        <v>0.9232208274521682</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.7952416120434692</v>
+        <v>1.358438649396205</v>
       </c>
       <c r="D24">
-        <v>1.162045768650515</v>
+        <v>1.591921160835133</v>
       </c>
       <c r="E24">
-        <v>1.046112278459054</v>
+        <v>0.6022316227780382</v>
       </c>
       <c r="F24">
-        <v>1.046112278459054</v>
+        <v>0.6022316227780382</v>
       </c>
       <c r="G24">
-        <v>0.8106030221734616</v>
+        <v>1.358152967190434</v>
       </c>
       <c r="H24">
-        <v>0.94983271636682</v>
+        <v>0.8098822901324816</v>
       </c>
       <c r="I24">
-        <v>0.8720598664434072</v>
+        <v>0.1993459802812506</v>
       </c>
       <c r="J24">
-        <v>0.9245614428718981</v>
+        <v>1.655727129746554</v>
       </c>
       <c r="K24">
-        <v>1.046112278459054</v>
+        <v>0.6022316227780382</v>
       </c>
       <c r="L24">
-        <v>0.9245614428718981</v>
+        <v>1.655727129746554</v>
       </c>
       <c r="M24">
-        <v>1.299384753518798</v>
+        <v>0.4300450824887913</v>
       </c>
       <c r="N24">
-        <v>1.046112278459054</v>
+        <v>0.6022316227780382</v>
       </c>
       <c r="O24">
-        <v>0.8720598664434072</v>
+        <v>0.1993459802812506</v>
       </c>
       <c r="P24">
-        <v>0.8983106546576527</v>
+        <v>0.9275365550139025</v>
       </c>
       <c r="Q24">
-        <v>0.8413314443084343</v>
+        <v>0.7787494737358426</v>
       </c>
       <c r="R24">
-        <v>0.9475778625914532</v>
+        <v>0.8191015776019478</v>
       </c>
       <c r="S24">
-        <v>0.8690747771629224</v>
+        <v>1.071075359072746</v>
       </c>
       <c r="T24">
-        <v>0.9475778625914529</v>
+        <v>0.8191015776019476</v>
       </c>
       <c r="U24">
-        <v>0.9133341524869552</v>
+        <v>0.9538644249990693</v>
       </c>
       <c r="V24">
-        <v>0.9398897776813749</v>
+        <v>0.8835378645548631</v>
       </c>
       <c r="W24">
-        <v>0.9824801825659278</v>
+        <v>1.000718110356111</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.357021250103997</v>
+        <v>1.531501474756946</v>
       </c>
       <c r="D25">
-        <v>0.2920568863742489</v>
+        <v>1.539455930538949</v>
       </c>
       <c r="E25">
-        <v>2.594536535644355</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="F25">
-        <v>2.594536535644355</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="G25">
-        <v>0.7508690426842072</v>
+        <v>0.6271839420445542</v>
       </c>
       <c r="H25">
-        <v>0.8328563850080257</v>
+        <v>0.9256219321168204</v>
       </c>
       <c r="I25">
-        <v>0.2383931734993213</v>
+        <v>0.4627936133186827</v>
       </c>
       <c r="J25">
-        <v>1.360422372806201</v>
+        <v>1.767723737934358</v>
       </c>
       <c r="K25">
-        <v>2.594536535644355</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="L25">
-        <v>1.360422372806201</v>
+        <v>1.767723737934358</v>
       </c>
       <c r="M25">
-        <v>0.6812565832788728</v>
+        <v>0.5238793359144963</v>
       </c>
       <c r="N25">
-        <v>2.594536535644355</v>
+        <v>0.9840053548963863</v>
       </c>
       <c r="O25">
-        <v>0.2383931734993213</v>
+        <v>0.4627936133186827</v>
       </c>
       <c r="P25">
-        <v>0.7994077731527609</v>
+        <v>1.11525867562652</v>
       </c>
       <c r="Q25">
-        <v>0.4946311080917642</v>
+        <v>0.5449887776816185</v>
       </c>
       <c r="R25">
-        <v>1.397784027316626</v>
+        <v>1.071507568716476</v>
       </c>
       <c r="S25">
-        <v>0.7832281963299096</v>
+        <v>0.9525670977658649</v>
       </c>
       <c r="T25">
-        <v>1.397784027316625</v>
+        <v>1.071507568716475</v>
       </c>
       <c r="U25">
-        <v>1.236055281158521</v>
+        <v>0.9604266620484951</v>
       </c>
       <c r="V25">
-        <v>1.507751532055688</v>
+        <v>0.9651424006180733</v>
       </c>
       <c r="W25">
-        <v>1.013426528674903</v>
+        <v>1.045270665190149</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.3982791149170485</v>
+        <v>0.7952416120434692</v>
       </c>
       <c r="D26">
-        <v>1.193373258907465</v>
+        <v>1.162045768650515</v>
       </c>
       <c r="E26">
-        <v>0.1282168158440911</v>
+        <v>1.046112278459054</v>
       </c>
       <c r="F26">
-        <v>0.1282168158440911</v>
+        <v>1.046112278459054</v>
       </c>
       <c r="G26">
-        <v>1.457526845851832</v>
+        <v>0.8106030221734616</v>
       </c>
       <c r="H26">
-        <v>0.921778312830374</v>
+        <v>0.94983271636682</v>
       </c>
       <c r="I26">
-        <v>0.9312179522669349</v>
+        <v>0.8720598664434072</v>
       </c>
       <c r="J26">
-        <v>0.5358272646206984</v>
+        <v>0.9245614428718981</v>
       </c>
       <c r="K26">
-        <v>0.1282168158440911</v>
+        <v>1.046112278459054</v>
       </c>
       <c r="L26">
-        <v>0.5358272646206984</v>
+        <v>0.9245614428718981</v>
       </c>
       <c r="M26">
-        <v>1.139062096776784</v>
+        <v>1.299384753518798</v>
       </c>
       <c r="N26">
-        <v>0.1282168158440911</v>
+        <v>1.046112278459054</v>
       </c>
       <c r="O26">
-        <v>0.9312179522669349</v>
+        <v>0.8720598664434072</v>
       </c>
       <c r="P26">
-        <v>0.7335226084438167</v>
+        <v>0.8983106546576527</v>
       </c>
       <c r="Q26">
-        <v>1.194372399059383</v>
+        <v>0.8413314443084343</v>
       </c>
       <c r="R26">
-        <v>0.5317540109105748</v>
+        <v>0.9475778625914532</v>
       </c>
       <c r="S26">
-        <v>0.9748573542464882</v>
+        <v>0.8690747771629224</v>
       </c>
       <c r="T26">
-        <v>0.5317540109105748</v>
+        <v>0.9475778625914529</v>
       </c>
       <c r="U26">
-        <v>0.7631972196458889</v>
+        <v>0.9133341524869552</v>
       </c>
       <c r="V26">
-        <v>0.6362011388855293</v>
+        <v>0.9398897776813749</v>
       </c>
       <c r="W26">
-        <v>0.8381602077519035</v>
+        <v>0.9824801825659278</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.114861815150332</v>
+        <v>1.357021250103997</v>
       </c>
       <c r="D27">
-        <v>1.228236484901138</v>
+        <v>0.2920568863742489</v>
       </c>
       <c r="E27">
-        <v>1.671241003994832</v>
+        <v>2.594536535644355</v>
       </c>
       <c r="F27">
-        <v>1.671241003994832</v>
+        <v>2.594536535644355</v>
       </c>
       <c r="G27">
-        <v>0.8730690775607581</v>
+        <v>0.7508690426842072</v>
       </c>
       <c r="H27">
-        <v>0.8585615739896324</v>
+        <v>0.8328563850080257</v>
       </c>
       <c r="I27">
-        <v>0.189010829079881</v>
+        <v>0.2383931734993213</v>
       </c>
       <c r="J27">
-        <v>0.6756947695825444</v>
+        <v>1.360422372806201</v>
       </c>
       <c r="K27">
-        <v>1.671241003994832</v>
+        <v>2.594536535644355</v>
       </c>
       <c r="L27">
-        <v>0.6756947695825444</v>
+        <v>1.360422372806201</v>
       </c>
       <c r="M27">
-        <v>1.425316295294742</v>
+        <v>0.6812565832788728</v>
       </c>
       <c r="N27">
-        <v>1.671241003994832</v>
+        <v>2.594536535644355</v>
       </c>
       <c r="O27">
-        <v>0.189010829079881</v>
+        <v>0.2383931734993213</v>
       </c>
       <c r="P27">
-        <v>0.4323527993312127</v>
+        <v>0.7994077731527609</v>
       </c>
       <c r="Q27">
-        <v>0.5310399533203196</v>
+        <v>0.4946311080917642</v>
       </c>
       <c r="R27">
-        <v>0.8453155342190858</v>
+        <v>1.397784027316626</v>
       </c>
       <c r="S27">
-        <v>0.5792582254077279</v>
+        <v>0.7832281963299096</v>
       </c>
       <c r="T27">
-        <v>0.8453155342190858</v>
+        <v>1.397784027316625</v>
       </c>
       <c r="U27">
-        <v>0.8522539200545038</v>
+        <v>1.236055281158521</v>
       </c>
       <c r="V27">
-        <v>1.016051336842569</v>
+        <v>1.507751532055688</v>
       </c>
       <c r="W27">
-        <v>1.004498981194232</v>
+        <v>1.013426528674903</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.6056952878226448</v>
+        <v>0.3982791149170485</v>
       </c>
       <c r="D28">
-        <v>1.686003119526722</v>
+        <v>1.193373258907465</v>
       </c>
       <c r="E28">
-        <v>1.593792244003371</v>
+        <v>0.1282168158440911</v>
       </c>
       <c r="F28">
-        <v>1.593792244003371</v>
+        <v>0.1282168158440911</v>
       </c>
       <c r="G28">
-        <v>1.17816407802077</v>
+        <v>1.457526845851832</v>
       </c>
       <c r="H28">
-        <v>2.105663879519281</v>
+        <v>0.921778312830374</v>
       </c>
       <c r="I28">
-        <v>0.2759509032502152</v>
+        <v>0.9312179522669349</v>
       </c>
       <c r="J28">
-        <v>0.6820994655884874</v>
+        <v>0.5358272646206984</v>
       </c>
       <c r="K28">
-        <v>1.593792244003371</v>
+        <v>0.1282168158440911</v>
       </c>
       <c r="L28">
-        <v>0.6820994655884874</v>
+        <v>0.5358272646206984</v>
       </c>
       <c r="M28">
-        <v>0.8145540912571011</v>
+        <v>1.139062096776784</v>
       </c>
       <c r="N28">
-        <v>1.593792244003371</v>
+        <v>0.1282168158440911</v>
       </c>
       <c r="O28">
-        <v>0.2759509032502152</v>
+        <v>0.9312179522669349</v>
       </c>
       <c r="P28">
-        <v>0.4790251844193513</v>
+        <v>0.7335226084438167</v>
       </c>
       <c r="Q28">
-        <v>0.7270574906354924</v>
+        <v>1.194372399059383</v>
       </c>
       <c r="R28">
-        <v>0.8506142042806911</v>
+        <v>0.5317540109105748</v>
       </c>
       <c r="S28">
-        <v>0.7120714822864906</v>
+        <v>0.9748573542464882</v>
       </c>
       <c r="T28">
-        <v>0.8506142042806911</v>
+        <v>0.5317540109105748</v>
       </c>
       <c r="U28">
-        <v>0.9325016727157107</v>
+        <v>0.7631972196458889</v>
       </c>
       <c r="V28">
-        <v>1.064759786973243</v>
+        <v>0.6362011388855293</v>
       </c>
       <c r="W28">
-        <v>1.117740383623574</v>
+        <v>0.8381602077519035</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.114861815150332</v>
+      </c>
+      <c r="D29">
+        <v>1.228236484901138</v>
+      </c>
+      <c r="E29">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="F29">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="G29">
+        <v>0.8730690775607581</v>
+      </c>
+      <c r="H29">
+        <v>0.8585615739896324</v>
+      </c>
+      <c r="I29">
+        <v>0.189010829079881</v>
+      </c>
+      <c r="J29">
+        <v>0.6756947695825444</v>
+      </c>
+      <c r="K29">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="L29">
+        <v>0.6756947695825444</v>
+      </c>
+      <c r="M29">
+        <v>1.425316295294742</v>
+      </c>
+      <c r="N29">
+        <v>1.671241003994832</v>
+      </c>
+      <c r="O29">
+        <v>0.189010829079881</v>
+      </c>
+      <c r="P29">
+        <v>0.4323527993312127</v>
+      </c>
+      <c r="Q29">
+        <v>0.5310399533203196</v>
+      </c>
+      <c r="R29">
+        <v>0.8453155342190858</v>
+      </c>
+      <c r="S29">
+        <v>0.5792582254077279</v>
+      </c>
+      <c r="T29">
+        <v>0.8453155342190858</v>
+      </c>
+      <c r="U29">
+        <v>0.8522539200545038</v>
+      </c>
+      <c r="V29">
+        <v>1.016051336842569</v>
+      </c>
+      <c r="W29">
+        <v>1.004498981194232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.6056952878226448</v>
+      </c>
+      <c r="D30">
+        <v>1.686003119526722</v>
+      </c>
+      <c r="E30">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="F30">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="G30">
+        <v>1.17816407802077</v>
+      </c>
+      <c r="H30">
+        <v>2.105663879519281</v>
+      </c>
+      <c r="I30">
+        <v>0.2759509032502152</v>
+      </c>
+      <c r="J30">
+        <v>0.6820994655884874</v>
+      </c>
+      <c r="K30">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="L30">
+        <v>0.6820994655884874</v>
+      </c>
+      <c r="M30">
+        <v>0.8145540912571011</v>
+      </c>
+      <c r="N30">
+        <v>1.593792244003371</v>
+      </c>
+      <c r="O30">
+        <v>0.2759509032502152</v>
+      </c>
+      <c r="P30">
+        <v>0.4790251844193513</v>
+      </c>
+      <c r="Q30">
+        <v>0.7270574906354924</v>
+      </c>
+      <c r="R30">
+        <v>0.8506142042806911</v>
+      </c>
+      <c r="S30">
+        <v>0.7120714822864906</v>
+      </c>
+      <c r="T30">
+        <v>0.8506142042806911</v>
+      </c>
+      <c r="U30">
+        <v>0.9325016727157107</v>
+      </c>
+      <c r="V30">
+        <v>1.064759786973243</v>
+      </c>
+      <c r="W30">
+        <v>1.117740383623574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.04918775479670611</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2.25012053848427</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.4663737940216015</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.4663737940216015</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.866835371742265</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>2.768370334122901</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.04770037229760621</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.008323017215330672</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.4663737940216015</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.008323017215330672</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9688638416249395</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.4663737940216015</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.04770037229760621</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.02801169475646844</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9572678720199354</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.1741323945115128</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.6409529204184005</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.1741323945115128</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.5973081388192008</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.5711212698596808</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.053221878038202</v>
       </c>
     </row>
